--- a/Document/Oracle/Oracle.xlsx
+++ b/Document/Oracle/Oracle.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00849B54-398F-4878-97CE-500E8F23027C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Name</t>
   </si>
@@ -34,9 +35,6 @@
   </si>
   <si>
     <t>Schema</t>
-  </si>
-  <si>
-    <t>Lược đồ là một tập hợp các cấu trúc lôgic của dữ liệu hoặc các đối tượng lược đồ. Một lược đồ thuộc sở hữu của người dùng cơ sở dữ liệu và có cùng tên với người dùng đó. Mỗi người dùng sở hữu một lược đồ duy nhất. Các đối tượng lược đồ có thể được tạo và thao tác với SQL và bao gồm các loại đối tượng sau:</t>
   </si>
   <si>
     <t>https://docs.oracle.com/cd/B12037_01/server.101/b10743/schema.htm#i22627</t>
@@ -86,11 +84,26 @@
   <si>
     <t>sequence</t>
   </si>
+  <si>
+    <t>Lược đồ là một tập hợp các cấu trúc lôgic của dữ liệu hoặc các đối tượng lược đồ. Một lược đồ thuộc sở hữu của người dùng cơ sở dữ liệu và có cùng tên với người dùng đó. Mỗi người dùng sở hữu một lược đồ duy nhất. Các đối tượng lược đồ có thể được tạo và thao tác với SQL và bao gồm các loại đối tượng sau:
+Schema: là 1 tập hợp các đối tượng trong cơ sở dữ liệu Oracle được quản lý bởi 1 user nào đó, các đối tượng của schema có thể là table, view, stored procedures, index, sequence… Schema được tự động tạo cùng với user khi thực thi lệnh CREATE USER trong SQL PLUS.
+Việc lưu trữ vật lý các đối tượng dữ liệu của Schema(như table, indexes, clusters) được thực hiện bởi các Tablespace, 1 Tablespace có thể lưu dữ liệu của nhiều Schema và các đối tượng dữ liệu trong 1 Schema có thể được lưu trữ trong nhiều Tablespace khác nhau tùy theo mô hình dữ liệu.</t>
+  </si>
+  <si>
+    <t>CREATE USER myuser IDENTIFIED BY p@ssword
+DEFAULT TABLESPACE users
+TEMPORARY TABLESPACE temp
+QUOTA UNLIMITED ON users
+QUOTA 100M ON my_data;</t>
+  </si>
+  <si>
+    <t>http://wak.vn/wiki:schema</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -261,14 +274,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:E19" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A3:E19"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A3:E19" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+  <autoFilter ref="A3:E19" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Name" dataDxfId="4"/>
-    <tableColumn id="2" name="Desciprtions" dataDxfId="3"/>
-    <tableColumn id="3" name="Note" dataDxfId="2"/>
-    <tableColumn id="4" name="Syntax" dataDxfId="1"/>
-    <tableColumn id="5" name="Link" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Name" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Desciprtions" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Note" dataDxfId="2"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Syntax" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Link" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -536,29 +549,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="61.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="51.140625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="61.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="51.109375" style="1" customWidth="1"/>
     <col min="4" max="4" width="66" style="1" customWidth="1"/>
-    <col min="5" max="5" width="34.140625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="1"/>
+    <col min="5" max="5" width="34.109375" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="75" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -569,53 +582,60 @@
         <v>2</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="120" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
+      <c r="B5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="5" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="1" t="s">
+    <row r="6" spans="1:5" ht="135" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="135" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E5" r:id="rId1" location=":~:text=What%20is%20Package%20in%20Oracle,that%20can%20be%20used%20later."/>
+    <hyperlink ref="E5" r:id="rId1" location=":~:text=What%20is%20Package%20in%20Oracle,that%20can%20be%20used%20later." xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="E4" r:id="rId2" xr:uid="{2FEF665F-9FE4-4278-83F7-18D89A40BE19}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
--- a/Document/Oracle/Oracle.xlsx
+++ b/Document/Oracle/Oracle.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
-  <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{00849B54-398F-4878-97CE-500E8F23027C}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16896" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="30930" windowHeight="16890" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="SYNTAX" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="67">
   <si>
     <t>Name</t>
   </si>
@@ -99,12 +99,2241 @@
   <si>
     <t>http://wak.vn/wiki:schema</t>
   </si>
+  <si>
+    <t>Descriptions</t>
+  </si>
+  <si>
+    <t>Declaration section</t>
+  </si>
+  <si>
+    <t>Executable section</t>
+  </si>
+  <si>
+    <t>Exception-handling section</t>
+  </si>
+  <si>
+    <t>Introduction to PL/SQL data types</t>
+  </si>
+  <si>
+    <t>Number
+Boolean
+Character
+Datetime</t>
+  </si>
+  <si>
+    <t>Declaring variables</t>
+  </si>
+  <si>
+    <t>variable_name datatype [NOT NULL] [:= initial_value];</t>
+  </si>
+  <si>
+    <t>Example</t>
+  </si>
+  <si>
+    <t>First, specify the name of the variable. The name of the variable should be as descriptive as possible, e.g., l_total_sales, l_credit_limit, and l_sales_revenue.
+By convention, local variable names should start with l_ and global variable names should have a prefix of g_ .</t>
+  </si>
+  <si>
+    <t>Comment</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-- valued added tax 10%
+DECLARE co_vat_rate CONSTANT NUMBER := 0.1; </t>
+  </si>
+  <si>
+    <t xml:space="preserve">CONSTANT </t>
+  </si>
+  <si>
+    <t>IF ELSE</t>
+  </si>
+  <si>
+    <t>Anchored declarations</t>
+  </si>
+  <si>
+    <t>Không cần khai báo variable trước khi gán giá trị.</t>
+  </si>
+  <si>
+    <t>SERVEROUT</t>
+  </si>
+  <si>
+    <t>DBMS_OUTPUT.PUT_LINE( 'This sales deal is profitable' );</t>
+  </si>
+  <si>
+    <t>IF condition THEN
+    statements;
+ELSE
+    else_statements;
+END IF;</t>
+  </si>
+  <si>
+    <t>Nested IF statement</t>
+  </si>
+  <si>
+    <t xml:space="preserve">IF condition_1 THEN
+    IF condition_2 THEN
+        nested_if_statements;
+    END IF;
+ELSE
+    else_statements;
+END IF; </t>
+  </si>
+  <si>
+    <t>CASE Statement</t>
+  </si>
+  <si>
+    <t>PL/SQL stands for “Procedural Language extensions to the Structured Query Language”</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GOTO </t>
+  </si>
+  <si>
+    <t>BEGIN
+  GOTO second_message;
+  &lt;&lt;first_message&gt;&gt;
+  DBMS_OUTPUT.PUT_LINE( 'Hello' );
+  GOTO the_end;
+  &lt;&lt;second_message&gt;&gt;
+  DBMS_OUTPUT.PUT_LINE( 'PL/SQL GOTO Demo' );
+  GOTO first_message;
+  &lt;&lt;the_end&gt;&gt;
+  DBMS_OUTPUT.PUT_LINE( 'and good bye...' );
+END;</t>
+  </si>
+  <si>
+    <t>GOTO label_name;
+use : &lt;&lt;label_name&gt;&gt;;</t>
+  </si>
+  <si>
+    <t>LOOP</t>
+  </si>
+  <si>
+    <t>https://www.oracletutorial.com/plsql-tutorial/plsql-loop/</t>
+  </si>
+  <si>
+    <t>LOOP
+    IF condition THEN
+        EXIT;
+    END IF;
+END LOOP;</t>
+  </si>
+  <si>
+    <t>PL/SQL FOR LOOP</t>
+  </si>
+  <si>
+    <t>https://www.oracletutorial.com/plsql-tutorial/plsql-for-loop/</t>
+  </si>
+  <si>
+    <t>FOR index IN lower_bound .. upper_bound
+LOOP 
+    statements; 
+END LOOP;</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>DECLARE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+  l_message VARCHAR2( 255 ) := 'Hello World!';
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>BEGIN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+  DBMS_OUTPUT.PUT_LINE( l_message );
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>END;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>DECLARE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+      v_result NUMBER;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>BEGIN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+   v_result := 1 / 0;
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>EXCEPTION</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+      WHEN ZERO_DIVIDE THEN
+         DBMS_OUTPUT.PUT_LINE( SQLERRM );
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>END;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Number: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">DEC, DECIMAL, DOUBLE PRECISION, FLOAT, INTEGER, INT, NUMERIC, REAL, SMALLINT
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Boolean</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">: True, false, null.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>Character</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>: CHAR, VARCHAR2, LONG, RAW, LONG RAW, ROWID, and UROWID</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>DECLARE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+    l_total_sales NUMBER(15,2);
+    l_credit_limit NUMBER (10,0);    
+    l_contact_name VARCHAR2(255);
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>BEGIN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+    NULL;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>END;
+//////////////////////////////////////
+DECLARE
+  l_product_name VARCHAR2( 100 ) := 'Laptop'; OR l_product_name VARCHAR2(100) DEFAULT 'Laptop';
+BEGIN
+  NULL;
+END;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  l_customer_name customers.name</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>%TYPE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>;
+  l_credit_limit customers.credit_limit</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>%TYPE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>DECLARE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+  l_customer_name customers.name</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>%TYPE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>;
+  l_credit_limit customers.credit_limit</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>%TYPE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>BEGIN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>SELECT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+    name, credit_limit
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>INTO</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+    l_customer_name, l_credit_limit
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>FROM</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+    customers
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>WHERE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+    customer_id = 38;
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>DBMS_OUTPUT.PUT_LINE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">(l_customer_name || ':' || l_credit_limit );
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>END;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+/</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>DECLARE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+    co_payment_term   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>CONSTANT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>NUMBER</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">   := 45; -- days 
+    co_payment_status </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>CONSTANT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>BOOLEAN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  := FALSE; 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>BEGIN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+    NULL;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>END;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">DECLARE
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> n_sales NUMBER := 300000;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  n_commission NUMBER( 10, 2 ) := 0;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+BEGIN
+  IF </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>n_sales &gt; 200000</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> THEN
+ </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">   n_commission := n_sales * 0.1;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+  ELSIF </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>n_sales &lt;= 200000 AND n_sales &gt; 100000</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> THEN 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">    n_commission := n_sales * 0.05;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+  ELSIF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> n_sales &lt;= 100000 AND n_sales &gt; 50000</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> THEN 
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>n_commission := n_sales * 0.03;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+  ELSE
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>n_commission := n_sales * 0.02;</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+  END IF;
+END;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>CASE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> selector
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>WHEN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> selector_value_1 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>THEN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+    statements_1
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>WHEN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> selector_value_1 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>THEN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 
+    statement_2
+...
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ELSE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+    else_statements
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>END</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>CASE;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>DECLARE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+  n_sales      NUMBER;
+  n_commission NUMBER;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>BEGIN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+  n_sales := 150000;
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>CASE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>WHEN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> n_sales    &gt; 200000 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>THEN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+    n_commission := 0.2;
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>WHEN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> n_sales   &gt;= 100000 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>AND</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> n_sales &lt; 200000 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>THEN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+    n_commission := 0.15;
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>WHEN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> n_sales   &gt;= 50000 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>AND</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> n_sales &lt; 100000 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>THEN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+    n_commission := 0.1;
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>WHEN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> n_sales    &gt; 30000 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>THEN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+    n_commission := 0.05;
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>ELSE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+    n_commission := 0;
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>END CASE;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+  DBMS_OUTPUT.PUT_LINE( 'Commission is ' || n_commission * 100 || '%'
+  );
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>END;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>DECLARE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+  l_counter NUMBER := 0;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>BEGIN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>LOOP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+    l_counter := l_counter + 1;
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>IF</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> l_counter &gt; 3 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>THEN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+      </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>EXIT;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>END</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>IF;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+    dbms_output.put_line( 'Inside loop: ' || l_counter )  ;
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>END</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>LOOP;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+  -- control resumes here after EXIT
+  dbms_output.put_line( 'After loop: ' || l_counter );
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>END;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+'-------------------------------------------------------------------
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>DECLARE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+  l_counter NUMBER := 0;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>BEGIN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>LOOP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+    l_counter := l_counter + 1;
+    </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>EXIT</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>WHEN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> l_counter &gt; 3;
+    dbms_output.put_line( 'Inside loop: ' || l_counter ) ;
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>END</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>LOOP;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+  -- control resumes here after EXIT
+  dbms_output.put_line( 'After loop: ' || l_counter );
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>END;</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>DECLARE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+  l_step  PLS_INTEGER := 2;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>BEGIN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>FOR</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> l_counter IN 1..5 LOOP
+    dbms_output.put_line (l_counter*l_step);
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>END</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>LOOP;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>END;</t>
+    </r>
+  </si>
+  <si>
+    <t>PL/SQL WHILE Loop</t>
+  </si>
+  <si>
+    <t>WHILE condition
+LOOP
+    statements;
+END LOOP;</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>DECLARE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+  n_counter NUMBER := 1;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>BEGIN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>WHILE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> n_counter &lt;= 5
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>LOOP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+    DBMS_OUTPUT.PUT_LINE( 'Counter : ' || n_counter );
+    n_counter := n_counter + 1
+  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>END</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>LOOP;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>END;
+-------------------------------------------
+DECLARE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+   n_counter NUMBER := 1;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>BEGIN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>WHILE</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> n_counter &lt;= 5
+      </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>LOOP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+        DBMS_OUTPUT.PUT_LINE( 'Counter : ' || n_counter );
+        n_counter := n_counter + 1;
+        </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>EXIT WHEN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> n_counter = 3;
+      </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>END</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>LOOP;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>END;</t>
+    </r>
+  </si>
+  <si>
+    <t>Statement result sql</t>
+  </si>
+  <si>
+    <t>CREATE OR REPLACE PROCEDURE get_customers(
+    page_no NUMBER, 
+    page_size NUMBER
+)
+AS
+    c_customers SYS_REFCURSOR;
+    c_total_row SYS_REFCURSOR;
+BEGIN
+    -- return the total of customers
+    OPEN c_total_row FOR
+        SELECT COUNT(*)
+        FROM customers;
+    dbms_sql.return_result(c_total_row);
+    -- return the customers 
+    OPEN c_customers FOR
+        SELECT customer_id, name
+        FROM customers
+        ORDER BY name
+        OFFSET page_size * (page_no - 1) ROWS
+        FETCH NEXT page_size ROWS ONLY;
+    dbms_sql.return_result(c_customers);    
+END;</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> dbms_sql.return_result(c_customers);    dbms_sql.return_result(c_customers); </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -125,6 +2354,26 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="13"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -148,7 +2397,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -156,12 +2405,111 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="14">
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -273,15 +2621,72 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>85165</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>98052</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>295425</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>1527294</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12960724" y="1050552"/>
+          <a:ext cx="5051201" cy="3524742"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A3:E19" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
-  <autoFilter ref="A3:E19" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:E19" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+  <autoFilter ref="A3:E19"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Name" dataDxfId="4"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Desciprtions" dataDxfId="3"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Note" dataDxfId="2"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Syntax" dataDxfId="1"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Link" dataDxfId="0"/>
+    <tableColumn id="1" name="Name" dataDxfId="11"/>
+    <tableColumn id="2" name="Desciprtions" dataDxfId="10"/>
+    <tableColumn id="3" name="Note" dataDxfId="9"/>
+    <tableColumn id="4" name="Syntax" dataDxfId="8"/>
+    <tableColumn id="5" name="Link" dataDxfId="7"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A3:E25" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+  <autoFilter ref="A3:E25"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="SERVEROUT" dataDxfId="6"/>
+    <tableColumn id="2" name="Descriptions" dataDxfId="5"/>
+    <tableColumn id="3" name="Syntax" dataDxfId="4"/>
+    <tableColumn id="4" name="Example" dataDxfId="3"/>
+    <tableColumn id="5" name="Link" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -549,29 +2954,29 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="20.6640625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="61.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="51.109375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="20.7109375" style="1" customWidth="1"/>
+    <col min="2" max="2" width="61.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="51.140625" style="1" customWidth="1"/>
     <col min="4" max="4" width="66" style="1" customWidth="1"/>
-    <col min="5" max="5" width="34.109375" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9.109375" style="1"/>
+    <col min="5" max="5" width="34.140625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -588,7 +2993,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
@@ -605,7 +3010,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="5" spans="1:5" ht="120" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>7</v>
       </c>
@@ -619,7 +3024,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="135" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>13</v>
       </c>
@@ -629,8 +3034,8 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E5" r:id="rId1" location=":~:text=What%20is%20Package%20in%20Oracle,that%20can%20be%20used%20later." xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="E4" r:id="rId2" xr:uid="{2FEF665F-9FE4-4278-83F7-18D89A40BE19}"/>
+    <hyperlink ref="E5" r:id="rId1" location=":~:text=What%20is%20Package%20in%20Oracle,that%20can%20be%20used%20later."/>
+    <hyperlink ref="E4" r:id="rId2"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -638,4 +3043,240 @@
     <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E20"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="R17" sqref="R17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="24.42578125" style="4" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="48.5703125" style="4" customWidth="1"/>
+    <col min="4" max="4" width="79.7109375" style="4" customWidth="1"/>
+    <col min="5" max="5" width="26.28515625" style="4" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B1" s="3"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="99" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="148.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="148.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="99" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="231" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="264" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="49.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="132" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="264" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="132" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="363" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="247.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A17" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="115.5" x14ac:dyDescent="0.25">
+      <c r="A18" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="346.5" x14ac:dyDescent="0.25">
+      <c r="A19" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D19" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A20" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>65</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:B1"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="E17" r:id="rId1"/>
+    <hyperlink ref="E18" r:id="rId2"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId3"/>
+  <drawing r:id="rId4"/>
+  <tableParts count="1">
+    <tablePart r:id="rId5"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/Document/Oracle/Oracle.xlsx
+++ b/Document/Oracle/Oracle.xlsx
@@ -4,11 +4,16 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="30930" windowHeight="16890" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="30930" windowHeight="16890"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="SYNTAX" sheetId="2" r:id="rId2"/>
+    <sheet name="Fackage" sheetId="9" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="SYNTAX" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet7" sheetId="8" r:id="rId4"/>
+    <sheet name="Procedure" sheetId="6" r:id="rId5"/>
+    <sheet name="Function" sheetId="7" r:id="rId6"/>
+    <sheet name="Query" sheetId="3" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -20,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="85">
   <si>
     <t>Name</t>
   </si>
@@ -2327,6 +2332,393 @@
   </si>
   <si>
     <t xml:space="preserve"> dbms_sql.return_result(c_customers);    dbms_sql.return_result(c_customers); </t>
+  </si>
+  <si>
+    <t>Package with body</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>create or replace package human_resources</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>as</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  
+ type t_cursor is ref cursor;  
+ procedure get_employee(cur_employees out t_cursor);  
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>end</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>human_resources;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">create or replace package body human_resources  
+as  
+ procedure get_employee(cur_employees out t_cursor)  
+ is  
+ begin  
+  open cur_employees for select * from emp;  
+ end get_employee;  
+end human_resources;  </t>
+  </si>
+  <si>
+    <t>Tạo package để lưu trữ</t>
+  </si>
+  <si>
+    <t>Định nghĩa body cho package</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>ORACLE STANDARDS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">* Tối đa 30 ký tự, càng ngắn càng tốt nhưng phải gợi nghĩa.
+* Chỉ sử dụng ký tự chữ, ký tự số và dấu “_”. </t>
+  </si>
+  <si>
+    <t>a. Qui ước chung (I. TIÊU CHUẨN VÀ QUI ƯỚC ĐẶT TÊN)</t>
+  </si>
+  <si>
+    <t>Column</t>
+  </si>
+  <si>
+    <t>Execute a function that is defined in a package</t>
+  </si>
+  <si>
+    <t>package_name.function_name (parameter1, parameter2, ... parameter_n)</t>
+  </si>
+  <si>
+    <t>Exmaple</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>#1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 
+declare
+   result number;
+begin
+   -- Call the function
+   result := package_name.function_name (15000);
+end;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">#2
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">select package_name.function_name (15000)
+from dual;
+</t>
+    </r>
+  </si>
+  <si>
+    <t>function</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>FUNCTION</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> sal_ok (rank INT, salary REAL) </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>RETURN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> BOOLEAN </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>IS</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+      min_sal </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>REAL;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+      max_sal </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>REAL;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>BEGIN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+      SELECT losal, hisal INTO min_sal, max_sal FROM salgrade
+         WHERE grade = rank;
+      </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>RETURN</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (salary &gt;= min_sal) AND (salary &lt;= max_sal);
+   </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>END</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> sal_ok;</t>
+    </r>
+  </si>
+  <si>
+    <t>Pacakge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To create packages, use the CREATE PACKAGE statement, which you can execute interactively from SQL*Plus. Here is the syntax:
+CREATE [OR REPLACE] PACKAGE package_name
+   [AUTHID {CURRENT_USER | DEFINER}]
+   {IS | AS}
+   [PRAGMA SERIALLY_REUSABLE;]
+   [collection_type_definition ...]
+   [record_type_definition ...]
+   [subtype_definition ...]
+   [collection_declaration ...]
+   [constant_declaration ...]
+   [exception_declaration ...]
+   [object_declaration ...]
+   [record_declaration ...]
+   [variable_declaration ...]
+   [cursor_spec ...]
+   [function_spec ...]
+   [procedure_spec ...]
+   [call_spec ...]
+   [PRAGMA RESTRICT_REFERENCES(assertions) ...]
+END [package_name];
+[CREATE [OR REPLACE] PACKAGE BODY package_name {IS | AS}
+   [PRAGMA SERIALLY_REUSABLE;]
+   [collection_type_definition ...]
+   [record_type_definition ...]
+   [subtype_definition ...]
+   [collection_declaration ...]
+   [constant_declaration ...]
+   [exception_declaration ...]
+   [object_declaration ...]
+   [record_declaration ...]
+   [variable_declaration ...]
+   [cursor_body ...]
+   [function_spec ...]
+   [procedure_spec ...]
+   [call_spec ...]
+[BEGIN
+   sequence_of_statements]
+END [package_name];]
+</t>
   </si>
 </sst>
 </file>
@@ -2397,15 +2789,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2420,12 +2809,378 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="14">
+  <dxfs count="34">
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <font>
         <strike val="0"/>
@@ -2665,28 +3420,76 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:E19" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
-  <autoFilter ref="A3:E19"/>
-  <tableColumns count="5">
-    <tableColumn id="1" name="Name" dataDxfId="11"/>
-    <tableColumn id="2" name="Desciprtions" dataDxfId="10"/>
-    <tableColumn id="3" name="Note" dataDxfId="9"/>
-    <tableColumn id="4" name="Syntax" dataDxfId="8"/>
-    <tableColumn id="5" name="Link" dataDxfId="7"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table37" displayName="Table37" ref="A3:C15" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+  <autoFilter ref="A3:C15"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Name" dataDxfId="2"/>
+    <tableColumn id="2" name="Syntax" dataDxfId="0"/>
+    <tableColumn id="3" name="Note" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A3:E25" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:E19" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
+  <autoFilter ref="A3:E19"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Name" dataDxfId="31"/>
+    <tableColumn id="2" name="Desciprtions" dataDxfId="30"/>
+    <tableColumn id="3" name="Note" dataDxfId="29"/>
+    <tableColumn id="4" name="Syntax" dataDxfId="28"/>
+    <tableColumn id="5" name="Link" dataDxfId="27"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A3:E25" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
   <autoFilter ref="A3:E25"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="SERVEROUT" dataDxfId="6"/>
-    <tableColumn id="2" name="Descriptions" dataDxfId="5"/>
-    <tableColumn id="3" name="Syntax" dataDxfId="4"/>
-    <tableColumn id="4" name="Example" dataDxfId="3"/>
-    <tableColumn id="5" name="Link" dataDxfId="2"/>
+    <tableColumn id="1" name="SERVEROUT" dataDxfId="24"/>
+    <tableColumn id="2" name="Descriptions" dataDxfId="23"/>
+    <tableColumn id="3" name="Syntax" dataDxfId="22"/>
+    <tableColumn id="4" name="Example" dataDxfId="21"/>
+    <tableColumn id="5" name="Link" dataDxfId="20"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table35" displayName="Table35" ref="A3:C15" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+  <autoFilter ref="A3:C15"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Name" dataDxfId="12"/>
+    <tableColumn id="2" name="Description" dataDxfId="11"/>
+    <tableColumn id="3" name="Note" dataDxfId="10"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table356" displayName="Table356" ref="A3:C15" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
+  <autoFilter ref="A3:C15"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Name" dataDxfId="7"/>
+    <tableColumn id="2" name="Syntax" dataDxfId="6"/>
+    <tableColumn id="3" name="Exmaple" dataDxfId="5"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A3:C15" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+  <autoFilter ref="A3:C15"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Name" dataDxfId="19"/>
+    <tableColumn id="2" name="Description" dataDxfId="18"/>
+    <tableColumn id="3" name="Note" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2955,6 +3758,50 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:C4"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="68" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="68" style="7"/>
+    <col min="2" max="2" width="92.42578125" style="7" customWidth="1"/>
+    <col min="3" max="3" width="46.28515625" style="7" customWidth="1"/>
+    <col min="4" max="16384" width="68" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -3045,223 +3892,245 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E20"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="R17" sqref="R17"/>
+    <sheetView showGridLines="0" topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="24.42578125" style="4" customWidth="1"/>
-    <col min="2" max="2" width="28.42578125" style="4" customWidth="1"/>
-    <col min="3" max="3" width="48.5703125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="79.7109375" style="4" customWidth="1"/>
-    <col min="5" max="5" width="26.28515625" style="4" customWidth="1"/>
-    <col min="6" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="24.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="28.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="48.5703125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="79.7109375" style="3" customWidth="1"/>
+    <col min="5" max="5" width="26.28515625" style="3" customWidth="1"/>
+    <col min="6" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="3"/>
+      <c r="B1" s="8"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="4" t="s">
+      <c r="B3" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="4" t="s">
+      <c r="E3" s="3" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="33" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="A4" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="99" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="A5" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="3" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="148.5" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="A6" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="148.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="A7" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="99" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
+      <c r="A8" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="231" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
+      <c r="A9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="264" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="A10" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>32</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>53</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="3" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="49.5" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="A11" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="132" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>29</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="264" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="A13" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="5" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="132" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="A14" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="363" x14ac:dyDescent="0.25">
-      <c r="A15" s="4" t="s">
+      <c r="A15" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="3" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="247.5" x14ac:dyDescent="0.25">
-      <c r="A16" s="4" t="s">
+      <c r="A16" s="3" t="s">
         <v>40</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="3" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
+      <c r="A17" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>45</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="3" t="s">
         <v>59</v>
       </c>
-      <c r="E17" s="7" t="s">
+      <c r="E17" s="6" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="115.5" x14ac:dyDescent="0.25">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="3" t="s">
         <v>60</v>
       </c>
-      <c r="E18" s="7" t="s">
+      <c r="E18" s="6" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="346.5" x14ac:dyDescent="0.25">
-      <c r="A19" s="4" t="s">
+      <c r="A19" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="3" t="s">
         <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
-      <c r="A20" s="4" t="s">
+      <c r="A20" s="3" t="s">
         <v>64</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="3" t="s">
         <v>66</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="3" t="s">
         <v>65</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="115.5" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="181.5" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>69</v>
       </c>
     </row>
   </sheetData>
@@ -3279,4 +4148,158 @@
     <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:C3"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="68" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="68" style="7"/>
+    <col min="3" max="3" width="46.28515625" style="7" customWidth="1"/>
+    <col min="4" max="16384" width="68" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:C5"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="68" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="68" style="7"/>
+    <col min="3" max="3" width="65.140625" style="7" customWidth="1"/>
+    <col min="4" max="16384" width="68" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="181.5" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="181.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:C5"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="68" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="68" style="7"/>
+    <col min="3" max="3" width="46.28515625" style="7" customWidth="1"/>
+    <col min="4" max="16384" width="68" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="7" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="7" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="33" x14ac:dyDescent="0.25">
+      <c r="A4" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="7" t="s">
+        <v>76</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
 </file>
--- a/Document/Oracle/Oracle.xlsx
+++ b/Document/Oracle/Oracle.xlsx
@@ -4,16 +4,20 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="30930" windowHeight="16890"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="30930" windowHeight="16890" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Fackage" sheetId="9" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
+    <sheet name="Basic" sheetId="1" r:id="rId2"/>
     <sheet name="SYNTAX" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet7" sheetId="8" r:id="rId4"/>
-    <sheet name="Procedure" sheetId="6" r:id="rId5"/>
-    <sheet name="Function" sheetId="7" r:id="rId6"/>
-    <sheet name="Query" sheetId="3" r:id="rId7"/>
+    <sheet name="Procedure" sheetId="6" r:id="rId4"/>
+    <sheet name="Function" sheetId="7" r:id="rId5"/>
+    <sheet name="JoinTable" sheetId="10" r:id="rId6"/>
+    <sheet name="DataSample" sheetId="11" r:id="rId7"/>
+    <sheet name="GroupBy" sheetId="12" r:id="rId8"/>
+    <sheet name="Functio2n" sheetId="3" r:id="rId9"/>
+    <sheet name="Sheet4" sheetId="13" r:id="rId10"/>
+    <sheet name="Sheet5" sheetId="14" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="166">
   <si>
     <t>Name</t>
   </si>
@@ -2720,12 +2724,614 @@
 END [package_name];]
 </t>
   </si>
+  <si>
+    <t>link</t>
+  </si>
+  <si>
+    <t>https://www.oracletutorial.com/oracle-basics/oracle-inner-join/</t>
+  </si>
+  <si>
+    <t>INNER JOIN</t>
+  </si>
+  <si>
+    <t>SELECT
+  *
+FROM
+  T1
+INNER JOIN T2 ON join_predicate;</t>
+  </si>
+  <si>
+    <t>SELECT
+    *
+FROM
+    orders
+INNER JOIN order_items ON
+    order_items.order_id = orders.order_id
+ORDER BY
+    order_date DESC;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">USING </t>
+  </si>
+  <si>
+    <t>SELECT
+  *
+FROM
+  T1
+INNER JOIN T2 USING( c1, c2, ... );</t>
+  </si>
+  <si>
+    <t>SELECT
+  *
+FROM
+  orders
+INNER JOIN order_items USING( order_id )
+ORDER BY
+  order_date DESC;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Note that the columns listed in the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">USING </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <i/>
+        <u/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>clause such as c1 and c2 must be available in both T1 and T2 tables.</t>
+    </r>
+  </si>
+  <si>
+    <t>Oracle LEFT JOIN</t>
+  </si>
+  <si>
+    <t>https://www.oracletutorial.com/oracle-basics/oracle-left-join/</t>
+  </si>
+  <si>
+    <t>SELECT
+    column_list
+FROM
+    T1
+LEFT JOIN T2 ON
+    join_predicate;</t>
+  </si>
+  <si>
+    <t>SELECT
+  order_id, 
+  status, 
+  first_name, 
+  last_name
+FROM
+  orders
+LEFT JOIN employees ON employee_id = salesman_id
+ORDER BY
+  order_date DESC;</t>
+  </si>
+  <si>
+    <t>Oracle LEFT JOIN with USING clause</t>
+  </si>
+  <si>
+    <t>SELECT
+    column_list
+FROM
+    T1
+LEFT JOIN T2 USING(c1,c2,c3, ...);</t>
+  </si>
+  <si>
+    <t>RIGHT OUTER JOIN in Oracle</t>
+  </si>
+  <si>
+    <t>SELECT
+    column_list
+FROM
+    T1
+RIGHT OUTER JOIN T2 ON
+    join_predicate;</t>
+  </si>
+  <si>
+    <t>RIGHT OUTER JOIN with USING clause</t>
+  </si>
+  <si>
+    <t>SELECT
+    first_name,
+    last_name,
+    order_id,
+    status
+FROM
+    orders
+RIGHT JOIN employees ON
+    employee_id = salesman_id
+WHERE
+    job_title = 'Sales Representative'
+ORDER BY
+    first_name,
+    last_name;</t>
+  </si>
+  <si>
+    <t>SELECT
+    column_list
+FROM
+    T1
+RIGHT OUTER JOIN T2 USING(c1,c2,c3);</t>
+  </si>
+  <si>
+    <t>SELECT
+    name,
+    order_id,
+    status
+FROM
+    orders
+RIGHT JOIN customers
+        USING(customer_id)
+ORDER BY
+    name;</t>
+  </si>
+  <si>
+    <t>Groupby</t>
+  </si>
+  <si>
+    <t>https://www.oracletutorial.com/oracle-basics/oracle-group-by/</t>
+  </si>
+  <si>
+    <t>SELECT
+    column_list
+FROM
+    T
+GROUP BY c1,c2,c3;</t>
+  </si>
+  <si>
+    <t>Group by basic</t>
+  </si>
+  <si>
+    <t>Group by with condition</t>
+  </si>
+  <si>
+    <t>SELECT 
+   column_list 
+FROM 
+  T 
+WHERE 
+   condition
+GROUP BY c1, c2, c3;</t>
+  </si>
+  <si>
+    <t>SELECT
+    column_list
+FROM
+    T
+GROUP BY
+    ROLLUP(c1,c2,c3);</t>
+  </si>
+  <si>
+    <t>Group by with rollup with multiple levels</t>
+  </si>
+  <si>
+    <t>SELECT
+    status
+FROM
+    orders
+GROUP BY
+    status;</t>
+  </si>
+  <si>
+    <t>CPU</t>
+  </si>
+  <si>
+    <t>Mother Board</t>
+  </si>
+  <si>
+    <t>Storage</t>
+  </si>
+  <si>
+    <t>Video Card</t>
+  </si>
+  <si>
+    <t>Group sets</t>
+  </si>
+  <si>
+    <t>GROUP BY
+    GROUPING SETS(grouping_set_list);
+------------------
+GROUP BY
+    GROUPING SETS(
+        (), 
+        (c1), 
+        (c2), 
+        (c1,c2), 
+        (c1,c2,c3)
+    )</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SELECT 
+    customer, 
+    category,
+    SUM(sales_amount)
+FROM 
+    customer_category_sales
+GROUP BY 
+    GROUPING SETS(
+        (customer,category),
+        (customer),
+        (category),
+        ()
+    )
+ORDER BY 
+    customer, 
+    category;   </t>
+  </si>
+  <si>
+    <t>DECODE</t>
+  </si>
+  <si>
+    <t>The Oracle DECODE() function allows you to add the procedural if-then-else logic to the query.</t>
+  </si>
+  <si>
+    <t>https://www.oracletutorial.com/oracle-comparison-functions/oracle-decode/</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>* Case 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+SELECT
+  DECODE(1, 1, 'One')
+FROM
+  dual;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>It works like the following if statement</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+IF 1 = 1 THEN 
+    RETURN 'One'; 
+END IF
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">* Case 2
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">SELECT
+  DECODE(1, 2, 'One','Not one')
+FROM
+  dual; 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">It works like the following if statement </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+IF 1 = 2 THEN
+    RETURN 'One';
+ELSE
+    RETURN 'Not one';
+END IF;
+* </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Case 3
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">SELECT
+  DECODE(2, 1, 'One',  2, 'Two')
+FROM
+  dual;
+It works like the following if statement </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="13"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>IF 2 = 1 THEN 
+     RETURN 'One';
+ELSIF 2 = 2 THEN 
+    RETURN 'Two';
+END IF;</t>
+    </r>
+  </si>
+  <si>
+    <t>EXTRACT</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> EXTRACT(YEAR FROM order_date) = 2017</t>
+  </si>
+  <si>
+    <t>Lấy thông tin ngày tháng năm trong kiểu Date</t>
+  </si>
+  <si>
+    <t>Shipped</t>
+  </si>
+  <si>
+    <t>Pending</t>
+  </si>
+  <si>
+    <t>Canceled</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> STATUS</t>
+  </si>
+  <si>
+    <t>ORDER_ID,</t>
+  </si>
+  <si>
+    <t>ORDER_VALUE</t>
+  </si>
+  <si>
+    <t>CATEGORY_NAME</t>
+  </si>
+  <si>
+    <t>CANCELED_ORDERS</t>
+  </si>
+  <si>
+    <t>CANCELED_SALES</t>
+  </si>
+  <si>
+    <t>PENDING_ORDERS</t>
+  </si>
+  <si>
+    <t>PENDING_SALES</t>
+  </si>
+  <si>
+    <t>SHIPPED_ORDERS</t>
+  </si>
+  <si>
+    <t>SHIPPED_SALES</t>
+  </si>
+  <si>
+    <t>Tablespace</t>
+  </si>
+  <si>
+    <t>CREATE TABLESPACE tbs1 
+   DATAFILE 'tbs1_data.dbf' 
+   SIZE 1m;</t>
+  </si>
+  <si>
+    <t>https://www.oracletutorial.com/oracle-administration/oracle-create-tablespace/</t>
+  </si>
+  <si>
+    <t>Một không gian bảng là một vị trí lưu trữ, nơi dữ liệu thực tế các đối tượng cơ sở dữ liệu có thể được lưu giữ. Nó cung cấp một lớp trừu tượng giữa dữ liệu vật lý và logic, đồng thời phân bổ lưu trữ cho tất cả các phân đoạn được quản lý DBMS. Sau khi được tạo, một vùng bảng có thể được gọi bằng tên khi tạo các phân đoạn cơ sở dữ liệu</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>* Lấy thông tin từng bảng tablespace</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+SELECT 
+   tablespace_name, 
+   file_name, 
+   bytes / 1024/ 1024  MB
+FROM
+   dba_data_files;
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">* Lấy thông tin dba dung lượng còn lại của DB
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">SELECT 
+   tablespace_name, 
+   bytes / 1024 / 1024 MB
+FROM 
+   dba_free_space
+WHERE 
+   tablespace_name = 'TBS1';
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">* Lấy thông tin các file Tablespace và path của nó.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> select tablespace_name, file_name, bytes/1048576 File_Size_MB, autoextensible, increment_by from dba_data_files order by file_id;</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> Temporary Tablespace</t>
+  </si>
+  <si>
+    <t>https://www.oracletutorial.com/oracle-administration/oracle-temporary-tablespace/</t>
+  </si>
+  <si>
+    <t>tablespace groups</t>
+  </si>
+  <si>
+    <t>A tablespace group typically consists of multiple temporary tablespaces. A tablespace group allows a user to consume temporary space from multiple temporary tablespaces, instead of a single temporary tablespace. By using a tablespace group, you can avoid the problem caused when one temporary tablespace does not have enough space to hold the results of a sort.</t>
+  </si>
+  <si>
+    <t>Create user</t>
+  </si>
+  <si>
+    <t>https://www.oracletutorial.com/oracle-administration/oracle-create-user/</t>
+  </si>
+  <si>
+    <t>Grant and privileges for user</t>
+  </si>
+  <si>
+    <t>https://www.oracletutorial.com/oracle-administration/oracle-alter-user/</t>
+  </si>
+  <si>
+    <t>Revoke grant and privileges for user</t>
+  </si>
+  <si>
+    <t>Grant All Privileges to a User in Oracle</t>
+  </si>
+  <si>
+    <t>https://www.oracletutorial.com/oracle-administration/oracle-grant-all-privileges-to-a-user/</t>
+  </si>
+  <si>
+    <t>To List Users in the Oracle Database</t>
+  </si>
+  <si>
+    <t>https://www.oracletutorial.com/oracle-administration/oracle-list-users/</t>
+  </si>
+  <si>
+    <t>Index for DB</t>
+  </si>
+  <si>
+    <t>https://www.oracletutorial.com/oracle-index/oracle-create-index/</t>
+  </si>
+  <si>
+    <t>Check index be filtered</t>
+  </si>
+  <si>
+    <t>SELECT 
+    PLAN_TABLE_OUTPUT 
+FROM 
+    TABLE(DBMS_XPLAN.DISPLAY());</t>
+  </si>
+  <si>
+    <t>Cursor</t>
+  </si>
+  <si>
+    <t>https://www.oracletutorial.com/plsql-tutorial/plsql-cursor/</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2767,6 +3373,27 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <u/>
+      <sz val="13"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -2789,7 +3416,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2815,12 +3442,19 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="34">
+  <dxfs count="48">
     <dxf>
       <font>
         <b val="0"/>
@@ -3183,6 +3817,168 @@
     </dxf>
     <dxf>
       <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <strike val="0"/>
         <outline val="0"/>
         <shadow val="0"/>
@@ -3357,6 +4153,96 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="13"/>
         <color theme="1"/>
         <name val="Arial"/>
         <scheme val="none"/>
@@ -3419,77 +4305,172 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3886742</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>3115110</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12153900" y="4610100"/>
+          <a:ext cx="3886742" cy="3115110"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table37" displayName="Table37" ref="A3:C15" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="6" name="Table37" displayName="Table37" ref="A3:C15" totalsRowShown="0" headerRowDxfId="47" dataDxfId="46">
   <autoFilter ref="A3:C15"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Name" dataDxfId="2"/>
-    <tableColumn id="2" name="Syntax" dataDxfId="0"/>
-    <tableColumn id="3" name="Note" dataDxfId="1"/>
+    <tableColumn id="1" name="Name" dataDxfId="45"/>
+    <tableColumn id="2" name="Syntax" dataDxfId="44"/>
+    <tableColumn id="3" name="Note" dataDxfId="43"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:E19" totalsRowShown="0" headerRowDxfId="33" dataDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A3:E19" totalsRowShown="0" headerRowDxfId="42" dataDxfId="41">
   <autoFilter ref="A3:E19"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Name" dataDxfId="31"/>
-    <tableColumn id="2" name="Desciprtions" dataDxfId="30"/>
-    <tableColumn id="3" name="Note" dataDxfId="29"/>
-    <tableColumn id="4" name="Syntax" dataDxfId="28"/>
-    <tableColumn id="5" name="Link" dataDxfId="27"/>
+    <tableColumn id="1" name="Name" dataDxfId="40"/>
+    <tableColumn id="2" name="Desciprtions" dataDxfId="39"/>
+    <tableColumn id="3" name="Note" dataDxfId="38"/>
+    <tableColumn id="4" name="Syntax" dataDxfId="37"/>
+    <tableColumn id="5" name="Link" dataDxfId="36"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A3:E25" totalsRowShown="0" headerRowDxfId="26" dataDxfId="25">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A3:E25" totalsRowShown="0" headerRowDxfId="35" dataDxfId="34">
   <autoFilter ref="A3:E25"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="SERVEROUT" dataDxfId="24"/>
-    <tableColumn id="2" name="Descriptions" dataDxfId="23"/>
-    <tableColumn id="3" name="Syntax" dataDxfId="22"/>
-    <tableColumn id="4" name="Example" dataDxfId="21"/>
-    <tableColumn id="5" name="Link" dataDxfId="20"/>
+    <tableColumn id="1" name="SERVEROUT" dataDxfId="33"/>
+    <tableColumn id="2" name="Descriptions" dataDxfId="32"/>
+    <tableColumn id="3" name="Syntax" dataDxfId="31"/>
+    <tableColumn id="4" name="Example" dataDxfId="30"/>
+    <tableColumn id="5" name="Link" dataDxfId="29"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table35" displayName="Table35" ref="A3:C15" totalsRowShown="0" headerRowDxfId="14" dataDxfId="13">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="4" name="Table35" displayName="Table35" ref="A3:C15" totalsRowShown="0" headerRowDxfId="28" dataDxfId="27">
   <autoFilter ref="A3:C15"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Name" dataDxfId="12"/>
-    <tableColumn id="2" name="Description" dataDxfId="11"/>
-    <tableColumn id="3" name="Note" dataDxfId="10"/>
+    <tableColumn id="1" name="Name" dataDxfId="26"/>
+    <tableColumn id="2" name="Description" dataDxfId="25"/>
+    <tableColumn id="3" name="Note" dataDxfId="24"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table356" displayName="Table356" ref="A3:C15" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
-  <autoFilter ref="A3:C15"/>
-  <tableColumns count="3">
-    <tableColumn id="1" name="Name" dataDxfId="7"/>
-    <tableColumn id="2" name="Syntax" dataDxfId="6"/>
-    <tableColumn id="3" name="Exmaple" dataDxfId="5"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="5" name="Table356" displayName="Table356" ref="A3:E15" totalsRowShown="0" headerRowDxfId="23" dataDxfId="22">
+  <autoFilter ref="A3:E15"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Name" dataDxfId="21"/>
+    <tableColumn id="5" name="Description" dataDxfId="0"/>
+    <tableColumn id="2" name="Syntax" dataDxfId="20"/>
+    <tableColumn id="3" name="Exmaple" dataDxfId="19"/>
+    <tableColumn id="4" name="Link" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A3:C15" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table38" displayName="Table38" ref="A3:E15" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+  <autoFilter ref="A3:E15"/>
+  <tableColumns count="5">
+    <tableColumn id="1" name="Name" dataDxfId="11"/>
+    <tableColumn id="5" name="Note" dataDxfId="7"/>
+    <tableColumn id="2" name="Syntax" dataDxfId="10"/>
+    <tableColumn id="3" name="Example" dataDxfId="9"/>
+    <tableColumn id="4" name="link" dataDxfId="8"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table39" displayName="Table39" ref="A3:C15" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
   <autoFilter ref="A3:C15"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Name" dataDxfId="19"/>
-    <tableColumn id="2" name="Description" dataDxfId="18"/>
-    <tableColumn id="3" name="Note" dataDxfId="17"/>
+    <tableColumn id="1" name="Name" dataDxfId="4"/>
+    <tableColumn id="2" name="Syntax" dataDxfId="3"/>
+    <tableColumn id="3" name="Example" dataDxfId="2"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A3:C15" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+  <autoFilter ref="A3:C15"/>
+  <tableColumns count="3">
+    <tableColumn id="1" name="Name" dataDxfId="16"/>
+    <tableColumn id="2" name="Description" dataDxfId="15"/>
+    <tableColumn id="3" name="Note" dataDxfId="14"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table11" displayName="Table11" ref="I21:L326" totalsRowShown="0">
+  <autoFilter ref="I21:L326">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="CPU"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="1">
+      <filters>
+        <filter val="Canceled"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
+  <tableColumns count="4">
+    <tableColumn id="1" name="CATEGORY_NAME"/>
+    <tableColumn id="2" name=" STATUS"/>
+    <tableColumn id="3" name="ORDER_ID,"/>
+    <tableColumn id="4" name="ORDER_VALUE"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3760,7 +4741,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:C4"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -3800,12 +4781,4457 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A13:L326"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L52" sqref="L52:L305"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="23" customWidth="1"/>
+    <col min="2" max="2" width="18.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" customWidth="1"/>
+    <col min="7" max="7" width="22" customWidth="1"/>
+    <col min="8" max="8" width="28.5703125" customWidth="1"/>
+    <col min="9" max="9" width="50.7109375" customWidth="1"/>
+    <col min="10" max="11" width="11" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="17" max="17" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>135</v>
+      </c>
+      <c r="B13" t="s">
+        <v>136</v>
+      </c>
+      <c r="C13" t="s">
+        <v>137</v>
+      </c>
+      <c r="D13" t="s">
+        <v>138</v>
+      </c>
+      <c r="E13" t="s">
+        <v>139</v>
+      </c>
+      <c r="F13" t="s">
+        <v>140</v>
+      </c>
+      <c r="G13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>115</v>
+      </c>
+      <c r="B14">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>4122040.7</v>
+      </c>
+      <c r="D14">
+        <v>12</v>
+      </c>
+      <c r="E14">
+        <v>3647918.1</v>
+      </c>
+      <c r="F14">
+        <v>51</v>
+      </c>
+      <c r="G14">
+        <v>12272034.23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>116</v>
+      </c>
+      <c r="B15">
+        <v>12</v>
+      </c>
+      <c r="C15">
+        <v>679121.39</v>
+      </c>
+      <c r="D15">
+        <v>12</v>
+      </c>
+      <c r="E15">
+        <v>872381.21</v>
+      </c>
+      <c r="F15">
+        <v>53</v>
+      </c>
+      <c r="G15">
+        <v>3366915.55</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>117</v>
+      </c>
+      <c r="B16">
+        <v>14</v>
+      </c>
+      <c r="C16">
+        <v>3023747.6</v>
+      </c>
+      <c r="D16">
+        <v>16</v>
+      </c>
+      <c r="E16">
+        <v>2271252.2799999998</v>
+      </c>
+      <c r="F16">
+        <v>63</v>
+      </c>
+      <c r="G16">
+        <v>8699160.9600000009</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>118</v>
+      </c>
+      <c r="B17">
+        <v>9</v>
+      </c>
+      <c r="C17">
+        <v>1677597.4</v>
+      </c>
+      <c r="D17">
+        <v>11</v>
+      </c>
+      <c r="E17">
+        <v>3040231.59</v>
+      </c>
+      <c r="F17">
+        <v>39</v>
+      </c>
+      <c r="G17">
+        <v>9069691.6300000008</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="I21" t="s">
+        <v>135</v>
+      </c>
+      <c r="J21" t="s">
+        <v>132</v>
+      </c>
+      <c r="K21" t="s">
+        <v>133</v>
+      </c>
+      <c r="L21" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I22" t="s">
+        <v>117</v>
+      </c>
+      <c r="J22" t="s">
+        <v>129</v>
+      </c>
+      <c r="K22">
+        <v>6</v>
+      </c>
+      <c r="L22">
+        <v>117330</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I23" t="s">
+        <v>116</v>
+      </c>
+      <c r="J23" t="s">
+        <v>130</v>
+      </c>
+      <c r="K23">
+        <v>10</v>
+      </c>
+      <c r="L23">
+        <v>132040.21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I24" t="s">
+        <v>116</v>
+      </c>
+      <c r="J24" t="s">
+        <v>129</v>
+      </c>
+      <c r="K24">
+        <v>12</v>
+      </c>
+      <c r="L24">
+        <v>145741.22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I25" t="s">
+        <v>117</v>
+      </c>
+      <c r="J25" t="s">
+        <v>129</v>
+      </c>
+      <c r="K25">
+        <v>24</v>
+      </c>
+      <c r="L25">
+        <v>212318.23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I26" t="s">
+        <v>116</v>
+      </c>
+      <c r="J26" t="s">
+        <v>129</v>
+      </c>
+      <c r="K26">
+        <v>25</v>
+      </c>
+      <c r="L26">
+        <v>73387.97</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I27" t="s">
+        <v>117</v>
+      </c>
+      <c r="J27" t="s">
+        <v>129</v>
+      </c>
+      <c r="K27">
+        <v>37</v>
+      </c>
+      <c r="L27">
+        <v>308581.95</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I28" t="s">
+        <v>118</v>
+      </c>
+      <c r="J28" t="s">
+        <v>129</v>
+      </c>
+      <c r="K28">
+        <v>39</v>
+      </c>
+      <c r="L28">
+        <v>256469.66</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I29" t="s">
+        <v>116</v>
+      </c>
+      <c r="J29" t="s">
+        <v>129</v>
+      </c>
+      <c r="K29">
+        <v>58</v>
+      </c>
+      <c r="L29">
+        <v>298372.67</v>
+      </c>
+    </row>
+    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I30" t="s">
+        <v>118</v>
+      </c>
+      <c r="J30" t="s">
+        <v>131</v>
+      </c>
+      <c r="K30">
+        <v>69</v>
+      </c>
+      <c r="L30">
+        <v>272722.53999999998</v>
+      </c>
+    </row>
+    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I31" t="s">
+        <v>118</v>
+      </c>
+      <c r="J31" t="s">
+        <v>129</v>
+      </c>
+      <c r="K31">
+        <v>73</v>
+      </c>
+      <c r="L31">
+        <v>203880</v>
+      </c>
+    </row>
+    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I32" t="s">
+        <v>117</v>
+      </c>
+      <c r="J32" t="s">
+        <v>129</v>
+      </c>
+      <c r="K32">
+        <v>74</v>
+      </c>
+      <c r="L32">
+        <v>8136.36</v>
+      </c>
+    </row>
+    <row r="33" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I33" t="s">
+        <v>117</v>
+      </c>
+      <c r="J33" t="s">
+        <v>129</v>
+      </c>
+      <c r="K33">
+        <v>104</v>
+      </c>
+      <c r="L33">
+        <v>54389.26</v>
+      </c>
+    </row>
+    <row r="34" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I34" t="s">
+        <v>117</v>
+      </c>
+      <c r="J34" t="s">
+        <v>131</v>
+      </c>
+      <c r="K34">
+        <v>5</v>
+      </c>
+      <c r="L34">
+        <v>32669.55</v>
+      </c>
+    </row>
+    <row r="35" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I35" t="s">
+        <v>115</v>
+      </c>
+      <c r="J35" t="s">
+        <v>129</v>
+      </c>
+      <c r="K35">
+        <v>35</v>
+      </c>
+      <c r="L35">
+        <v>187926.79</v>
+      </c>
+    </row>
+    <row r="36" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I36" t="s">
+        <v>118</v>
+      </c>
+      <c r="J36" t="s">
+        <v>130</v>
+      </c>
+      <c r="K36">
+        <v>46</v>
+      </c>
+      <c r="L36">
+        <v>854229.79</v>
+      </c>
+    </row>
+    <row r="37" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I37" t="s">
+        <v>116</v>
+      </c>
+      <c r="J37" t="s">
+        <v>130</v>
+      </c>
+      <c r="K37">
+        <v>55</v>
+      </c>
+      <c r="L37">
+        <v>32899.300000000003</v>
+      </c>
+    </row>
+    <row r="38" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I38" t="s">
+        <v>116</v>
+      </c>
+      <c r="J38" t="s">
+        <v>129</v>
+      </c>
+      <c r="K38">
+        <v>104</v>
+      </c>
+      <c r="L38">
+        <v>34468.199999999997</v>
+      </c>
+    </row>
+    <row r="39" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I39" t="s">
+        <v>117</v>
+      </c>
+      <c r="J39" t="s">
+        <v>131</v>
+      </c>
+      <c r="K39">
+        <v>27</v>
+      </c>
+      <c r="L39">
+        <v>302442.19</v>
+      </c>
+    </row>
+    <row r="40" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I40" t="s">
+        <v>118</v>
+      </c>
+      <c r="J40" t="s">
+        <v>129</v>
+      </c>
+      <c r="K40">
+        <v>43</v>
+      </c>
+      <c r="L40">
+        <v>632706.04</v>
+      </c>
+    </row>
+    <row r="41" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I41" t="s">
+        <v>116</v>
+      </c>
+      <c r="J41" t="s">
+        <v>131</v>
+      </c>
+      <c r="K41">
+        <v>22</v>
+      </c>
+      <c r="L41">
+        <v>14079.56</v>
+      </c>
+    </row>
+    <row r="42" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I42" t="s">
+        <v>116</v>
+      </c>
+      <c r="J42" t="s">
+        <v>129</v>
+      </c>
+      <c r="K42">
+        <v>24</v>
+      </c>
+      <c r="L42">
+        <v>43495.87</v>
+      </c>
+    </row>
+    <row r="43" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I43" t="s">
+        <v>115</v>
+      </c>
+      <c r="J43" t="s">
+        <v>129</v>
+      </c>
+      <c r="K43">
+        <v>60</v>
+      </c>
+      <c r="L43">
+        <v>454329.21</v>
+      </c>
+    </row>
+    <row r="44" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I44" t="s">
+        <v>115</v>
+      </c>
+      <c r="J44" t="s">
+        <v>129</v>
+      </c>
+      <c r="K44">
+        <v>94</v>
+      </c>
+      <c r="L44">
+        <v>194574.91</v>
+      </c>
+    </row>
+    <row r="45" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I45" t="s">
+        <v>116</v>
+      </c>
+      <c r="J45" t="s">
+        <v>129</v>
+      </c>
+      <c r="K45">
+        <v>3</v>
+      </c>
+      <c r="L45">
+        <v>174956.64</v>
+      </c>
+    </row>
+    <row r="46" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I46" t="s">
+        <v>118</v>
+      </c>
+      <c r="J46" t="s">
+        <v>131</v>
+      </c>
+      <c r="K46">
+        <v>5</v>
+      </c>
+      <c r="L46">
+        <v>70846.36</v>
+      </c>
+    </row>
+    <row r="47" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I47" t="s">
+        <v>116</v>
+      </c>
+      <c r="J47" t="s">
+        <v>131</v>
+      </c>
+      <c r="K47">
+        <v>47</v>
+      </c>
+      <c r="L47">
+        <v>34806.54</v>
+      </c>
+    </row>
+    <row r="48" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I48" t="s">
+        <v>118</v>
+      </c>
+      <c r="J48" t="s">
+        <v>129</v>
+      </c>
+      <c r="K48">
+        <v>84</v>
+      </c>
+      <c r="L48">
+        <v>202157.34</v>
+      </c>
+    </row>
+    <row r="49" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I49" t="s">
+        <v>116</v>
+      </c>
+      <c r="J49" t="s">
+        <v>129</v>
+      </c>
+      <c r="K49">
+        <v>99</v>
+      </c>
+      <c r="L49">
+        <v>43149.4</v>
+      </c>
+    </row>
+    <row r="50" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I50" t="s">
+        <v>118</v>
+      </c>
+      <c r="J50" t="s">
+        <v>129</v>
+      </c>
+      <c r="K50">
+        <v>98</v>
+      </c>
+      <c r="L50">
+        <v>53614</v>
+      </c>
+    </row>
+    <row r="51" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I51" t="s">
+        <v>117</v>
+      </c>
+      <c r="J51" t="s">
+        <v>131</v>
+      </c>
+      <c r="K51">
+        <v>70</v>
+      </c>
+      <c r="L51">
+        <v>603023.31999999995</v>
+      </c>
+    </row>
+    <row r="52" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I52" t="s">
+        <v>115</v>
+      </c>
+      <c r="J52" t="s">
+        <v>131</v>
+      </c>
+      <c r="K52">
+        <v>97</v>
+      </c>
+      <c r="L52">
+        <v>171564.36</v>
+      </c>
+    </row>
+    <row r="53" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I53" t="s">
+        <v>118</v>
+      </c>
+      <c r="J53" t="s">
+        <v>129</v>
+      </c>
+      <c r="K53">
+        <v>18</v>
+      </c>
+      <c r="L53">
+        <v>78278.97</v>
+      </c>
+    </row>
+    <row r="54" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I54" t="s">
+        <v>115</v>
+      </c>
+      <c r="J54" t="s">
+        <v>129</v>
+      </c>
+      <c r="K54">
+        <v>92</v>
+      </c>
+      <c r="L54">
+        <v>168350</v>
+      </c>
+    </row>
+    <row r="55" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I55" t="s">
+        <v>116</v>
+      </c>
+      <c r="J55" t="s">
+        <v>129</v>
+      </c>
+      <c r="K55">
+        <v>60</v>
+      </c>
+      <c r="L55">
+        <v>94754</v>
+      </c>
+    </row>
+    <row r="56" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I56" t="s">
+        <v>116</v>
+      </c>
+      <c r="J56" t="s">
+        <v>129</v>
+      </c>
+      <c r="K56">
+        <v>77</v>
+      </c>
+      <c r="L56">
+        <v>81339.320000000007</v>
+      </c>
+    </row>
+    <row r="57" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I57" t="s">
+        <v>118</v>
+      </c>
+      <c r="J57" t="s">
+        <v>129</v>
+      </c>
+      <c r="K57">
+        <v>8</v>
+      </c>
+      <c r="L57">
+        <v>127667.68</v>
+      </c>
+    </row>
+    <row r="58" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I58" t="s">
+        <v>117</v>
+      </c>
+      <c r="J58" t="s">
+        <v>129</v>
+      </c>
+      <c r="K58">
+        <v>11</v>
+      </c>
+      <c r="L58">
+        <v>15996.28</v>
+      </c>
+    </row>
+    <row r="59" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I59" t="s">
+        <v>118</v>
+      </c>
+      <c r="J59" t="s">
+        <v>131</v>
+      </c>
+      <c r="K59">
+        <v>22</v>
+      </c>
+      <c r="L59">
+        <v>284854.71999999997</v>
+      </c>
+    </row>
+    <row r="60" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I60" t="s">
+        <v>115</v>
+      </c>
+      <c r="J60" t="s">
+        <v>131</v>
+      </c>
+      <c r="K60">
+        <v>27</v>
+      </c>
+      <c r="L60">
+        <v>733735.23</v>
+      </c>
+    </row>
+    <row r="61" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I61" t="s">
+        <v>117</v>
+      </c>
+      <c r="J61" t="s">
+        <v>131</v>
+      </c>
+      <c r="K61">
+        <v>31</v>
+      </c>
+      <c r="L61">
+        <v>80206.759999999995</v>
+      </c>
+    </row>
+    <row r="62" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I62" t="s">
+        <v>118</v>
+      </c>
+      <c r="J62" t="s">
+        <v>129</v>
+      </c>
+      <c r="K62">
+        <v>35</v>
+      </c>
+      <c r="L62">
+        <v>165617.76</v>
+      </c>
+    </row>
+    <row r="63" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I63" t="s">
+        <v>116</v>
+      </c>
+      <c r="J63" t="s">
+        <v>131</v>
+      </c>
+      <c r="K63">
+        <v>42</v>
+      </c>
+      <c r="L63">
+        <v>61308.25</v>
+      </c>
+    </row>
+    <row r="64" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I64" t="s">
+        <v>116</v>
+      </c>
+      <c r="J64" t="s">
+        <v>129</v>
+      </c>
+      <c r="K64">
+        <v>49</v>
+      </c>
+      <c r="L64">
+        <v>37282.959999999999</v>
+      </c>
+    </row>
+    <row r="65" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I65" t="s">
+        <v>116</v>
+      </c>
+      <c r="J65" t="s">
+        <v>131</v>
+      </c>
+      <c r="K65">
+        <v>56</v>
+      </c>
+      <c r="L65">
+        <v>30821</v>
+      </c>
+    </row>
+    <row r="66" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I66" t="s">
+        <v>117</v>
+      </c>
+      <c r="J66" t="s">
+        <v>129</v>
+      </c>
+      <c r="K66">
+        <v>60</v>
+      </c>
+      <c r="L66">
+        <v>377333.3</v>
+      </c>
+    </row>
+    <row r="67" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I67" t="s">
+        <v>115</v>
+      </c>
+      <c r="J67" t="s">
+        <v>130</v>
+      </c>
+      <c r="K67">
+        <v>78</v>
+      </c>
+      <c r="L67">
+        <v>469667.15</v>
+      </c>
+    </row>
+    <row r="68" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I68" t="s">
+        <v>115</v>
+      </c>
+      <c r="J68" t="s">
+        <v>130</v>
+      </c>
+      <c r="K68">
+        <v>85</v>
+      </c>
+      <c r="L68">
+        <v>67140.3</v>
+      </c>
+    </row>
+    <row r="69" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I69" t="s">
+        <v>116</v>
+      </c>
+      <c r="J69" t="s">
+        <v>129</v>
+      </c>
+      <c r="K69">
+        <v>89</v>
+      </c>
+      <c r="L69">
+        <v>82258.850000000006</v>
+      </c>
+    </row>
+    <row r="70" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I70" t="s">
+        <v>117</v>
+      </c>
+      <c r="J70" t="s">
+        <v>129</v>
+      </c>
+      <c r="K70">
+        <v>94</v>
+      </c>
+      <c r="L70">
+        <v>7690.16</v>
+      </c>
+    </row>
+    <row r="71" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I71" t="s">
+        <v>115</v>
+      </c>
+      <c r="J71" t="s">
+        <v>129</v>
+      </c>
+      <c r="K71">
+        <v>95</v>
+      </c>
+      <c r="L71">
+        <v>320523.24</v>
+      </c>
+    </row>
+    <row r="72" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I72" t="s">
+        <v>117</v>
+      </c>
+      <c r="J72" t="s">
+        <v>129</v>
+      </c>
+      <c r="K72">
+        <v>9</v>
+      </c>
+      <c r="L72">
+        <v>171090</v>
+      </c>
+    </row>
+    <row r="73" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I73" t="s">
+        <v>117</v>
+      </c>
+      <c r="J73" t="s">
+        <v>130</v>
+      </c>
+      <c r="K73">
+        <v>10</v>
+      </c>
+      <c r="L73">
+        <v>219338.46</v>
+      </c>
+    </row>
+    <row r="74" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I74" t="s">
+        <v>116</v>
+      </c>
+      <c r="J74" t="s">
+        <v>131</v>
+      </c>
+      <c r="K74">
+        <v>27</v>
+      </c>
+      <c r="L74">
+        <v>48694.07</v>
+      </c>
+    </row>
+    <row r="75" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I75" t="s">
+        <v>117</v>
+      </c>
+      <c r="J75" t="s">
+        <v>131</v>
+      </c>
+      <c r="K75">
+        <v>28</v>
+      </c>
+      <c r="L75">
+        <v>253437.41</v>
+      </c>
+    </row>
+    <row r="76" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I76" t="s">
+        <v>115</v>
+      </c>
+      <c r="J76" t="s">
+        <v>129</v>
+      </c>
+      <c r="K76">
+        <v>29</v>
+      </c>
+      <c r="L76">
+        <v>300858.23</v>
+      </c>
+    </row>
+    <row r="77" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I77" t="s">
+        <v>115</v>
+      </c>
+      <c r="J77" t="s">
+        <v>131</v>
+      </c>
+      <c r="K77">
+        <v>31</v>
+      </c>
+      <c r="L77">
+        <v>91130.53</v>
+      </c>
+    </row>
+    <row r="78" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I78" t="s">
+        <v>115</v>
+      </c>
+      <c r="J78" t="s">
+        <v>131</v>
+      </c>
+      <c r="K78">
+        <v>66</v>
+      </c>
+      <c r="L78">
+        <v>131688.48000000001</v>
+      </c>
+    </row>
+    <row r="79" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I79" t="s">
+        <v>116</v>
+      </c>
+      <c r="J79" t="s">
+        <v>129</v>
+      </c>
+      <c r="K79">
+        <v>75</v>
+      </c>
+      <c r="L79">
+        <v>45434.15</v>
+      </c>
+    </row>
+    <row r="80" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I80" t="s">
+        <v>116</v>
+      </c>
+      <c r="J80" t="s">
+        <v>130</v>
+      </c>
+      <c r="K80">
+        <v>90</v>
+      </c>
+      <c r="L80">
+        <v>105279.47</v>
+      </c>
+    </row>
+    <row r="81" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I81" t="s">
+        <v>116</v>
+      </c>
+      <c r="J81" t="s">
+        <v>129</v>
+      </c>
+      <c r="K81">
+        <v>95</v>
+      </c>
+      <c r="L81">
+        <v>63713.07</v>
+      </c>
+    </row>
+    <row r="82" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I82" t="s">
+        <v>117</v>
+      </c>
+      <c r="J82" t="s">
+        <v>129</v>
+      </c>
+      <c r="K82">
+        <v>25</v>
+      </c>
+      <c r="L82">
+        <v>60759.06</v>
+      </c>
+    </row>
+    <row r="83" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I83" t="s">
+        <v>115</v>
+      </c>
+      <c r="J83" t="s">
+        <v>129</v>
+      </c>
+      <c r="K83">
+        <v>25</v>
+      </c>
+      <c r="L83">
+        <v>262073.55</v>
+      </c>
+    </row>
+    <row r="84" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I84" t="s">
+        <v>117</v>
+      </c>
+      <c r="J84" t="s">
+        <v>131</v>
+      </c>
+      <c r="K84">
+        <v>67</v>
+      </c>
+      <c r="L84">
+        <v>168723.59</v>
+      </c>
+    </row>
+    <row r="85" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I85" t="s">
+        <v>117</v>
+      </c>
+      <c r="J85" t="s">
+        <v>130</v>
+      </c>
+      <c r="K85">
+        <v>68</v>
+      </c>
+      <c r="L85">
+        <v>137875.03</v>
+      </c>
+    </row>
+    <row r="86" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I86" t="s">
+        <v>116</v>
+      </c>
+      <c r="J86" t="s">
+        <v>129</v>
+      </c>
+      <c r="K86">
+        <v>82</v>
+      </c>
+      <c r="L86">
+        <v>59635.31</v>
+      </c>
+    </row>
+    <row r="87" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I87" t="s">
+        <v>116</v>
+      </c>
+      <c r="J87" t="s">
+        <v>129</v>
+      </c>
+      <c r="K87">
+        <v>34</v>
+      </c>
+      <c r="L87">
+        <v>72915.94</v>
+      </c>
+    </row>
+    <row r="88" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I88" t="s">
+        <v>117</v>
+      </c>
+      <c r="J88" t="s">
+        <v>129</v>
+      </c>
+      <c r="K88">
+        <v>95</v>
+      </c>
+      <c r="L88">
+        <v>48944</v>
+      </c>
+    </row>
+    <row r="89" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I89" t="s">
+        <v>116</v>
+      </c>
+      <c r="J89" t="s">
+        <v>129</v>
+      </c>
+      <c r="K89">
+        <v>11</v>
+      </c>
+      <c r="L89">
+        <v>23691.31</v>
+      </c>
+    </row>
+    <row r="90" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I90" t="s">
+        <v>116</v>
+      </c>
+      <c r="J90" t="s">
+        <v>129</v>
+      </c>
+      <c r="K90">
+        <v>35</v>
+      </c>
+      <c r="L90">
+        <v>23691.31</v>
+      </c>
+    </row>
+    <row r="91" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I91" t="s">
+        <v>117</v>
+      </c>
+      <c r="J91" t="s">
+        <v>129</v>
+      </c>
+      <c r="K91">
+        <v>18</v>
+      </c>
+      <c r="L91">
+        <v>4843.2</v>
+      </c>
+    </row>
+    <row r="92" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I92" t="s">
+        <v>116</v>
+      </c>
+      <c r="J92" t="s">
+        <v>129</v>
+      </c>
+      <c r="K92">
+        <v>26</v>
+      </c>
+      <c r="L92">
+        <v>10150.92</v>
+      </c>
+    </row>
+    <row r="93" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I93" t="s">
+        <v>116</v>
+      </c>
+      <c r="J93" t="s">
+        <v>131</v>
+      </c>
+      <c r="K93">
+        <v>70</v>
+      </c>
+      <c r="L93">
+        <v>62038.68</v>
+      </c>
+    </row>
+    <row r="94" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I94" t="s">
+        <v>117</v>
+      </c>
+      <c r="J94" t="s">
+        <v>129</v>
+      </c>
+      <c r="K94">
+        <v>76</v>
+      </c>
+      <c r="L94">
+        <v>334456.71000000002</v>
+      </c>
+    </row>
+    <row r="95" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I95" t="s">
+        <v>118</v>
+      </c>
+      <c r="J95" t="s">
+        <v>129</v>
+      </c>
+      <c r="K95">
+        <v>83</v>
+      </c>
+      <c r="L95">
+        <v>93396.42</v>
+      </c>
+    </row>
+    <row r="96" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I96" t="s">
+        <v>118</v>
+      </c>
+      <c r="J96" t="s">
+        <v>129</v>
+      </c>
+      <c r="K96">
+        <v>104</v>
+      </c>
+      <c r="L96">
+        <v>425650.85</v>
+      </c>
+    </row>
+    <row r="97" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I97" t="s">
+        <v>116</v>
+      </c>
+      <c r="J97" t="s">
+        <v>129</v>
+      </c>
+      <c r="K97">
+        <v>7</v>
+      </c>
+      <c r="L97">
+        <v>22570</v>
+      </c>
+    </row>
+    <row r="98" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I98" t="s">
+        <v>117</v>
+      </c>
+      <c r="J98" t="s">
+        <v>129</v>
+      </c>
+      <c r="K98">
+        <v>14</v>
+      </c>
+      <c r="L98">
+        <v>133737.82999999999</v>
+      </c>
+    </row>
+    <row r="99" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I99" t="s">
+        <v>115</v>
+      </c>
+      <c r="J99" t="s">
+        <v>130</v>
+      </c>
+      <c r="K99">
+        <v>16</v>
+      </c>
+      <c r="L99">
+        <v>377286.2</v>
+      </c>
+    </row>
+    <row r="100" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I100" t="s">
+        <v>116</v>
+      </c>
+      <c r="J100" t="s">
+        <v>129</v>
+      </c>
+      <c r="K100">
+        <v>17</v>
+      </c>
+      <c r="L100">
+        <v>14431.98</v>
+      </c>
+    </row>
+    <row r="101" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I101" t="s">
+        <v>117</v>
+      </c>
+      <c r="J101" t="s">
+        <v>130</v>
+      </c>
+      <c r="K101">
+        <v>21</v>
+      </c>
+      <c r="L101">
+        <v>282087.40000000002</v>
+      </c>
+    </row>
+    <row r="102" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I102" t="s">
+        <v>116</v>
+      </c>
+      <c r="J102" t="s">
+        <v>129</v>
+      </c>
+      <c r="K102">
+        <v>32</v>
+      </c>
+      <c r="L102">
+        <v>28038.23</v>
+      </c>
+    </row>
+    <row r="103" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I103" t="s">
+        <v>115</v>
+      </c>
+      <c r="J103" t="s">
+        <v>131</v>
+      </c>
+      <c r="K103">
+        <v>38</v>
+      </c>
+      <c r="L103">
+        <v>334132.78999999998</v>
+      </c>
+    </row>
+    <row r="104" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I104" t="s">
+        <v>116</v>
+      </c>
+      <c r="J104" t="s">
+        <v>129</v>
+      </c>
+      <c r="K104">
+        <v>62</v>
+      </c>
+      <c r="L104">
+        <v>62723.7</v>
+      </c>
+    </row>
+    <row r="105" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I105" t="s">
+        <v>115</v>
+      </c>
+      <c r="J105" t="s">
+        <v>129</v>
+      </c>
+      <c r="K105">
+        <v>63</v>
+      </c>
+      <c r="L105">
+        <v>99130.81</v>
+      </c>
+    </row>
+    <row r="106" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I106" t="s">
+        <v>115</v>
+      </c>
+      <c r="J106" t="s">
+        <v>129</v>
+      </c>
+      <c r="K106">
+        <v>64</v>
+      </c>
+      <c r="L106">
+        <v>39527.39</v>
+      </c>
+    </row>
+    <row r="107" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I107" t="s">
+        <v>117</v>
+      </c>
+      <c r="J107" t="s">
+        <v>131</v>
+      </c>
+      <c r="K107">
+        <v>66</v>
+      </c>
+      <c r="L107">
+        <v>351207.99</v>
+      </c>
+    </row>
+    <row r="108" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I108" t="s">
+        <v>117</v>
+      </c>
+      <c r="J108" t="s">
+        <v>129</v>
+      </c>
+      <c r="K108">
+        <v>77</v>
+      </c>
+      <c r="L108">
+        <v>49622.34</v>
+      </c>
+    </row>
+    <row r="109" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I109" t="s">
+        <v>117</v>
+      </c>
+      <c r="J109" t="s">
+        <v>129</v>
+      </c>
+      <c r="K109">
+        <v>88</v>
+      </c>
+      <c r="L109">
+        <v>94240.61</v>
+      </c>
+    </row>
+    <row r="110" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I110" t="s">
+        <v>117</v>
+      </c>
+      <c r="J110" t="s">
+        <v>129</v>
+      </c>
+      <c r="K110">
+        <v>61</v>
+      </c>
+      <c r="L110">
+        <v>24505.93</v>
+      </c>
+    </row>
+    <row r="111" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I111" t="s">
+        <v>116</v>
+      </c>
+      <c r="J111" t="s">
+        <v>129</v>
+      </c>
+      <c r="K111">
+        <v>74</v>
+      </c>
+      <c r="L111">
+        <v>77648.399999999994</v>
+      </c>
+    </row>
+    <row r="112" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I112" t="s">
+        <v>117</v>
+      </c>
+      <c r="J112" t="s">
+        <v>131</v>
+      </c>
+      <c r="K112">
+        <v>87</v>
+      </c>
+      <c r="L112">
+        <v>324994.68</v>
+      </c>
+    </row>
+    <row r="113" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I113" t="s">
+        <v>118</v>
+      </c>
+      <c r="J113" t="s">
+        <v>130</v>
+      </c>
+      <c r="K113">
+        <v>91</v>
+      </c>
+      <c r="L113">
+        <v>293122.96999999997</v>
+      </c>
+    </row>
+    <row r="114" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I114" t="s">
+        <v>118</v>
+      </c>
+      <c r="J114" t="s">
+        <v>129</v>
+      </c>
+      <c r="K114">
+        <v>57</v>
+      </c>
+      <c r="L114">
+        <v>284096.06</v>
+      </c>
+    </row>
+    <row r="115" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I115" t="s">
+        <v>117</v>
+      </c>
+      <c r="J115" t="s">
+        <v>129</v>
+      </c>
+      <c r="K115">
+        <v>58</v>
+      </c>
+      <c r="L115">
+        <v>51464.27</v>
+      </c>
+    </row>
+    <row r="116" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I116" t="s">
+        <v>115</v>
+      </c>
+      <c r="J116" t="s">
+        <v>129</v>
+      </c>
+      <c r="K116">
+        <v>76</v>
+      </c>
+      <c r="L116">
+        <v>347017.92</v>
+      </c>
+    </row>
+    <row r="117" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I117" t="s">
+        <v>117</v>
+      </c>
+      <c r="J117" t="s">
+        <v>130</v>
+      </c>
+      <c r="K117">
+        <v>78</v>
+      </c>
+      <c r="L117">
+        <v>91509.81</v>
+      </c>
+    </row>
+    <row r="118" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I118" t="s">
+        <v>115</v>
+      </c>
+      <c r="J118" t="s">
+        <v>129</v>
+      </c>
+      <c r="K118">
+        <v>104</v>
+      </c>
+      <c r="L118">
+        <v>435609.73</v>
+      </c>
+    </row>
+    <row r="119" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I119" t="s">
+        <v>118</v>
+      </c>
+      <c r="J119" t="s">
+        <v>129</v>
+      </c>
+      <c r="K119">
+        <v>26</v>
+      </c>
+      <c r="L119">
+        <v>133398.16</v>
+      </c>
+    </row>
+    <row r="120" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I120" t="s">
+        <v>115</v>
+      </c>
+      <c r="J120" t="s">
+        <v>129</v>
+      </c>
+      <c r="K120">
+        <v>30</v>
+      </c>
+      <c r="L120">
+        <v>122762.95</v>
+      </c>
+    </row>
+    <row r="121" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I121" t="s">
+        <v>117</v>
+      </c>
+      <c r="J121" t="s">
+        <v>130</v>
+      </c>
+      <c r="K121">
+        <v>46</v>
+      </c>
+      <c r="L121">
+        <v>14054.16</v>
+      </c>
+    </row>
+    <row r="122" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I122" t="s">
+        <v>115</v>
+      </c>
+      <c r="J122" t="s">
+        <v>131</v>
+      </c>
+      <c r="K122">
+        <v>28</v>
+      </c>
+      <c r="L122">
+        <v>336490.75</v>
+      </c>
+    </row>
+    <row r="123" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I123" t="s">
+        <v>115</v>
+      </c>
+      <c r="J123" t="s">
+        <v>129</v>
+      </c>
+      <c r="K123">
+        <v>57</v>
+      </c>
+      <c r="L123">
+        <v>335034.23</v>
+      </c>
+    </row>
+    <row r="124" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I124" t="s">
+        <v>117</v>
+      </c>
+      <c r="J124" t="s">
+        <v>129</v>
+      </c>
+      <c r="K124">
+        <v>13</v>
+      </c>
+      <c r="L124">
+        <v>181011.78</v>
+      </c>
+    </row>
+    <row r="125" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I125" t="s">
+        <v>115</v>
+      </c>
+      <c r="J125" t="s">
+        <v>131</v>
+      </c>
+      <c r="K125">
+        <v>70</v>
+      </c>
+      <c r="L125">
+        <v>443139.61</v>
+      </c>
+    </row>
+    <row r="126" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I126" t="s">
+        <v>118</v>
+      </c>
+      <c r="J126" t="s">
+        <v>129</v>
+      </c>
+      <c r="K126">
+        <v>23</v>
+      </c>
+      <c r="L126">
+        <v>135156.60999999999</v>
+      </c>
+    </row>
+    <row r="127" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I127" t="s">
+        <v>116</v>
+      </c>
+      <c r="J127" t="s">
+        <v>130</v>
+      </c>
+      <c r="K127">
+        <v>44</v>
+      </c>
+      <c r="L127">
+        <v>20334.830000000002</v>
+      </c>
+    </row>
+    <row r="128" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I128" t="s">
+        <v>116</v>
+      </c>
+      <c r="J128" t="s">
+        <v>129</v>
+      </c>
+      <c r="K128">
+        <v>59</v>
+      </c>
+      <c r="L128">
+        <v>54719.4</v>
+      </c>
+    </row>
+    <row r="129" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I129" t="s">
+        <v>118</v>
+      </c>
+      <c r="J129" t="s">
+        <v>129</v>
+      </c>
+      <c r="K129">
+        <v>74</v>
+      </c>
+      <c r="L129">
+        <v>80798.990000000005</v>
+      </c>
+    </row>
+    <row r="130" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I130" t="s">
+        <v>115</v>
+      </c>
+      <c r="J130" t="s">
+        <v>129</v>
+      </c>
+      <c r="K130">
+        <v>32</v>
+      </c>
+      <c r="L130">
+        <v>596039.94999999995</v>
+      </c>
+    </row>
+    <row r="131" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I131" t="s">
+        <v>115</v>
+      </c>
+      <c r="J131" t="s">
+        <v>131</v>
+      </c>
+      <c r="K131">
+        <v>42</v>
+      </c>
+      <c r="L131">
+        <v>353620.6</v>
+      </c>
+    </row>
+    <row r="132" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I132" t="s">
+        <v>115</v>
+      </c>
+      <c r="J132" t="s">
+        <v>129</v>
+      </c>
+      <c r="K132">
+        <v>9</v>
+      </c>
+      <c r="L132">
+        <v>349020.87</v>
+      </c>
+    </row>
+    <row r="133" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I133" t="s">
+        <v>118</v>
+      </c>
+      <c r="J133" t="s">
+        <v>130</v>
+      </c>
+      <c r="K133">
+        <v>90</v>
+      </c>
+      <c r="L133">
+        <v>128475.06</v>
+      </c>
+    </row>
+    <row r="134" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I134" t="s">
+        <v>116</v>
+      </c>
+      <c r="J134" t="s">
+        <v>129</v>
+      </c>
+      <c r="K134">
+        <v>94</v>
+      </c>
+      <c r="L134">
+        <v>13264.13</v>
+      </c>
+    </row>
+    <row r="135" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I135" t="s">
+        <v>115</v>
+      </c>
+      <c r="J135" t="s">
+        <v>129</v>
+      </c>
+      <c r="K135">
+        <v>43</v>
+      </c>
+      <c r="L135">
+        <v>134676.97</v>
+      </c>
+    </row>
+    <row r="136" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I136" t="s">
+        <v>117</v>
+      </c>
+      <c r="J136" t="s">
+        <v>129</v>
+      </c>
+      <c r="K136">
+        <v>64</v>
+      </c>
+      <c r="L136">
+        <v>33331.480000000003</v>
+      </c>
+    </row>
+    <row r="137" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I137" t="s">
+        <v>116</v>
+      </c>
+      <c r="J137" t="s">
+        <v>131</v>
+      </c>
+      <c r="K137">
+        <v>87</v>
+      </c>
+      <c r="L137">
+        <v>31876.22</v>
+      </c>
+    </row>
+    <row r="138" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I138" t="s">
+        <v>117</v>
+      </c>
+      <c r="J138" t="s">
+        <v>129</v>
+      </c>
+      <c r="K138">
+        <v>99</v>
+      </c>
+      <c r="L138">
+        <v>273933.07</v>
+      </c>
+    </row>
+    <row r="139" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I139" t="s">
+        <v>117</v>
+      </c>
+      <c r="J139" t="s">
+        <v>129</v>
+      </c>
+      <c r="K139">
+        <v>3</v>
+      </c>
+      <c r="L139">
+        <v>242092.6</v>
+      </c>
+    </row>
+    <row r="140" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I140" t="s">
+        <v>118</v>
+      </c>
+      <c r="J140" t="s">
+        <v>129</v>
+      </c>
+      <c r="K140">
+        <v>9</v>
+      </c>
+      <c r="L140">
+        <v>118148.61</v>
+      </c>
+    </row>
+    <row r="141" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I141" t="s">
+        <v>116</v>
+      </c>
+      <c r="J141" t="s">
+        <v>129</v>
+      </c>
+      <c r="K141">
+        <v>13</v>
+      </c>
+      <c r="L141">
+        <v>109532.39</v>
+      </c>
+    </row>
+    <row r="142" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I142" t="s">
+        <v>116</v>
+      </c>
+      <c r="J142" t="s">
+        <v>130</v>
+      </c>
+      <c r="K142">
+        <v>1</v>
+      </c>
+      <c r="L142">
+        <v>240638.82</v>
+      </c>
+    </row>
+    <row r="143" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I143" t="s">
+        <v>116</v>
+      </c>
+      <c r="J143" t="s">
+        <v>131</v>
+      </c>
+      <c r="K143">
+        <v>28</v>
+      </c>
+      <c r="L143">
+        <v>75349.210000000006</v>
+      </c>
+    </row>
+    <row r="144" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I144" t="s">
+        <v>116</v>
+      </c>
+      <c r="J144" t="s">
+        <v>129</v>
+      </c>
+      <c r="K144">
+        <v>40</v>
+      </c>
+      <c r="L144">
+        <v>114141.61</v>
+      </c>
+    </row>
+    <row r="145" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I145" t="s">
+        <v>118</v>
+      </c>
+      <c r="J145" t="s">
+        <v>130</v>
+      </c>
+      <c r="K145">
+        <v>50</v>
+      </c>
+      <c r="L145">
+        <v>40664.61</v>
+      </c>
+    </row>
+    <row r="146" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I146" t="s">
+        <v>117</v>
+      </c>
+      <c r="J146" t="s">
+        <v>129</v>
+      </c>
+      <c r="K146">
+        <v>54</v>
+      </c>
+      <c r="L146">
+        <v>190258.01</v>
+      </c>
+    </row>
+    <row r="147" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I147" t="s">
+        <v>116</v>
+      </c>
+      <c r="J147" t="s">
+        <v>129</v>
+      </c>
+      <c r="K147">
+        <v>57</v>
+      </c>
+      <c r="L147">
+        <v>26249.25</v>
+      </c>
+    </row>
+    <row r="148" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I148" t="s">
+        <v>117</v>
+      </c>
+      <c r="J148" t="s">
+        <v>129</v>
+      </c>
+      <c r="K148">
+        <v>65</v>
+      </c>
+      <c r="L148">
+        <v>270820.15999999997</v>
+      </c>
+    </row>
+    <row r="149" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I149" t="s">
+        <v>117</v>
+      </c>
+      <c r="J149" t="s">
+        <v>130</v>
+      </c>
+      <c r="K149">
+        <v>90</v>
+      </c>
+      <c r="L149">
+        <v>100799.16</v>
+      </c>
+    </row>
+    <row r="150" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I150" t="s">
+        <v>118</v>
+      </c>
+      <c r="J150" t="s">
+        <v>131</v>
+      </c>
+      <c r="K150">
+        <v>97</v>
+      </c>
+      <c r="L150">
+        <v>438404.4</v>
+      </c>
+    </row>
+    <row r="151" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I151" t="s">
+        <v>117</v>
+      </c>
+      <c r="J151" t="s">
+        <v>130</v>
+      </c>
+      <c r="K151">
+        <v>101</v>
+      </c>
+      <c r="L151">
+        <v>246676.15</v>
+      </c>
+    </row>
+    <row r="152" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I152" t="s">
+        <v>118</v>
+      </c>
+      <c r="J152" t="s">
+        <v>130</v>
+      </c>
+      <c r="K152">
+        <v>103</v>
+      </c>
+      <c r="L152">
+        <v>99448.83</v>
+      </c>
+    </row>
+    <row r="153" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I153" t="s">
+        <v>115</v>
+      </c>
+      <c r="J153" t="s">
+        <v>129</v>
+      </c>
+      <c r="K153">
+        <v>15</v>
+      </c>
+      <c r="L153">
+        <v>215945.66</v>
+      </c>
+    </row>
+    <row r="154" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I154" t="s">
+        <v>116</v>
+      </c>
+      <c r="J154" t="s">
+        <v>129</v>
+      </c>
+      <c r="K154">
+        <v>20</v>
+      </c>
+      <c r="L154">
+        <v>23391.42</v>
+      </c>
+    </row>
+    <row r="155" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I155" t="s">
+        <v>116</v>
+      </c>
+      <c r="J155" t="s">
+        <v>129</v>
+      </c>
+      <c r="K155">
+        <v>23</v>
+      </c>
+      <c r="L155">
+        <v>86387.3</v>
+      </c>
+    </row>
+    <row r="156" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I156" t="s">
+        <v>115</v>
+      </c>
+      <c r="J156" t="s">
+        <v>129</v>
+      </c>
+      <c r="K156">
+        <v>39</v>
+      </c>
+      <c r="L156">
+        <v>263401.44</v>
+      </c>
+    </row>
+    <row r="157" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I157" t="s">
+        <v>116</v>
+      </c>
+      <c r="J157" t="s">
+        <v>129</v>
+      </c>
+      <c r="K157">
+        <v>43</v>
+      </c>
+      <c r="L157">
+        <v>21779.34</v>
+      </c>
+    </row>
+    <row r="158" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I158" t="s">
+        <v>115</v>
+      </c>
+      <c r="J158" t="s">
+        <v>131</v>
+      </c>
+      <c r="K158">
+        <v>69</v>
+      </c>
+      <c r="L158">
+        <v>254161.25</v>
+      </c>
+    </row>
+    <row r="159" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I159" t="s">
+        <v>116</v>
+      </c>
+      <c r="J159" t="s">
+        <v>129</v>
+      </c>
+      <c r="K159">
+        <v>92</v>
+      </c>
+      <c r="L159">
+        <v>52665.48</v>
+      </c>
+    </row>
+    <row r="160" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I160" t="s">
+        <v>116</v>
+      </c>
+      <c r="J160" t="s">
+        <v>129</v>
+      </c>
+      <c r="K160">
+        <v>61</v>
+      </c>
+      <c r="L160">
+        <v>46431.4</v>
+      </c>
+    </row>
+    <row r="161" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I161" t="s">
+        <v>117</v>
+      </c>
+      <c r="J161" t="s">
+        <v>131</v>
+      </c>
+      <c r="K161">
+        <v>69</v>
+      </c>
+      <c r="L161">
+        <v>228210.13</v>
+      </c>
+    </row>
+    <row r="162" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I162" t="s">
+        <v>115</v>
+      </c>
+      <c r="J162" t="s">
+        <v>129</v>
+      </c>
+      <c r="K162">
+        <v>13</v>
+      </c>
+      <c r="L162">
+        <v>338957.72</v>
+      </c>
+    </row>
+    <row r="163" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I163" t="s">
+        <v>116</v>
+      </c>
+      <c r="J163" t="s">
+        <v>131</v>
+      </c>
+      <c r="K163">
+        <v>38</v>
+      </c>
+      <c r="L163">
+        <v>28750.7</v>
+      </c>
+    </row>
+    <row r="164" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I164" t="s">
+        <v>117</v>
+      </c>
+      <c r="J164" t="s">
+        <v>129</v>
+      </c>
+      <c r="K164">
+        <v>2</v>
+      </c>
+      <c r="L164">
+        <v>322304.40000000002</v>
+      </c>
+    </row>
+    <row r="165" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I165" t="s">
+        <v>115</v>
+      </c>
+      <c r="J165" t="s">
+        <v>131</v>
+      </c>
+      <c r="K165">
+        <v>22</v>
+      </c>
+      <c r="L165">
+        <v>166192.18</v>
+      </c>
+    </row>
+    <row r="166" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I166" t="s">
+        <v>115</v>
+      </c>
+      <c r="J166" t="s">
+        <v>129</v>
+      </c>
+      <c r="K166">
+        <v>24</v>
+      </c>
+      <c r="L166">
+        <v>121231.59</v>
+      </c>
+    </row>
+    <row r="167" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I167" t="s">
+        <v>118</v>
+      </c>
+      <c r="J167" t="s">
+        <v>129</v>
+      </c>
+      <c r="K167">
+        <v>32</v>
+      </c>
+      <c r="L167">
+        <v>389855.7</v>
+      </c>
+    </row>
+    <row r="168" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I168" t="s">
+        <v>115</v>
+      </c>
+      <c r="J168" t="s">
+        <v>129</v>
+      </c>
+      <c r="K168">
+        <v>40</v>
+      </c>
+      <c r="L168">
+        <v>307683.51</v>
+      </c>
+    </row>
+    <row r="169" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I169" t="s">
+        <v>115</v>
+      </c>
+      <c r="J169" t="s">
+        <v>129</v>
+      </c>
+      <c r="K169">
+        <v>75</v>
+      </c>
+      <c r="L169">
+        <v>95801.44</v>
+      </c>
+    </row>
+    <row r="170" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I170" t="s">
+        <v>117</v>
+      </c>
+      <c r="J170" t="s">
+        <v>130</v>
+      </c>
+      <c r="K170">
+        <v>103</v>
+      </c>
+      <c r="L170">
+        <v>8233.16</v>
+      </c>
+    </row>
+    <row r="171" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I171" t="s">
+        <v>115</v>
+      </c>
+      <c r="J171" t="s">
+        <v>130</v>
+      </c>
+      <c r="K171">
+        <v>44</v>
+      </c>
+      <c r="L171">
+        <v>200946</v>
+      </c>
+    </row>
+    <row r="172" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I172" t="s">
+        <v>118</v>
+      </c>
+      <c r="J172" t="s">
+        <v>129</v>
+      </c>
+      <c r="K172">
+        <v>54</v>
+      </c>
+      <c r="L172">
+        <v>367198.64</v>
+      </c>
+    </row>
+    <row r="173" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I173" t="s">
+        <v>117</v>
+      </c>
+      <c r="J173" t="s">
+        <v>129</v>
+      </c>
+      <c r="K173">
+        <v>7</v>
+      </c>
+      <c r="L173">
+        <v>6697.81</v>
+      </c>
+    </row>
+    <row r="174" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I174" t="s">
+        <v>117</v>
+      </c>
+      <c r="J174" t="s">
+        <v>129</v>
+      </c>
+      <c r="K174">
+        <v>32</v>
+      </c>
+      <c r="L174">
+        <v>67746</v>
+      </c>
+    </row>
+    <row r="175" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I175" t="s">
+        <v>115</v>
+      </c>
+      <c r="J175" t="s">
+        <v>129</v>
+      </c>
+      <c r="K175">
+        <v>53</v>
+      </c>
+      <c r="L175">
+        <v>95398.94</v>
+      </c>
+    </row>
+    <row r="176" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I176" t="s">
+        <v>115</v>
+      </c>
+      <c r="J176" t="s">
+        <v>129</v>
+      </c>
+      <c r="K176">
+        <v>12</v>
+      </c>
+      <c r="L176">
+        <v>248427.09</v>
+      </c>
+    </row>
+    <row r="177" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I177" t="s">
+        <v>118</v>
+      </c>
+      <c r="J177" t="s">
+        <v>129</v>
+      </c>
+      <c r="K177">
+        <v>40</v>
+      </c>
+      <c r="L177">
+        <v>117875.16</v>
+      </c>
+    </row>
+    <row r="178" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I178" t="s">
+        <v>115</v>
+      </c>
+      <c r="J178" t="s">
+        <v>130</v>
+      </c>
+      <c r="K178">
+        <v>101</v>
+      </c>
+      <c r="L178">
+        <v>251250.87</v>
+      </c>
+    </row>
+    <row r="179" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I179" t="s">
+        <v>117</v>
+      </c>
+      <c r="J179" t="s">
+        <v>129</v>
+      </c>
+      <c r="K179">
+        <v>45</v>
+      </c>
+      <c r="L179">
+        <v>67417.679999999993</v>
+      </c>
+    </row>
+    <row r="180" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I180" t="s">
+        <v>118</v>
+      </c>
+      <c r="J180" t="s">
+        <v>130</v>
+      </c>
+      <c r="K180">
+        <v>1</v>
+      </c>
+      <c r="L180">
+        <v>241986.69</v>
+      </c>
+    </row>
+    <row r="181" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I181" t="s">
+        <v>115</v>
+      </c>
+      <c r="J181" t="s">
+        <v>129</v>
+      </c>
+      <c r="K181">
+        <v>74</v>
+      </c>
+      <c r="L181">
+        <v>230473.37</v>
+      </c>
+    </row>
+    <row r="182" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I182" t="s">
+        <v>118</v>
+      </c>
+      <c r="J182" t="s">
+        <v>129</v>
+      </c>
+      <c r="K182">
+        <v>75</v>
+      </c>
+      <c r="L182">
+        <v>510974.61</v>
+      </c>
+    </row>
+    <row r="183" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I183" t="s">
+        <v>117</v>
+      </c>
+      <c r="J183" t="s">
+        <v>129</v>
+      </c>
+      <c r="K183">
+        <v>84</v>
+      </c>
+      <c r="L183">
+        <v>13479.3</v>
+      </c>
+    </row>
+    <row r="184" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I184" t="s">
+        <v>115</v>
+      </c>
+      <c r="J184" t="s">
+        <v>130</v>
+      </c>
+      <c r="K184">
+        <v>90</v>
+      </c>
+      <c r="L184">
+        <v>519912.12</v>
+      </c>
+    </row>
+    <row r="185" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I185" t="s">
+        <v>116</v>
+      </c>
+      <c r="J185" t="s">
+        <v>130</v>
+      </c>
+      <c r="K185">
+        <v>91</v>
+      </c>
+      <c r="L185">
+        <v>66820.070000000007</v>
+      </c>
+    </row>
+    <row r="186" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I186" t="s">
+        <v>117</v>
+      </c>
+      <c r="J186" t="s">
+        <v>129</v>
+      </c>
+      <c r="K186">
+        <v>93</v>
+      </c>
+      <c r="L186">
+        <v>107747.09</v>
+      </c>
+    </row>
+    <row r="187" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I187" t="s">
+        <v>118</v>
+      </c>
+      <c r="J187" t="s">
+        <v>129</v>
+      </c>
+      <c r="K187">
+        <v>94</v>
+      </c>
+      <c r="L187">
+        <v>681618.88</v>
+      </c>
+    </row>
+    <row r="188" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I188" t="s">
+        <v>117</v>
+      </c>
+      <c r="J188" t="s">
+        <v>129</v>
+      </c>
+      <c r="K188">
+        <v>8</v>
+      </c>
+      <c r="L188">
+        <v>48905.760000000002</v>
+      </c>
+    </row>
+    <row r="189" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I189" t="s">
+        <v>117</v>
+      </c>
+      <c r="J189" t="s">
+        <v>129</v>
+      </c>
+      <c r="K189">
+        <v>23</v>
+      </c>
+      <c r="L189">
+        <v>197475.36</v>
+      </c>
+    </row>
+    <row r="190" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I190" t="s">
+        <v>117</v>
+      </c>
+      <c r="J190" t="s">
+        <v>129</v>
+      </c>
+      <c r="K190">
+        <v>30</v>
+      </c>
+      <c r="L190">
+        <v>12854.93</v>
+      </c>
+    </row>
+    <row r="191" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I191" t="s">
+        <v>115</v>
+      </c>
+      <c r="J191" t="s">
+        <v>129</v>
+      </c>
+      <c r="K191">
+        <v>45</v>
+      </c>
+      <c r="L191">
+        <v>30183.85</v>
+      </c>
+    </row>
+    <row r="192" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I192" t="s">
+        <v>115</v>
+      </c>
+      <c r="J192" t="s">
+        <v>130</v>
+      </c>
+      <c r="K192">
+        <v>68</v>
+      </c>
+      <c r="L192">
+        <v>540246.93000000005</v>
+      </c>
+    </row>
+    <row r="193" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I193" t="s">
+        <v>115</v>
+      </c>
+      <c r="J193" t="s">
+        <v>129</v>
+      </c>
+      <c r="K193">
+        <v>71</v>
+      </c>
+      <c r="L193">
+        <v>315566.02</v>
+      </c>
+    </row>
+    <row r="194" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I194" t="s">
+        <v>116</v>
+      </c>
+      <c r="J194" t="s">
+        <v>129</v>
+      </c>
+      <c r="K194">
+        <v>98</v>
+      </c>
+      <c r="L194">
+        <v>41598.959999999999</v>
+      </c>
+    </row>
+    <row r="195" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I195" t="s">
+        <v>118</v>
+      </c>
+      <c r="J195" t="s">
+        <v>129</v>
+      </c>
+      <c r="K195">
+        <v>25</v>
+      </c>
+      <c r="L195">
+        <v>88058.81</v>
+      </c>
+    </row>
+    <row r="196" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I196" t="s">
+        <v>115</v>
+      </c>
+      <c r="J196" t="s">
+        <v>129</v>
+      </c>
+      <c r="K196">
+        <v>33</v>
+      </c>
+      <c r="L196">
+        <v>41217</v>
+      </c>
+    </row>
+    <row r="197" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I197" t="s">
+        <v>117</v>
+      </c>
+      <c r="J197" t="s">
+        <v>130</v>
+      </c>
+      <c r="K197">
+        <v>85</v>
+      </c>
+      <c r="L197">
+        <v>4784.1499999999996</v>
+      </c>
+    </row>
+    <row r="198" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I198" t="s">
+        <v>118</v>
+      </c>
+      <c r="J198" t="s">
+        <v>129</v>
+      </c>
+      <c r="K198">
+        <v>88</v>
+      </c>
+      <c r="L198">
+        <v>213601.66</v>
+      </c>
+    </row>
+    <row r="199" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I199" t="s">
+        <v>117</v>
+      </c>
+      <c r="J199" t="s">
+        <v>129</v>
+      </c>
+      <c r="K199">
+        <v>75</v>
+      </c>
+      <c r="L199">
+        <v>46402.78</v>
+      </c>
+    </row>
+    <row r="200" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I200" t="s">
+        <v>117</v>
+      </c>
+      <c r="J200" t="s">
+        <v>129</v>
+      </c>
+      <c r="K200">
+        <v>89</v>
+      </c>
+      <c r="L200">
+        <v>177012.69</v>
+      </c>
+    </row>
+    <row r="201" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I201" t="s">
+        <v>117</v>
+      </c>
+      <c r="J201" t="s">
+        <v>130</v>
+      </c>
+      <c r="K201">
+        <v>105</v>
+      </c>
+      <c r="L201">
+        <v>51679.199999999997</v>
+      </c>
+    </row>
+    <row r="202" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I202" t="s">
+        <v>117</v>
+      </c>
+      <c r="J202" t="s">
+        <v>129</v>
+      </c>
+      <c r="K202">
+        <v>12</v>
+      </c>
+      <c r="L202">
+        <v>273063.84999999998</v>
+      </c>
+    </row>
+    <row r="203" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I203" t="s">
+        <v>118</v>
+      </c>
+      <c r="J203" t="s">
+        <v>129</v>
+      </c>
+      <c r="K203">
+        <v>12</v>
+      </c>
+      <c r="L203">
+        <v>84966.48</v>
+      </c>
+    </row>
+    <row r="204" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I204" t="s">
+        <v>118</v>
+      </c>
+      <c r="J204" t="s">
+        <v>129</v>
+      </c>
+      <c r="K204">
+        <v>30</v>
+      </c>
+      <c r="L204">
+        <v>258648.18</v>
+      </c>
+    </row>
+    <row r="205" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I205" t="s">
+        <v>118</v>
+      </c>
+      <c r="J205" t="s">
+        <v>129</v>
+      </c>
+      <c r="K205">
+        <v>19</v>
+      </c>
+      <c r="L205">
+        <v>85048.95</v>
+      </c>
+    </row>
+    <row r="206" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I206" t="s">
+        <v>117</v>
+      </c>
+      <c r="J206" t="s">
+        <v>129</v>
+      </c>
+      <c r="K206">
+        <v>26</v>
+      </c>
+      <c r="L206">
+        <v>93648.29</v>
+      </c>
+    </row>
+    <row r="207" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I207" t="s">
+        <v>116</v>
+      </c>
+      <c r="J207" t="s">
+        <v>129</v>
+      </c>
+      <c r="K207">
+        <v>79</v>
+      </c>
+      <c r="L207">
+        <v>83652.160000000003</v>
+      </c>
+    </row>
+    <row r="208" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I208" t="s">
+        <v>118</v>
+      </c>
+      <c r="J208" t="s">
+        <v>129</v>
+      </c>
+      <c r="K208">
+        <v>82</v>
+      </c>
+      <c r="L208">
+        <v>71891.5</v>
+      </c>
+    </row>
+    <row r="209" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I209" t="s">
+        <v>118</v>
+      </c>
+      <c r="J209" t="s">
+        <v>129</v>
+      </c>
+      <c r="K209">
+        <v>92</v>
+      </c>
+      <c r="L209">
+        <v>534726.94999999995</v>
+      </c>
+    </row>
+    <row r="210" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I210" t="s">
+        <v>116</v>
+      </c>
+      <c r="J210" t="s">
+        <v>129</v>
+      </c>
+      <c r="K210">
+        <v>37</v>
+      </c>
+      <c r="L210">
+        <v>28398</v>
+      </c>
+    </row>
+    <row r="211" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I211" t="s">
+        <v>115</v>
+      </c>
+      <c r="J211" t="s">
+        <v>130</v>
+      </c>
+      <c r="K211">
+        <v>10</v>
+      </c>
+      <c r="L211">
+        <v>190743.45</v>
+      </c>
+    </row>
+    <row r="212" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I212" t="s">
+        <v>115</v>
+      </c>
+      <c r="J212" t="s">
+        <v>129</v>
+      </c>
+      <c r="K212">
+        <v>93</v>
+      </c>
+      <c r="L212">
+        <v>84864.94</v>
+      </c>
+    </row>
+    <row r="213" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I213" t="s">
+        <v>116</v>
+      </c>
+      <c r="J213" t="s">
+        <v>129</v>
+      </c>
+      <c r="K213">
+        <v>45</v>
+      </c>
+      <c r="L213">
+        <v>50398.74</v>
+      </c>
+    </row>
+    <row r="214" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I214" t="s">
+        <v>116</v>
+      </c>
+      <c r="J214" t="s">
+        <v>129</v>
+      </c>
+      <c r="K214">
+        <v>93</v>
+      </c>
+      <c r="L214">
+        <v>43919.040000000001</v>
+      </c>
+    </row>
+    <row r="215" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I215" t="s">
+        <v>118</v>
+      </c>
+      <c r="J215" t="s">
+        <v>129</v>
+      </c>
+      <c r="K215">
+        <v>13</v>
+      </c>
+      <c r="L215">
+        <v>234462</v>
+      </c>
+    </row>
+    <row r="216" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I216" t="s">
+        <v>116</v>
+      </c>
+      <c r="J216" t="s">
+        <v>129</v>
+      </c>
+      <c r="K216">
+        <v>19</v>
+      </c>
+      <c r="L216">
+        <v>47555.68</v>
+      </c>
+    </row>
+    <row r="217" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I217" t="s">
+        <v>115</v>
+      </c>
+      <c r="J217" t="s">
+        <v>129</v>
+      </c>
+      <c r="K217">
+        <v>73</v>
+      </c>
+      <c r="L217">
+        <v>135091.26</v>
+      </c>
+    </row>
+    <row r="218" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I218" t="s">
+        <v>116</v>
+      </c>
+      <c r="J218" t="s">
+        <v>129</v>
+      </c>
+      <c r="K218">
+        <v>73</v>
+      </c>
+      <c r="L218">
+        <v>109738.2</v>
+      </c>
+    </row>
+    <row r="219" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I219" t="s">
+        <v>117</v>
+      </c>
+      <c r="J219" t="s">
+        <v>129</v>
+      </c>
+      <c r="K219">
+        <v>82</v>
+      </c>
+      <c r="L219">
+        <v>67831.41</v>
+      </c>
+    </row>
+    <row r="220" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I220" t="s">
+        <v>116</v>
+      </c>
+      <c r="J220" t="s">
+        <v>129</v>
+      </c>
+      <c r="K220">
+        <v>102</v>
+      </c>
+      <c r="L220">
+        <v>50658.51</v>
+      </c>
+    </row>
+    <row r="221" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I221" t="s">
+        <v>116</v>
+      </c>
+      <c r="J221" t="s">
+        <v>129</v>
+      </c>
+      <c r="K221">
+        <v>2</v>
+      </c>
+      <c r="L221">
+        <v>73925.81</v>
+      </c>
+    </row>
+    <row r="222" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I222" t="s">
+        <v>116</v>
+      </c>
+      <c r="J222" t="s">
+        <v>131</v>
+      </c>
+      <c r="K222">
+        <v>5</v>
+      </c>
+      <c r="L222">
+        <v>88585.2</v>
+      </c>
+    </row>
+    <row r="223" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I223" t="s">
+        <v>115</v>
+      </c>
+      <c r="J223" t="s">
+        <v>129</v>
+      </c>
+      <c r="K223">
+        <v>6</v>
+      </c>
+      <c r="L223">
+        <v>43415.33</v>
+      </c>
+    </row>
+    <row r="224" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I224" t="s">
+        <v>117</v>
+      </c>
+      <c r="J224" t="s">
+        <v>129</v>
+      </c>
+      <c r="K224">
+        <v>20</v>
+      </c>
+      <c r="L224">
+        <v>67303.95</v>
+      </c>
+    </row>
+    <row r="225" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I225" t="s">
+        <v>117</v>
+      </c>
+      <c r="J225" t="s">
+        <v>129</v>
+      </c>
+      <c r="K225">
+        <v>33</v>
+      </c>
+      <c r="L225">
+        <v>113717.39</v>
+      </c>
+    </row>
+    <row r="226" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I226" t="s">
+        <v>117</v>
+      </c>
+      <c r="J226" t="s">
+        <v>129</v>
+      </c>
+      <c r="K226">
+        <v>36</v>
+      </c>
+      <c r="L226">
+        <v>200601.78</v>
+      </c>
+    </row>
+    <row r="227" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I227" t="s">
+        <v>117</v>
+      </c>
+      <c r="J227" t="s">
+        <v>129</v>
+      </c>
+      <c r="K227">
+        <v>43</v>
+      </c>
+      <c r="L227">
+        <v>104013.27</v>
+      </c>
+    </row>
+    <row r="228" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I228" t="s">
+        <v>118</v>
+      </c>
+      <c r="J228" t="s">
+        <v>130</v>
+      </c>
+      <c r="K228">
+        <v>44</v>
+      </c>
+      <c r="L228">
+        <v>212502.54</v>
+      </c>
+    </row>
+    <row r="229" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I229" t="s">
+        <v>117</v>
+      </c>
+      <c r="J229" t="s">
+        <v>129</v>
+      </c>
+      <c r="K229">
+        <v>51</v>
+      </c>
+      <c r="L229">
+        <v>69083.02</v>
+      </c>
+    </row>
+    <row r="230" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I230" t="s">
+        <v>118</v>
+      </c>
+      <c r="J230" t="s">
+        <v>129</v>
+      </c>
+      <c r="K230">
+        <v>59</v>
+      </c>
+      <c r="L230">
+        <v>201988.89</v>
+      </c>
+    </row>
+    <row r="231" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I231" t="s">
+        <v>118</v>
+      </c>
+      <c r="J231" t="s">
+        <v>131</v>
+      </c>
+      <c r="K231">
+        <v>70</v>
+      </c>
+      <c r="L231">
+        <v>170760.56</v>
+      </c>
+    </row>
+    <row r="232" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I232" t="s">
+        <v>117</v>
+      </c>
+      <c r="J232" t="s">
+        <v>129</v>
+      </c>
+      <c r="K232">
+        <v>83</v>
+      </c>
+      <c r="L232">
+        <v>399575.21</v>
+      </c>
+    </row>
+    <row r="233" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I233" t="s">
+        <v>117</v>
+      </c>
+      <c r="J233" t="s">
+        <v>130</v>
+      </c>
+      <c r="K233">
+        <v>86</v>
+      </c>
+      <c r="L233">
+        <v>87714.78</v>
+      </c>
+    </row>
+    <row r="234" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I234" t="s">
+        <v>117</v>
+      </c>
+      <c r="J234" t="s">
+        <v>130</v>
+      </c>
+      <c r="K234">
+        <v>91</v>
+      </c>
+      <c r="L234">
+        <v>492621.72</v>
+      </c>
+    </row>
+    <row r="235" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I235" t="s">
+        <v>116</v>
+      </c>
+      <c r="J235" t="s">
+        <v>130</v>
+      </c>
+      <c r="K235">
+        <v>105</v>
+      </c>
+      <c r="L235">
+        <v>69471.070000000007</v>
+      </c>
+    </row>
+    <row r="236" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I236" t="s">
+        <v>117</v>
+      </c>
+      <c r="J236" t="s">
+        <v>131</v>
+      </c>
+      <c r="K236">
+        <v>22</v>
+      </c>
+      <c r="L236">
+        <v>102503.81</v>
+      </c>
+    </row>
+    <row r="237" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I237" t="s">
+        <v>115</v>
+      </c>
+      <c r="J237" t="s">
+        <v>129</v>
+      </c>
+      <c r="K237">
+        <v>41</v>
+      </c>
+      <c r="L237">
+        <v>164950.35999999999</v>
+      </c>
+    </row>
+    <row r="238" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I238" t="s">
+        <v>117</v>
+      </c>
+      <c r="J238" t="s">
+        <v>131</v>
+      </c>
+      <c r="K238">
+        <v>47</v>
+      </c>
+      <c r="L238">
+        <v>140114.64000000001</v>
+      </c>
+    </row>
+    <row r="239" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I239" t="s">
+        <v>115</v>
+      </c>
+      <c r="J239" t="s">
+        <v>129</v>
+      </c>
+      <c r="K239">
+        <v>58</v>
+      </c>
+      <c r="L239">
+        <v>311447.27</v>
+      </c>
+    </row>
+    <row r="240" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I240" t="s">
+        <v>115</v>
+      </c>
+      <c r="J240" t="s">
+        <v>129</v>
+      </c>
+      <c r="K240">
+        <v>59</v>
+      </c>
+      <c r="L240">
+        <v>634396.52</v>
+      </c>
+    </row>
+    <row r="241" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I241" t="s">
+        <v>115</v>
+      </c>
+      <c r="J241" t="s">
+        <v>129</v>
+      </c>
+      <c r="K241">
+        <v>72</v>
+      </c>
+      <c r="L241">
+        <v>130993.77</v>
+      </c>
+    </row>
+    <row r="242" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I242" t="s">
+        <v>118</v>
+      </c>
+      <c r="J242" t="s">
+        <v>129</v>
+      </c>
+      <c r="K242">
+        <v>76</v>
+      </c>
+      <c r="L242">
+        <v>272227.69</v>
+      </c>
+    </row>
+    <row r="243" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I243" t="s">
+        <v>116</v>
+      </c>
+      <c r="J243" t="s">
+        <v>130</v>
+      </c>
+      <c r="K243">
+        <v>86</v>
+      </c>
+      <c r="L243">
+        <v>33414.080000000002</v>
+      </c>
+    </row>
+    <row r="244" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I244" t="s">
+        <v>115</v>
+      </c>
+      <c r="J244" t="s">
+        <v>129</v>
+      </c>
+      <c r="K244">
+        <v>8</v>
+      </c>
+      <c r="L244">
+        <v>177555.15</v>
+      </c>
+    </row>
+    <row r="245" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I245" t="s">
+        <v>117</v>
+      </c>
+      <c r="J245" t="s">
+        <v>129</v>
+      </c>
+      <c r="K245">
+        <v>39</v>
+      </c>
+      <c r="L245">
+        <v>276999.11</v>
+      </c>
+    </row>
+    <row r="246" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I246" t="s">
+        <v>117</v>
+      </c>
+      <c r="J246" t="s">
+        <v>129</v>
+      </c>
+      <c r="K246">
+        <v>59</v>
+      </c>
+      <c r="L246">
+        <v>152039.91</v>
+      </c>
+    </row>
+    <row r="247" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I247" t="s">
+        <v>115</v>
+      </c>
+      <c r="J247" t="s">
+        <v>131</v>
+      </c>
+      <c r="K247">
+        <v>67</v>
+      </c>
+      <c r="L247">
+        <v>479732.67</v>
+      </c>
+    </row>
+    <row r="248" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I248" t="s">
+        <v>118</v>
+      </c>
+      <c r="J248" t="s">
+        <v>130</v>
+      </c>
+      <c r="K248">
+        <v>68</v>
+      </c>
+      <c r="L248">
+        <v>320337.15999999997</v>
+      </c>
+    </row>
+    <row r="249" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I249" t="s">
+        <v>115</v>
+      </c>
+      <c r="J249" t="s">
+        <v>129</v>
+      </c>
+      <c r="K249">
+        <v>77</v>
+      </c>
+      <c r="L249">
+        <v>451555.28</v>
+      </c>
+    </row>
+    <row r="250" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I250" t="s">
+        <v>115</v>
+      </c>
+      <c r="J250" t="s">
+        <v>130</v>
+      </c>
+      <c r="K250">
+        <v>1</v>
+      </c>
+      <c r="L250">
+        <v>283322.58</v>
+      </c>
+    </row>
+    <row r="251" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I251" t="s">
+        <v>118</v>
+      </c>
+      <c r="J251" t="s">
+        <v>129</v>
+      </c>
+      <c r="K251">
+        <v>14</v>
+      </c>
+      <c r="L251">
+        <v>723284.07</v>
+      </c>
+    </row>
+    <row r="252" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I252" t="s">
+        <v>116</v>
+      </c>
+      <c r="J252" t="s">
+        <v>129</v>
+      </c>
+      <c r="K252">
+        <v>33</v>
+      </c>
+      <c r="L252">
+        <v>159704.32000000001</v>
+      </c>
+    </row>
+    <row r="253" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I253" t="s">
+        <v>115</v>
+      </c>
+      <c r="J253" t="s">
+        <v>129</v>
+      </c>
+      <c r="K253">
+        <v>23</v>
+      </c>
+      <c r="L253">
+        <v>377450.8</v>
+      </c>
+    </row>
+    <row r="254" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I254" t="s">
+        <v>116</v>
+      </c>
+      <c r="J254" t="s">
+        <v>129</v>
+      </c>
+      <c r="K254">
+        <v>41</v>
+      </c>
+      <c r="L254">
+        <v>62910.49</v>
+      </c>
+    </row>
+    <row r="255" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I255" t="s">
+        <v>117</v>
+      </c>
+      <c r="J255" t="s">
+        <v>129</v>
+      </c>
+      <c r="K255">
+        <v>15</v>
+      </c>
+      <c r="L255">
+        <v>60714.65</v>
+      </c>
+    </row>
+    <row r="256" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I256" t="s">
+        <v>118</v>
+      </c>
+      <c r="J256" t="s">
+        <v>131</v>
+      </c>
+      <c r="K256">
+        <v>66</v>
+      </c>
+      <c r="L256">
+        <v>123964.28</v>
+      </c>
+    </row>
+    <row r="257" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I257" t="s">
+        <v>116</v>
+      </c>
+      <c r="J257" t="s">
+        <v>129</v>
+      </c>
+      <c r="K257">
+        <v>4</v>
+      </c>
+      <c r="L257">
+        <v>55048.65</v>
+      </c>
+    </row>
+    <row r="258" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I258" t="s">
+        <v>116</v>
+      </c>
+      <c r="J258" t="s">
+        <v>129</v>
+      </c>
+      <c r="K258">
+        <v>30</v>
+      </c>
+      <c r="L258">
+        <v>20330.64</v>
+      </c>
+    </row>
+    <row r="259" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I259" t="s">
+        <v>118</v>
+      </c>
+      <c r="J259" t="s">
+        <v>131</v>
+      </c>
+      <c r="K259">
+        <v>67</v>
+      </c>
+      <c r="L259">
+        <v>102998.73</v>
+      </c>
+    </row>
+    <row r="260" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I260" t="s">
+        <v>116</v>
+      </c>
+      <c r="J260" t="s">
+        <v>129</v>
+      </c>
+      <c r="K260">
+        <v>39</v>
+      </c>
+      <c r="L260">
+        <v>68116.09</v>
+      </c>
+    </row>
+    <row r="261" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I261" t="s">
+        <v>116</v>
+      </c>
+      <c r="J261" t="s">
+        <v>130</v>
+      </c>
+      <c r="K261">
+        <v>68</v>
+      </c>
+      <c r="L261">
+        <v>90211</v>
+      </c>
+    </row>
+    <row r="262" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I262" t="s">
+        <v>118</v>
+      </c>
+      <c r="J262" t="s">
+        <v>129</v>
+      </c>
+      <c r="K262">
+        <v>6</v>
+      </c>
+      <c r="L262">
+        <v>261616.64000000001</v>
+      </c>
+    </row>
+    <row r="263" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I263" t="s">
+        <v>117</v>
+      </c>
+      <c r="J263" t="s">
+        <v>129</v>
+      </c>
+      <c r="K263">
+        <v>81</v>
+      </c>
+      <c r="L263">
+        <v>401896.64</v>
+      </c>
+    </row>
+    <row r="264" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I264" t="s">
+        <v>118</v>
+      </c>
+      <c r="J264" t="s">
+        <v>130</v>
+      </c>
+      <c r="K264">
+        <v>105</v>
+      </c>
+      <c r="L264">
+        <v>133468.44</v>
+      </c>
+    </row>
+    <row r="265" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I265" t="s">
+        <v>115</v>
+      </c>
+      <c r="J265" t="s">
+        <v>129</v>
+      </c>
+      <c r="K265">
+        <v>2</v>
+      </c>
+      <c r="L265">
+        <v>103833.15</v>
+      </c>
+    </row>
+    <row r="266" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I266" t="s">
+        <v>116</v>
+      </c>
+      <c r="J266" t="s">
+        <v>129</v>
+      </c>
+      <c r="K266">
+        <v>15</v>
+      </c>
+      <c r="L266">
+        <v>65550.070000000007</v>
+      </c>
+    </row>
+    <row r="267" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I267" t="s">
+        <v>117</v>
+      </c>
+      <c r="J267" t="s">
+        <v>129</v>
+      </c>
+      <c r="K267">
+        <v>19</v>
+      </c>
+      <c r="L267">
+        <v>213136.95</v>
+      </c>
+    </row>
+    <row r="268" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I268" t="s">
+        <v>117</v>
+      </c>
+      <c r="J268" t="s">
+        <v>129</v>
+      </c>
+      <c r="K268">
+        <v>29</v>
+      </c>
+      <c r="L268">
+        <v>194290.68</v>
+      </c>
+    </row>
+    <row r="269" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I269" t="s">
+        <v>118</v>
+      </c>
+      <c r="J269" t="s">
+        <v>129</v>
+      </c>
+      <c r="K269">
+        <v>34</v>
+      </c>
+      <c r="L269">
+        <v>123231.18</v>
+      </c>
+    </row>
+    <row r="270" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I270" t="s">
+        <v>117</v>
+      </c>
+      <c r="J270" t="s">
+        <v>129</v>
+      </c>
+      <c r="K270">
+        <v>41</v>
+      </c>
+      <c r="L270">
+        <v>49724.38</v>
+      </c>
+    </row>
+    <row r="271" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I271" t="s">
+        <v>115</v>
+      </c>
+      <c r="J271" t="s">
+        <v>131</v>
+      </c>
+      <c r="K271">
+        <v>48</v>
+      </c>
+      <c r="L271">
+        <v>273591.14</v>
+      </c>
+    </row>
+    <row r="272" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I272" t="s">
+        <v>115</v>
+      </c>
+      <c r="J272" t="s">
+        <v>130</v>
+      </c>
+      <c r="K272">
+        <v>55</v>
+      </c>
+      <c r="L272">
+        <v>259421.63</v>
+      </c>
+    </row>
+    <row r="273" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I273" t="s">
+        <v>117</v>
+      </c>
+      <c r="J273" t="s">
+        <v>129</v>
+      </c>
+      <c r="K273">
+        <v>72</v>
+      </c>
+      <c r="L273">
+        <v>138561.79</v>
+      </c>
+    </row>
+    <row r="274" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I274" t="s">
+        <v>117</v>
+      </c>
+      <c r="J274" t="s">
+        <v>129</v>
+      </c>
+      <c r="K274">
+        <v>79</v>
+      </c>
+      <c r="L274">
+        <v>219998.64</v>
+      </c>
+    </row>
+    <row r="275" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I275" t="s">
+        <v>117</v>
+      </c>
+      <c r="J275" t="s">
+        <v>129</v>
+      </c>
+      <c r="K275">
+        <v>96</v>
+      </c>
+      <c r="L275">
+        <v>9111.66</v>
+      </c>
+    </row>
+    <row r="276" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I276" t="s">
+        <v>117</v>
+      </c>
+      <c r="J276" t="s">
+        <v>130</v>
+      </c>
+      <c r="K276">
+        <v>100</v>
+      </c>
+      <c r="L276">
+        <v>10491.6</v>
+      </c>
+    </row>
+    <row r="277" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I277" t="s">
+        <v>117</v>
+      </c>
+      <c r="J277" t="s">
+        <v>129</v>
+      </c>
+      <c r="K277">
+        <v>102</v>
+      </c>
+      <c r="L277">
+        <v>88768.14</v>
+      </c>
+    </row>
+    <row r="278" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I278" t="s">
+        <v>117</v>
+      </c>
+      <c r="J278" t="s">
+        <v>130</v>
+      </c>
+      <c r="K278">
+        <v>1</v>
+      </c>
+      <c r="L278">
+        <v>377768.78</v>
+      </c>
+    </row>
+    <row r="279" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I279" t="s">
+        <v>117</v>
+      </c>
+      <c r="J279" t="s">
+        <v>130</v>
+      </c>
+      <c r="K279">
+        <v>16</v>
+      </c>
+      <c r="L279">
+        <v>124447.51</v>
+      </c>
+    </row>
+    <row r="280" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I280" t="s">
+        <v>117</v>
+      </c>
+      <c r="J280" t="s">
+        <v>131</v>
+      </c>
+      <c r="K280">
+        <v>38</v>
+      </c>
+      <c r="L280">
+        <v>267945.96000000002</v>
+      </c>
+    </row>
+    <row r="281" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I281" t="s">
+        <v>116</v>
+      </c>
+      <c r="J281" t="s">
+        <v>130</v>
+      </c>
+      <c r="K281">
+        <v>46</v>
+      </c>
+      <c r="L281">
+        <v>30442.28</v>
+      </c>
+    </row>
+    <row r="282" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I282" t="s">
+        <v>116</v>
+      </c>
+      <c r="J282" t="s">
+        <v>129</v>
+      </c>
+      <c r="K282">
+        <v>9</v>
+      </c>
+      <c r="L282">
+        <v>36485.379999999997</v>
+      </c>
+    </row>
+    <row r="283" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I283" t="s">
+        <v>116</v>
+      </c>
+      <c r="J283" t="s">
+        <v>129</v>
+      </c>
+      <c r="K283">
+        <v>18</v>
+      </c>
+      <c r="L283">
+        <v>81832.62</v>
+      </c>
+    </row>
+    <row r="284" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I284" t="s">
+        <v>116</v>
+      </c>
+      <c r="J284" t="s">
+        <v>129</v>
+      </c>
+      <c r="K284">
+        <v>29</v>
+      </c>
+      <c r="L284">
+        <v>13439.68</v>
+      </c>
+    </row>
+    <row r="285" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I285" t="s">
+        <v>116</v>
+      </c>
+      <c r="J285" t="s">
+        <v>130</v>
+      </c>
+      <c r="K285">
+        <v>21</v>
+      </c>
+      <c r="L285">
+        <v>40678.800000000003</v>
+      </c>
+    </row>
+    <row r="286" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I286" t="s">
+        <v>117</v>
+      </c>
+      <c r="J286" t="s">
+        <v>130</v>
+      </c>
+      <c r="K286">
+        <v>55</v>
+      </c>
+      <c r="L286">
+        <v>21171.21</v>
+      </c>
+    </row>
+    <row r="287" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I287" t="s">
+        <v>115</v>
+      </c>
+      <c r="J287" t="s">
+        <v>129</v>
+      </c>
+      <c r="K287">
+        <v>81</v>
+      </c>
+      <c r="L287">
+        <v>305894</v>
+      </c>
+    </row>
+    <row r="288" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I288" t="s">
+        <v>117</v>
+      </c>
+      <c r="J288" t="s">
+        <v>131</v>
+      </c>
+      <c r="K288">
+        <v>42</v>
+      </c>
+      <c r="L288">
+        <v>161473.14000000001</v>
+      </c>
+    </row>
+    <row r="289" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I289" t="s">
+        <v>118</v>
+      </c>
+      <c r="J289" t="s">
+        <v>129</v>
+      </c>
+      <c r="K289">
+        <v>95</v>
+      </c>
+      <c r="L289">
+        <v>99012.54</v>
+      </c>
+    </row>
+    <row r="290" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I290" t="s">
+        <v>116</v>
+      </c>
+      <c r="J290" t="s">
+        <v>130</v>
+      </c>
+      <c r="K290">
+        <v>101</v>
+      </c>
+      <c r="L290">
+        <v>10151.280000000001</v>
+      </c>
+    </row>
+    <row r="291" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I291" t="s">
+        <v>116</v>
+      </c>
+      <c r="J291" t="s">
+        <v>129</v>
+      </c>
+      <c r="K291">
+        <v>14</v>
+      </c>
+      <c r="L291">
+        <v>38116.71</v>
+      </c>
+    </row>
+    <row r="292" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I292" t="s">
+        <v>118</v>
+      </c>
+      <c r="J292" t="s">
+        <v>129</v>
+      </c>
+      <c r="K292">
+        <v>53</v>
+      </c>
+      <c r="L292">
+        <v>168959.04</v>
+      </c>
+    </row>
+    <row r="293" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I293" t="s">
+        <v>117</v>
+      </c>
+      <c r="J293" t="s">
+        <v>129</v>
+      </c>
+      <c r="K293">
+        <v>4</v>
+      </c>
+      <c r="L293">
+        <v>367215.37</v>
+      </c>
+    </row>
+    <row r="294" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I294" t="s">
+        <v>115</v>
+      </c>
+      <c r="J294" t="s">
+        <v>129</v>
+      </c>
+      <c r="K294">
+        <v>18</v>
+      </c>
+      <c r="L294">
+        <v>675155.83</v>
+      </c>
+    </row>
+    <row r="295" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I295" t="s">
+        <v>115</v>
+      </c>
+      <c r="J295" t="s">
+        <v>129</v>
+      </c>
+      <c r="K295">
+        <v>26</v>
+      </c>
+      <c r="L295">
+        <v>215088.3</v>
+      </c>
+    </row>
+    <row r="296" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I296" t="s">
+        <v>115</v>
+      </c>
+      <c r="J296" t="s">
+        <v>130</v>
+      </c>
+      <c r="K296">
+        <v>46</v>
+      </c>
+      <c r="L296">
+        <v>370597.54</v>
+      </c>
+    </row>
+    <row r="297" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I297" t="s">
+        <v>118</v>
+      </c>
+      <c r="J297" t="s">
+        <v>131</v>
+      </c>
+      <c r="K297">
+        <v>47</v>
+      </c>
+      <c r="L297">
+        <v>145991.97</v>
+      </c>
+    </row>
+    <row r="298" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I298" t="s">
+        <v>117</v>
+      </c>
+      <c r="J298" t="s">
+        <v>129</v>
+      </c>
+      <c r="K298">
+        <v>52</v>
+      </c>
+      <c r="L298">
+        <v>5164.7700000000004</v>
+      </c>
+    </row>
+    <row r="299" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I299" t="s">
+        <v>117</v>
+      </c>
+      <c r="J299" t="s">
+        <v>129</v>
+      </c>
+      <c r="K299">
+        <v>53</v>
+      </c>
+      <c r="L299">
+        <v>16639.509999999998</v>
+      </c>
+    </row>
+    <row r="300" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I300" t="s">
+        <v>118</v>
+      </c>
+      <c r="J300" t="s">
+        <v>129</v>
+      </c>
+      <c r="K300">
+        <v>61</v>
+      </c>
+      <c r="L300">
+        <v>205541.14</v>
+      </c>
+    </row>
+    <row r="301" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I301" t="s">
+        <v>116</v>
+      </c>
+      <c r="J301" t="s">
+        <v>131</v>
+      </c>
+      <c r="K301">
+        <v>67</v>
+      </c>
+      <c r="L301">
+        <v>68453.59</v>
+      </c>
+    </row>
+    <row r="302" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I302" t="s">
+        <v>115</v>
+      </c>
+      <c r="J302" t="s">
+        <v>129</v>
+      </c>
+      <c r="K302">
+        <v>80</v>
+      </c>
+      <c r="L302">
+        <v>92607.48</v>
+      </c>
+    </row>
+    <row r="303" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I303" t="s">
+        <v>115</v>
+      </c>
+      <c r="J303" t="s">
+        <v>129</v>
+      </c>
+      <c r="K303">
+        <v>82</v>
+      </c>
+      <c r="L303">
+        <v>199278.03</v>
+      </c>
+    </row>
+    <row r="304" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I304" t="s">
+        <v>115</v>
+      </c>
+      <c r="J304" t="s">
+        <v>129</v>
+      </c>
+      <c r="K304">
+        <v>84</v>
+      </c>
+      <c r="L304">
+        <v>172200.78</v>
+      </c>
+    </row>
+    <row r="305" spans="9:12" x14ac:dyDescent="0.25">
+      <c r="I305" t="s">
+        <v>115</v>
+      </c>
+      <c r="J305" t="s">
+        <v>131</v>
+      </c>
+      <c r="K305">
+        <v>87</v>
+      </c>
+      <c r="L305">
+        <v>352861.11</v>
+      </c>
+    </row>
+    <row r="306" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I306" t="s">
+        <v>117</v>
+      </c>
+      <c r="J306" t="s">
+        <v>129</v>
+      </c>
+      <c r="K306">
+        <v>92</v>
+      </c>
+      <c r="L306">
+        <v>295197.53999999998</v>
+      </c>
+    </row>
+    <row r="307" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I307" t="s">
+        <v>117</v>
+      </c>
+      <c r="J307" t="s">
+        <v>129</v>
+      </c>
+      <c r="K307">
+        <v>40</v>
+      </c>
+      <c r="L307">
+        <v>136368.39000000001</v>
+      </c>
+    </row>
+    <row r="308" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I308" t="s">
+        <v>115</v>
+      </c>
+      <c r="J308" t="s">
+        <v>129</v>
+      </c>
+      <c r="K308">
+        <v>89</v>
+      </c>
+      <c r="L308">
+        <v>240254.87</v>
+      </c>
+    </row>
+    <row r="309" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I309" t="s">
+        <v>115</v>
+      </c>
+      <c r="J309" t="s">
+        <v>130</v>
+      </c>
+      <c r="K309">
+        <v>105</v>
+      </c>
+      <c r="L309">
+        <v>117383.33</v>
+      </c>
+    </row>
+    <row r="310" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I310" t="s">
+        <v>117</v>
+      </c>
+      <c r="J310" t="s">
+        <v>129</v>
+      </c>
+      <c r="K310">
+        <v>71</v>
+      </c>
+      <c r="L310">
+        <v>79199.25</v>
+      </c>
+    </row>
+    <row r="311" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I311" t="s">
+        <v>118</v>
+      </c>
+      <c r="J311" t="s">
+        <v>129</v>
+      </c>
+      <c r="K311">
+        <v>58</v>
+      </c>
+      <c r="L311">
+        <v>143148.10999999999</v>
+      </c>
+    </row>
+    <row r="312" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I312" t="s">
+        <v>117</v>
+      </c>
+      <c r="J312" t="s">
+        <v>129</v>
+      </c>
+      <c r="K312">
+        <v>73</v>
+      </c>
+      <c r="L312">
+        <v>170948.7</v>
+      </c>
+    </row>
+    <row r="313" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I313" t="s">
+        <v>118</v>
+      </c>
+      <c r="J313" t="s">
+        <v>129</v>
+      </c>
+      <c r="K313">
+        <v>15</v>
+      </c>
+      <c r="L313">
+        <v>150478.10999999999</v>
+      </c>
+    </row>
+    <row r="314" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I314" t="s">
+        <v>118</v>
+      </c>
+      <c r="J314" t="s">
+        <v>130</v>
+      </c>
+      <c r="K314">
+        <v>78</v>
+      </c>
+      <c r="L314">
+        <v>637154.63</v>
+      </c>
+    </row>
+    <row r="315" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I315" t="s">
+        <v>116</v>
+      </c>
+      <c r="J315" t="s">
+        <v>131</v>
+      </c>
+      <c r="K315">
+        <v>31</v>
+      </c>
+      <c r="L315">
+        <v>134358.37</v>
+      </c>
+    </row>
+    <row r="316" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I316" t="s">
+        <v>115</v>
+      </c>
+      <c r="J316" t="s">
+        <v>129</v>
+      </c>
+      <c r="K316">
+        <v>65</v>
+      </c>
+      <c r="L316">
+        <v>243447.75</v>
+      </c>
+    </row>
+    <row r="317" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I317" t="s">
+        <v>118</v>
+      </c>
+      <c r="J317" t="s">
+        <v>130</v>
+      </c>
+      <c r="K317">
+        <v>10</v>
+      </c>
+      <c r="L317">
+        <v>78840.87</v>
+      </c>
+    </row>
+    <row r="318" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I318" t="s">
+        <v>117</v>
+      </c>
+      <c r="J318" t="s">
+        <v>129</v>
+      </c>
+      <c r="K318">
+        <v>34</v>
+      </c>
+      <c r="L318">
+        <v>99416.320000000007</v>
+      </c>
+    </row>
+    <row r="319" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I319" t="s">
+        <v>117</v>
+      </c>
+      <c r="J319" t="s">
+        <v>131</v>
+      </c>
+      <c r="K319">
+        <v>97</v>
+      </c>
+      <c r="L319">
+        <v>6794.43</v>
+      </c>
+    </row>
+    <row r="320" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I320" t="s">
+        <v>118</v>
+      </c>
+      <c r="J320" t="s">
+        <v>131</v>
+      </c>
+      <c r="K320">
+        <v>87</v>
+      </c>
+      <c r="L320">
+        <v>67053.84</v>
+      </c>
+    </row>
+    <row r="321" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I321" t="s">
+        <v>118</v>
+      </c>
+      <c r="J321" t="s">
+        <v>129</v>
+      </c>
+      <c r="K321">
+        <v>2</v>
+      </c>
+      <c r="L321">
+        <v>90239.55</v>
+      </c>
+    </row>
+    <row r="322" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I322" t="s">
+        <v>115</v>
+      </c>
+      <c r="J322" t="s">
+        <v>129</v>
+      </c>
+      <c r="K322">
+        <v>61</v>
+      </c>
+      <c r="L322">
+        <v>75464.100000000006</v>
+      </c>
+    </row>
+    <row r="323" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I323" t="s">
+        <v>115</v>
+      </c>
+      <c r="J323" t="s">
+        <v>129</v>
+      </c>
+      <c r="K323">
+        <v>99</v>
+      </c>
+      <c r="L323">
+        <v>242326.79</v>
+      </c>
+    </row>
+    <row r="324" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I324" t="s">
+        <v>115</v>
+      </c>
+      <c r="J324" t="s">
+        <v>129</v>
+      </c>
+      <c r="K324">
+        <v>4</v>
+      </c>
+      <c r="L324">
+        <v>191471.04</v>
+      </c>
+    </row>
+    <row r="325" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I325" t="s">
+        <v>115</v>
+      </c>
+      <c r="J325" t="s">
+        <v>129</v>
+      </c>
+      <c r="K325">
+        <v>19</v>
+      </c>
+      <c r="L325">
+        <v>351547.05</v>
+      </c>
+    </row>
+    <row r="326" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
+      <c r="I326" t="s">
+        <v>116</v>
+      </c>
+      <c r="J326" t="s">
+        <v>129</v>
+      </c>
+      <c r="K326">
+        <v>36</v>
+      </c>
+      <c r="L326">
+        <v>73122.66</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView showGridLines="0" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3879,15 +9305,121 @@
         <v>12</v>
       </c>
     </row>
+    <row r="7" spans="1:5" ht="287.25" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="A9" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A10" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D10"/>
+      <c r="E10" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="E13" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="E14" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A16" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+      <c r="A17" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E5" r:id="rId1" location=":~:text=What%20is%20Package%20in%20Oracle,that%20can%20be%20used%20later."/>
     <hyperlink ref="E4" r:id="rId2"/>
+    <hyperlink ref="E7" r:id="rId3"/>
+    <hyperlink ref="E10" r:id="rId4"/>
+    <hyperlink ref="E11" r:id="rId5"/>
+    <hyperlink ref="E12" r:id="rId6"/>
+    <hyperlink ref="E13" r:id="rId7"/>
+    <hyperlink ref="E14" r:id="rId8"/>
+    <hyperlink ref="E15" r:id="rId9"/>
+    <hyperlink ref="E17" r:id="rId10"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId11"/>
   <tableParts count="1">
-    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId12"/>
   </tableParts>
 </worksheet>
 </file>
@@ -3896,7 +9428,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A32" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -3911,10 +9443,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="8" t="s">
+      <c r="A1" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="8"/>
+      <c r="B1" s="9"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -4152,22 +9684,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:C3"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="A30" sqref="A30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="68" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -4197,66 +9717,367 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:C5"/>
+  <dimension ref="A3:E15"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView showGridLines="0" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="68" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="68" style="7"/>
-    <col min="3" max="3" width="65.140625" style="7" customWidth="1"/>
-    <col min="4" max="16384" width="68" style="7"/>
+    <col min="1" max="1" width="68" style="7"/>
+    <col min="2" max="2" width="44.140625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="68" style="7"/>
+    <col min="4" max="4" width="65.140625" style="7" customWidth="1"/>
+    <col min="5" max="16384" width="68" style="7"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="D3" s="7" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" ht="181.5" x14ac:dyDescent="0.25">
+      <c r="E3" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="181.5" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="C4" s="7" t="s">
+      <c r="D4" s="7" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" ht="181.5" x14ac:dyDescent="0.25">
+      <c r="E4" s="8"/>
+    </row>
+    <row r="5" spans="1:5" ht="181.5" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="7" t="s">
+      <c r="C5" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="C5" s="7" t="s">
+      <c r="D5" s="7" t="s">
         <v>80</v>
       </c>
+      <c r="E5" s="8"/>
+    </row>
+    <row r="6" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
+      <c r="A6" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>125</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="33" x14ac:dyDescent="0.25">
+      <c r="A7" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="E7" s="8"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E8" s="8"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E9" s="8"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E10" s="8"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E11" s="8"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E12" s="8"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E13" s="8"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E14" s="8"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E15" s="8"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E6" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A3:E15"/>
+  <sheetViews>
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="68" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="36.140625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="73.28515625" style="8" customWidth="1"/>
+    <col min="4" max="4" width="68.28515625" style="8" customWidth="1"/>
+    <col min="5" max="16384" width="68" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="132" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="115.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="E5" s="10"/>
+    </row>
+    <row r="6" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="E6" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="82.5" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="E7" s="10"/>
+    </row>
+    <row r="8" spans="1:5" ht="231" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="E8" s="10"/>
+    </row>
+    <row r="9" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="C9" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>105</v>
+      </c>
+      <c r="E9" s="10"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E10" s="10"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E11" s="10"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E12" s="10"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E13" s="10"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E14" s="10"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E15" s="10"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="E6" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C7"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="68" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="2" width="68" style="8"/>
+    <col min="3" max="3" width="46.28515625" style="8" customWidth="1"/>
+    <col min="4" max="16384" width="68" style="8"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="99" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="115.5" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="B5" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="99" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="B6" s="8" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="264" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="B7" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <drawing r:id="rId3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId4"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C5"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="68" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>

--- a/Document/Oracle/Oracle.xlsx
+++ b/Document/Oracle/Oracle.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="30930" windowHeight="16890" activeTab="1"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="30930" windowHeight="16890" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="Fackage" sheetId="9" r:id="rId1"/>
@@ -16,7 +16,7 @@
     <sheet name="DataSample" sheetId="11" r:id="rId7"/>
     <sheet name="GroupBy" sheetId="12" r:id="rId8"/>
     <sheet name="Functio2n" sheetId="3" r:id="rId9"/>
-    <sheet name="Sheet4" sheetId="13" r:id="rId10"/>
+    <sheet name="DataTypeToNet" sheetId="13" r:id="rId10"/>
     <sheet name="Sheet5" sheetId="14" r:id="rId11"/>
   </sheets>
   <calcPr calcId="162913"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="799" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="150">
   <si>
     <t>Name</t>
   </si>
@@ -2929,18 +2929,6 @@
     status;</t>
   </si>
   <si>
-    <t>CPU</t>
-  </si>
-  <si>
-    <t>Mother Board</t>
-  </si>
-  <si>
-    <t>Storage</t>
-  </si>
-  <si>
-    <t>Video Card</t>
-  </si>
-  <si>
     <t>Group sets</t>
   </si>
   <si>
@@ -3139,45 +3127,6 @@
     <t>Lấy thông tin ngày tháng năm trong kiểu Date</t>
   </si>
   <si>
-    <t>Shipped</t>
-  </si>
-  <si>
-    <t>Pending</t>
-  </si>
-  <si>
-    <t>Canceled</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> STATUS</t>
-  </si>
-  <si>
-    <t>ORDER_ID,</t>
-  </si>
-  <si>
-    <t>ORDER_VALUE</t>
-  </si>
-  <si>
-    <t>CATEGORY_NAME</t>
-  </si>
-  <si>
-    <t>CANCELED_ORDERS</t>
-  </si>
-  <si>
-    <t>CANCELED_SALES</t>
-  </si>
-  <si>
-    <t>PENDING_ORDERS</t>
-  </si>
-  <si>
-    <t>PENDING_SALES</t>
-  </si>
-  <si>
-    <t>SHIPPED_ORDERS</t>
-  </si>
-  <si>
-    <t>SHIPPED_SALES</t>
-  </si>
-  <si>
     <t>Tablespace</t>
   </si>
   <si>
@@ -3325,6 +3274,9 @@
   </si>
   <si>
     <t>https://www.oracletutorial.com/plsql-tutorial/plsql-cursor/</t>
+  </si>
+  <si>
+    <t>https://docs.oracle.com/en/database/oracle/oracle-data-access-components/19.3/odpnt/EFCoreREDataTypeMapping.html#GUID-4FF3A9A3-AE49-431B-A4FB-31F8C53FCCF5</t>
   </si>
 </sst>
 </file>
@@ -3442,13 +3394,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -4405,72 +4357,48 @@
   <autoFilter ref="A3:E15"/>
   <tableColumns count="5">
     <tableColumn id="1" name="Name" dataDxfId="21"/>
-    <tableColumn id="5" name="Description" dataDxfId="0"/>
-    <tableColumn id="2" name="Syntax" dataDxfId="20"/>
-    <tableColumn id="3" name="Exmaple" dataDxfId="19"/>
-    <tableColumn id="4" name="Link" dataDxfId="1"/>
+    <tableColumn id="5" name="Description" dataDxfId="20"/>
+    <tableColumn id="2" name="Syntax" dataDxfId="19"/>
+    <tableColumn id="3" name="Exmaple" dataDxfId="18"/>
+    <tableColumn id="4" name="Link" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table38" displayName="Table38" ref="A3:E15" totalsRowShown="0" headerRowDxfId="13" dataDxfId="12">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="7" name="Table38" displayName="Table38" ref="A3:E15" totalsRowShown="0" headerRowDxfId="16" dataDxfId="15">
   <autoFilter ref="A3:E15"/>
   <tableColumns count="5">
-    <tableColumn id="1" name="Name" dataDxfId="11"/>
-    <tableColumn id="5" name="Note" dataDxfId="7"/>
-    <tableColumn id="2" name="Syntax" dataDxfId="10"/>
-    <tableColumn id="3" name="Example" dataDxfId="9"/>
-    <tableColumn id="4" name="link" dataDxfId="8"/>
+    <tableColumn id="1" name="Name" dataDxfId="14"/>
+    <tableColumn id="5" name="Note" dataDxfId="13"/>
+    <tableColumn id="2" name="Syntax" dataDxfId="12"/>
+    <tableColumn id="3" name="Example" dataDxfId="11"/>
+    <tableColumn id="4" name="link" dataDxfId="10"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table39" displayName="Table39" ref="A3:C15" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="8" name="Table39" displayName="Table39" ref="A3:C15" totalsRowShown="0" headerRowDxfId="9" dataDxfId="8">
   <autoFilter ref="A3:C15"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Name" dataDxfId="4"/>
-    <tableColumn id="2" name="Syntax" dataDxfId="3"/>
-    <tableColumn id="3" name="Example" dataDxfId="2"/>
+    <tableColumn id="1" name="Name" dataDxfId="7"/>
+    <tableColumn id="2" name="Syntax" dataDxfId="6"/>
+    <tableColumn id="3" name="Example" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A3:C15" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="3" name="Table3" displayName="Table3" ref="A3:C15" totalsRowShown="0" headerRowDxfId="4" dataDxfId="3">
   <autoFilter ref="A3:C15"/>
   <tableColumns count="3">
-    <tableColumn id="1" name="Name" dataDxfId="16"/>
-    <tableColumn id="2" name="Description" dataDxfId="15"/>
-    <tableColumn id="3" name="Note" dataDxfId="14"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="11" name="Table11" displayName="Table11" ref="I21:L326" totalsRowShown="0">
-  <autoFilter ref="I21:L326">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="CPU"/>
-      </filters>
-    </filterColumn>
-    <filterColumn colId="1">
-      <filters>
-        <filter val="Canceled"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <tableColumns count="4">
-    <tableColumn id="1" name="CATEGORY_NAME"/>
-    <tableColumn id="2" name=" STATUS"/>
-    <tableColumn id="3" name="ORDER_ID,"/>
-    <tableColumn id="4" name="ORDER_VALUE"/>
+    <tableColumn id="1" name="Name" dataDxfId="2"/>
+    <tableColumn id="2" name="Description" dataDxfId="1"/>
+    <tableColumn id="3" name="Note" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4742,7 +4670,7 @@
   <dimension ref="A3:C4"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="68" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -4783,10 +4711,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A13:L326"/>
+  <dimension ref="A2"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L52" sqref="L52:L305"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4807,4410 +4735,13 @@
     <col min="19" max="19" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>135</v>
-      </c>
-      <c r="B13" t="s">
-        <v>136</v>
-      </c>
-      <c r="C13" t="s">
-        <v>137</v>
-      </c>
-      <c r="D13" t="s">
-        <v>138</v>
-      </c>
-      <c r="E13" t="s">
-        <v>139</v>
-      </c>
-      <c r="F13" t="s">
-        <v>140</v>
-      </c>
-      <c r="G13" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>115</v>
-      </c>
-      <c r="B14">
-        <v>13</v>
-      </c>
-      <c r="C14">
-        <v>4122040.7</v>
-      </c>
-      <c r="D14">
-        <v>12</v>
-      </c>
-      <c r="E14">
-        <v>3647918.1</v>
-      </c>
-      <c r="F14">
-        <v>51</v>
-      </c>
-      <c r="G14">
-        <v>12272034.23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>116</v>
-      </c>
-      <c r="B15">
-        <v>12</v>
-      </c>
-      <c r="C15">
-        <v>679121.39</v>
-      </c>
-      <c r="D15">
-        <v>12</v>
-      </c>
-      <c r="E15">
-        <v>872381.21</v>
-      </c>
-      <c r="F15">
-        <v>53</v>
-      </c>
-      <c r="G15">
-        <v>3366915.55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>117</v>
-      </c>
-      <c r="B16">
-        <v>14</v>
-      </c>
-      <c r="C16">
-        <v>3023747.6</v>
-      </c>
-      <c r="D16">
-        <v>16</v>
-      </c>
-      <c r="E16">
-        <v>2271252.2799999998</v>
-      </c>
-      <c r="F16">
-        <v>63</v>
-      </c>
-      <c r="G16">
-        <v>8699160.9600000009</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>118</v>
-      </c>
-      <c r="B17">
-        <v>9</v>
-      </c>
-      <c r="C17">
-        <v>1677597.4</v>
-      </c>
-      <c r="D17">
-        <v>11</v>
-      </c>
-      <c r="E17">
-        <v>3040231.59</v>
-      </c>
-      <c r="F17">
-        <v>39</v>
-      </c>
-      <c r="G17">
-        <v>9069691.6300000008</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="I21" t="s">
-        <v>135</v>
-      </c>
-      <c r="J21" t="s">
-        <v>132</v>
-      </c>
-      <c r="K21" t="s">
-        <v>133</v>
-      </c>
-      <c r="L21" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I22" t="s">
-        <v>117</v>
-      </c>
-      <c r="J22" t="s">
-        <v>129</v>
-      </c>
-      <c r="K22">
-        <v>6</v>
-      </c>
-      <c r="L22">
-        <v>117330</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I23" t="s">
-        <v>116</v>
-      </c>
-      <c r="J23" t="s">
-        <v>130</v>
-      </c>
-      <c r="K23">
-        <v>10</v>
-      </c>
-      <c r="L23">
-        <v>132040.21</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I24" t="s">
-        <v>116</v>
-      </c>
-      <c r="J24" t="s">
-        <v>129</v>
-      </c>
-      <c r="K24">
-        <v>12</v>
-      </c>
-      <c r="L24">
-        <v>145741.22</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I25" t="s">
-        <v>117</v>
-      </c>
-      <c r="J25" t="s">
-        <v>129</v>
-      </c>
-      <c r="K25">
-        <v>24</v>
-      </c>
-      <c r="L25">
-        <v>212318.23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I26" t="s">
-        <v>116</v>
-      </c>
-      <c r="J26" t="s">
-        <v>129</v>
-      </c>
-      <c r="K26">
-        <v>25</v>
-      </c>
-      <c r="L26">
-        <v>73387.97</v>
-      </c>
-    </row>
-    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I27" t="s">
-        <v>117</v>
-      </c>
-      <c r="J27" t="s">
-        <v>129</v>
-      </c>
-      <c r="K27">
-        <v>37</v>
-      </c>
-      <c r="L27">
-        <v>308581.95</v>
-      </c>
-    </row>
-    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I28" t="s">
-        <v>118</v>
-      </c>
-      <c r="J28" t="s">
-        <v>129</v>
-      </c>
-      <c r="K28">
-        <v>39</v>
-      </c>
-      <c r="L28">
-        <v>256469.66</v>
-      </c>
-    </row>
-    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I29" t="s">
-        <v>116</v>
-      </c>
-      <c r="J29" t="s">
-        <v>129</v>
-      </c>
-      <c r="K29">
-        <v>58</v>
-      </c>
-      <c r="L29">
-        <v>298372.67</v>
-      </c>
-    </row>
-    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I30" t="s">
-        <v>118</v>
-      </c>
-      <c r="J30" t="s">
-        <v>131</v>
-      </c>
-      <c r="K30">
-        <v>69</v>
-      </c>
-      <c r="L30">
-        <v>272722.53999999998</v>
-      </c>
-    </row>
-    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I31" t="s">
-        <v>118</v>
-      </c>
-      <c r="J31" t="s">
-        <v>129</v>
-      </c>
-      <c r="K31">
-        <v>73</v>
-      </c>
-      <c r="L31">
-        <v>203880</v>
-      </c>
-    </row>
-    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I32" t="s">
-        <v>117</v>
-      </c>
-      <c r="J32" t="s">
-        <v>129</v>
-      </c>
-      <c r="K32">
-        <v>74</v>
-      </c>
-      <c r="L32">
-        <v>8136.36</v>
-      </c>
-    </row>
-    <row r="33" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I33" t="s">
-        <v>117</v>
-      </c>
-      <c r="J33" t="s">
-        <v>129</v>
-      </c>
-      <c r="K33">
-        <v>104</v>
-      </c>
-      <c r="L33">
-        <v>54389.26</v>
-      </c>
-    </row>
-    <row r="34" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I34" t="s">
-        <v>117</v>
-      </c>
-      <c r="J34" t="s">
-        <v>131</v>
-      </c>
-      <c r="K34">
-        <v>5</v>
-      </c>
-      <c r="L34">
-        <v>32669.55</v>
-      </c>
-    </row>
-    <row r="35" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I35" t="s">
-        <v>115</v>
-      </c>
-      <c r="J35" t="s">
-        <v>129</v>
-      </c>
-      <c r="K35">
-        <v>35</v>
-      </c>
-      <c r="L35">
-        <v>187926.79</v>
-      </c>
-    </row>
-    <row r="36" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I36" t="s">
-        <v>118</v>
-      </c>
-      <c r="J36" t="s">
-        <v>130</v>
-      </c>
-      <c r="K36">
-        <v>46</v>
-      </c>
-      <c r="L36">
-        <v>854229.79</v>
-      </c>
-    </row>
-    <row r="37" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I37" t="s">
-        <v>116</v>
-      </c>
-      <c r="J37" t="s">
-        <v>130</v>
-      </c>
-      <c r="K37">
-        <v>55</v>
-      </c>
-      <c r="L37">
-        <v>32899.300000000003</v>
-      </c>
-    </row>
-    <row r="38" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I38" t="s">
-        <v>116</v>
-      </c>
-      <c r="J38" t="s">
-        <v>129</v>
-      </c>
-      <c r="K38">
-        <v>104</v>
-      </c>
-      <c r="L38">
-        <v>34468.199999999997</v>
-      </c>
-    </row>
-    <row r="39" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I39" t="s">
-        <v>117</v>
-      </c>
-      <c r="J39" t="s">
-        <v>131</v>
-      </c>
-      <c r="K39">
-        <v>27</v>
-      </c>
-      <c r="L39">
-        <v>302442.19</v>
-      </c>
-    </row>
-    <row r="40" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I40" t="s">
-        <v>118</v>
-      </c>
-      <c r="J40" t="s">
-        <v>129</v>
-      </c>
-      <c r="K40">
-        <v>43</v>
-      </c>
-      <c r="L40">
-        <v>632706.04</v>
-      </c>
-    </row>
-    <row r="41" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I41" t="s">
-        <v>116</v>
-      </c>
-      <c r="J41" t="s">
-        <v>131</v>
-      </c>
-      <c r="K41">
-        <v>22</v>
-      </c>
-      <c r="L41">
-        <v>14079.56</v>
-      </c>
-    </row>
-    <row r="42" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I42" t="s">
-        <v>116</v>
-      </c>
-      <c r="J42" t="s">
-        <v>129</v>
-      </c>
-      <c r="K42">
-        <v>24</v>
-      </c>
-      <c r="L42">
-        <v>43495.87</v>
-      </c>
-    </row>
-    <row r="43" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I43" t="s">
-        <v>115</v>
-      </c>
-      <c r="J43" t="s">
-        <v>129</v>
-      </c>
-      <c r="K43">
-        <v>60</v>
-      </c>
-      <c r="L43">
-        <v>454329.21</v>
-      </c>
-    </row>
-    <row r="44" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I44" t="s">
-        <v>115</v>
-      </c>
-      <c r="J44" t="s">
-        <v>129</v>
-      </c>
-      <c r="K44">
-        <v>94</v>
-      </c>
-      <c r="L44">
-        <v>194574.91</v>
-      </c>
-    </row>
-    <row r="45" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I45" t="s">
-        <v>116</v>
-      </c>
-      <c r="J45" t="s">
-        <v>129</v>
-      </c>
-      <c r="K45">
-        <v>3</v>
-      </c>
-      <c r="L45">
-        <v>174956.64</v>
-      </c>
-    </row>
-    <row r="46" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I46" t="s">
-        <v>118</v>
-      </c>
-      <c r="J46" t="s">
-        <v>131</v>
-      </c>
-      <c r="K46">
-        <v>5</v>
-      </c>
-      <c r="L46">
-        <v>70846.36</v>
-      </c>
-    </row>
-    <row r="47" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I47" t="s">
-        <v>116</v>
-      </c>
-      <c r="J47" t="s">
-        <v>131</v>
-      </c>
-      <c r="K47">
-        <v>47</v>
-      </c>
-      <c r="L47">
-        <v>34806.54</v>
-      </c>
-    </row>
-    <row r="48" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I48" t="s">
-        <v>118</v>
-      </c>
-      <c r="J48" t="s">
-        <v>129</v>
-      </c>
-      <c r="K48">
-        <v>84</v>
-      </c>
-      <c r="L48">
-        <v>202157.34</v>
-      </c>
-    </row>
-    <row r="49" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I49" t="s">
-        <v>116</v>
-      </c>
-      <c r="J49" t="s">
-        <v>129</v>
-      </c>
-      <c r="K49">
-        <v>99</v>
-      </c>
-      <c r="L49">
-        <v>43149.4</v>
-      </c>
-    </row>
-    <row r="50" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I50" t="s">
-        <v>118</v>
-      </c>
-      <c r="J50" t="s">
-        <v>129</v>
-      </c>
-      <c r="K50">
-        <v>98</v>
-      </c>
-      <c r="L50">
-        <v>53614</v>
-      </c>
-    </row>
-    <row r="51" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I51" t="s">
-        <v>117</v>
-      </c>
-      <c r="J51" t="s">
-        <v>131</v>
-      </c>
-      <c r="K51">
-        <v>70</v>
-      </c>
-      <c r="L51">
-        <v>603023.31999999995</v>
-      </c>
-    </row>
-    <row r="52" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I52" t="s">
-        <v>115</v>
-      </c>
-      <c r="J52" t="s">
-        <v>131</v>
-      </c>
-      <c r="K52">
-        <v>97</v>
-      </c>
-      <c r="L52">
-        <v>171564.36</v>
-      </c>
-    </row>
-    <row r="53" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I53" t="s">
-        <v>118</v>
-      </c>
-      <c r="J53" t="s">
-        <v>129</v>
-      </c>
-      <c r="K53">
-        <v>18</v>
-      </c>
-      <c r="L53">
-        <v>78278.97</v>
-      </c>
-    </row>
-    <row r="54" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I54" t="s">
-        <v>115</v>
-      </c>
-      <c r="J54" t="s">
-        <v>129</v>
-      </c>
-      <c r="K54">
-        <v>92</v>
-      </c>
-      <c r="L54">
-        <v>168350</v>
-      </c>
-    </row>
-    <row r="55" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I55" t="s">
-        <v>116</v>
-      </c>
-      <c r="J55" t="s">
-        <v>129</v>
-      </c>
-      <c r="K55">
-        <v>60</v>
-      </c>
-      <c r="L55">
-        <v>94754</v>
-      </c>
-    </row>
-    <row r="56" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I56" t="s">
-        <v>116</v>
-      </c>
-      <c r="J56" t="s">
-        <v>129</v>
-      </c>
-      <c r="K56">
-        <v>77</v>
-      </c>
-      <c r="L56">
-        <v>81339.320000000007</v>
-      </c>
-    </row>
-    <row r="57" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I57" t="s">
-        <v>118</v>
-      </c>
-      <c r="J57" t="s">
-        <v>129</v>
-      </c>
-      <c r="K57">
-        <v>8</v>
-      </c>
-      <c r="L57">
-        <v>127667.68</v>
-      </c>
-    </row>
-    <row r="58" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I58" t="s">
-        <v>117</v>
-      </c>
-      <c r="J58" t="s">
-        <v>129</v>
-      </c>
-      <c r="K58">
-        <v>11</v>
-      </c>
-      <c r="L58">
-        <v>15996.28</v>
-      </c>
-    </row>
-    <row r="59" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I59" t="s">
-        <v>118</v>
-      </c>
-      <c r="J59" t="s">
-        <v>131</v>
-      </c>
-      <c r="K59">
-        <v>22</v>
-      </c>
-      <c r="L59">
-        <v>284854.71999999997</v>
-      </c>
-    </row>
-    <row r="60" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I60" t="s">
-        <v>115</v>
-      </c>
-      <c r="J60" t="s">
-        <v>131</v>
-      </c>
-      <c r="K60">
-        <v>27</v>
-      </c>
-      <c r="L60">
-        <v>733735.23</v>
-      </c>
-    </row>
-    <row r="61" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I61" t="s">
-        <v>117</v>
-      </c>
-      <c r="J61" t="s">
-        <v>131</v>
-      </c>
-      <c r="K61">
-        <v>31</v>
-      </c>
-      <c r="L61">
-        <v>80206.759999999995</v>
-      </c>
-    </row>
-    <row r="62" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I62" t="s">
-        <v>118</v>
-      </c>
-      <c r="J62" t="s">
-        <v>129</v>
-      </c>
-      <c r="K62">
-        <v>35</v>
-      </c>
-      <c r="L62">
-        <v>165617.76</v>
-      </c>
-    </row>
-    <row r="63" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I63" t="s">
-        <v>116</v>
-      </c>
-      <c r="J63" t="s">
-        <v>131</v>
-      </c>
-      <c r="K63">
-        <v>42</v>
-      </c>
-      <c r="L63">
-        <v>61308.25</v>
-      </c>
-    </row>
-    <row r="64" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I64" t="s">
-        <v>116</v>
-      </c>
-      <c r="J64" t="s">
-        <v>129</v>
-      </c>
-      <c r="K64">
-        <v>49</v>
-      </c>
-      <c r="L64">
-        <v>37282.959999999999</v>
-      </c>
-    </row>
-    <row r="65" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I65" t="s">
-        <v>116</v>
-      </c>
-      <c r="J65" t="s">
-        <v>131</v>
-      </c>
-      <c r="K65">
-        <v>56</v>
-      </c>
-      <c r="L65">
-        <v>30821</v>
-      </c>
-    </row>
-    <row r="66" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I66" t="s">
-        <v>117</v>
-      </c>
-      <c r="J66" t="s">
-        <v>129</v>
-      </c>
-      <c r="K66">
-        <v>60</v>
-      </c>
-      <c r="L66">
-        <v>377333.3</v>
-      </c>
-    </row>
-    <row r="67" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I67" t="s">
-        <v>115</v>
-      </c>
-      <c r="J67" t="s">
-        <v>130</v>
-      </c>
-      <c r="K67">
-        <v>78</v>
-      </c>
-      <c r="L67">
-        <v>469667.15</v>
-      </c>
-    </row>
-    <row r="68" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I68" t="s">
-        <v>115</v>
-      </c>
-      <c r="J68" t="s">
-        <v>130</v>
-      </c>
-      <c r="K68">
-        <v>85</v>
-      </c>
-      <c r="L68">
-        <v>67140.3</v>
-      </c>
-    </row>
-    <row r="69" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I69" t="s">
-        <v>116</v>
-      </c>
-      <c r="J69" t="s">
-        <v>129</v>
-      </c>
-      <c r="K69">
-        <v>89</v>
-      </c>
-      <c r="L69">
-        <v>82258.850000000006</v>
-      </c>
-    </row>
-    <row r="70" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I70" t="s">
-        <v>117</v>
-      </c>
-      <c r="J70" t="s">
-        <v>129</v>
-      </c>
-      <c r="K70">
-        <v>94</v>
-      </c>
-      <c r="L70">
-        <v>7690.16</v>
-      </c>
-    </row>
-    <row r="71" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I71" t="s">
-        <v>115</v>
-      </c>
-      <c r="J71" t="s">
-        <v>129</v>
-      </c>
-      <c r="K71">
-        <v>95</v>
-      </c>
-      <c r="L71">
-        <v>320523.24</v>
-      </c>
-    </row>
-    <row r="72" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I72" t="s">
-        <v>117</v>
-      </c>
-      <c r="J72" t="s">
-        <v>129</v>
-      </c>
-      <c r="K72">
-        <v>9</v>
-      </c>
-      <c r="L72">
-        <v>171090</v>
-      </c>
-    </row>
-    <row r="73" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I73" t="s">
-        <v>117</v>
-      </c>
-      <c r="J73" t="s">
-        <v>130</v>
-      </c>
-      <c r="K73">
-        <v>10</v>
-      </c>
-      <c r="L73">
-        <v>219338.46</v>
-      </c>
-    </row>
-    <row r="74" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I74" t="s">
-        <v>116</v>
-      </c>
-      <c r="J74" t="s">
-        <v>131</v>
-      </c>
-      <c r="K74">
-        <v>27</v>
-      </c>
-      <c r="L74">
-        <v>48694.07</v>
-      </c>
-    </row>
-    <row r="75" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I75" t="s">
-        <v>117</v>
-      </c>
-      <c r="J75" t="s">
-        <v>131</v>
-      </c>
-      <c r="K75">
-        <v>28</v>
-      </c>
-      <c r="L75">
-        <v>253437.41</v>
-      </c>
-    </row>
-    <row r="76" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I76" t="s">
-        <v>115</v>
-      </c>
-      <c r="J76" t="s">
-        <v>129</v>
-      </c>
-      <c r="K76">
-        <v>29</v>
-      </c>
-      <c r="L76">
-        <v>300858.23</v>
-      </c>
-    </row>
-    <row r="77" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I77" t="s">
-        <v>115</v>
-      </c>
-      <c r="J77" t="s">
-        <v>131</v>
-      </c>
-      <c r="K77">
-        <v>31</v>
-      </c>
-      <c r="L77">
-        <v>91130.53</v>
-      </c>
-    </row>
-    <row r="78" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I78" t="s">
-        <v>115</v>
-      </c>
-      <c r="J78" t="s">
-        <v>131</v>
-      </c>
-      <c r="K78">
-        <v>66</v>
-      </c>
-      <c r="L78">
-        <v>131688.48000000001</v>
-      </c>
-    </row>
-    <row r="79" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I79" t="s">
-        <v>116</v>
-      </c>
-      <c r="J79" t="s">
-        <v>129</v>
-      </c>
-      <c r="K79">
-        <v>75</v>
-      </c>
-      <c r="L79">
-        <v>45434.15</v>
-      </c>
-    </row>
-    <row r="80" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I80" t="s">
-        <v>116</v>
-      </c>
-      <c r="J80" t="s">
-        <v>130</v>
-      </c>
-      <c r="K80">
-        <v>90</v>
-      </c>
-      <c r="L80">
-        <v>105279.47</v>
-      </c>
-    </row>
-    <row r="81" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I81" t="s">
-        <v>116</v>
-      </c>
-      <c r="J81" t="s">
-        <v>129</v>
-      </c>
-      <c r="K81">
-        <v>95</v>
-      </c>
-      <c r="L81">
-        <v>63713.07</v>
-      </c>
-    </row>
-    <row r="82" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I82" t="s">
-        <v>117</v>
-      </c>
-      <c r="J82" t="s">
-        <v>129</v>
-      </c>
-      <c r="K82">
-        <v>25</v>
-      </c>
-      <c r="L82">
-        <v>60759.06</v>
-      </c>
-    </row>
-    <row r="83" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I83" t="s">
-        <v>115</v>
-      </c>
-      <c r="J83" t="s">
-        <v>129</v>
-      </c>
-      <c r="K83">
-        <v>25</v>
-      </c>
-      <c r="L83">
-        <v>262073.55</v>
-      </c>
-    </row>
-    <row r="84" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I84" t="s">
-        <v>117</v>
-      </c>
-      <c r="J84" t="s">
-        <v>131</v>
-      </c>
-      <c r="K84">
-        <v>67</v>
-      </c>
-      <c r="L84">
-        <v>168723.59</v>
-      </c>
-    </row>
-    <row r="85" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I85" t="s">
-        <v>117</v>
-      </c>
-      <c r="J85" t="s">
-        <v>130</v>
-      </c>
-      <c r="K85">
-        <v>68</v>
-      </c>
-      <c r="L85">
-        <v>137875.03</v>
-      </c>
-    </row>
-    <row r="86" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I86" t="s">
-        <v>116</v>
-      </c>
-      <c r="J86" t="s">
-        <v>129</v>
-      </c>
-      <c r="K86">
-        <v>82</v>
-      </c>
-      <c r="L86">
-        <v>59635.31</v>
-      </c>
-    </row>
-    <row r="87" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I87" t="s">
-        <v>116</v>
-      </c>
-      <c r="J87" t="s">
-        <v>129</v>
-      </c>
-      <c r="K87">
-        <v>34</v>
-      </c>
-      <c r="L87">
-        <v>72915.94</v>
-      </c>
-    </row>
-    <row r="88" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I88" t="s">
-        <v>117</v>
-      </c>
-      <c r="J88" t="s">
-        <v>129</v>
-      </c>
-      <c r="K88">
-        <v>95</v>
-      </c>
-      <c r="L88">
-        <v>48944</v>
-      </c>
-    </row>
-    <row r="89" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I89" t="s">
-        <v>116</v>
-      </c>
-      <c r="J89" t="s">
-        <v>129</v>
-      </c>
-      <c r="K89">
-        <v>11</v>
-      </c>
-      <c r="L89">
-        <v>23691.31</v>
-      </c>
-    </row>
-    <row r="90" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I90" t="s">
-        <v>116</v>
-      </c>
-      <c r="J90" t="s">
-        <v>129</v>
-      </c>
-      <c r="K90">
-        <v>35</v>
-      </c>
-      <c r="L90">
-        <v>23691.31</v>
-      </c>
-    </row>
-    <row r="91" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I91" t="s">
-        <v>117</v>
-      </c>
-      <c r="J91" t="s">
-        <v>129</v>
-      </c>
-      <c r="K91">
-        <v>18</v>
-      </c>
-      <c r="L91">
-        <v>4843.2</v>
-      </c>
-    </row>
-    <row r="92" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I92" t="s">
-        <v>116</v>
-      </c>
-      <c r="J92" t="s">
-        <v>129</v>
-      </c>
-      <c r="K92">
-        <v>26</v>
-      </c>
-      <c r="L92">
-        <v>10150.92</v>
-      </c>
-    </row>
-    <row r="93" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I93" t="s">
-        <v>116</v>
-      </c>
-      <c r="J93" t="s">
-        <v>131</v>
-      </c>
-      <c r="K93">
-        <v>70</v>
-      </c>
-      <c r="L93">
-        <v>62038.68</v>
-      </c>
-    </row>
-    <row r="94" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I94" t="s">
-        <v>117</v>
-      </c>
-      <c r="J94" t="s">
-        <v>129</v>
-      </c>
-      <c r="K94">
-        <v>76</v>
-      </c>
-      <c r="L94">
-        <v>334456.71000000002</v>
-      </c>
-    </row>
-    <row r="95" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I95" t="s">
-        <v>118</v>
-      </c>
-      <c r="J95" t="s">
-        <v>129</v>
-      </c>
-      <c r="K95">
-        <v>83</v>
-      </c>
-      <c r="L95">
-        <v>93396.42</v>
-      </c>
-    </row>
-    <row r="96" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I96" t="s">
-        <v>118</v>
-      </c>
-      <c r="J96" t="s">
-        <v>129</v>
-      </c>
-      <c r="K96">
-        <v>104</v>
-      </c>
-      <c r="L96">
-        <v>425650.85</v>
-      </c>
-    </row>
-    <row r="97" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I97" t="s">
-        <v>116</v>
-      </c>
-      <c r="J97" t="s">
-        <v>129</v>
-      </c>
-      <c r="K97">
-        <v>7</v>
-      </c>
-      <c r="L97">
-        <v>22570</v>
-      </c>
-    </row>
-    <row r="98" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I98" t="s">
-        <v>117</v>
-      </c>
-      <c r="J98" t="s">
-        <v>129</v>
-      </c>
-      <c r="K98">
-        <v>14</v>
-      </c>
-      <c r="L98">
-        <v>133737.82999999999</v>
-      </c>
-    </row>
-    <row r="99" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I99" t="s">
-        <v>115</v>
-      </c>
-      <c r="J99" t="s">
-        <v>130</v>
-      </c>
-      <c r="K99">
-        <v>16</v>
-      </c>
-      <c r="L99">
-        <v>377286.2</v>
-      </c>
-    </row>
-    <row r="100" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I100" t="s">
-        <v>116</v>
-      </c>
-      <c r="J100" t="s">
-        <v>129</v>
-      </c>
-      <c r="K100">
-        <v>17</v>
-      </c>
-      <c r="L100">
-        <v>14431.98</v>
-      </c>
-    </row>
-    <row r="101" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I101" t="s">
-        <v>117</v>
-      </c>
-      <c r="J101" t="s">
-        <v>130</v>
-      </c>
-      <c r="K101">
-        <v>21</v>
-      </c>
-      <c r="L101">
-        <v>282087.40000000002</v>
-      </c>
-    </row>
-    <row r="102" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I102" t="s">
-        <v>116</v>
-      </c>
-      <c r="J102" t="s">
-        <v>129</v>
-      </c>
-      <c r="K102">
-        <v>32</v>
-      </c>
-      <c r="L102">
-        <v>28038.23</v>
-      </c>
-    </row>
-    <row r="103" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I103" t="s">
-        <v>115</v>
-      </c>
-      <c r="J103" t="s">
-        <v>131</v>
-      </c>
-      <c r="K103">
-        <v>38</v>
-      </c>
-      <c r="L103">
-        <v>334132.78999999998</v>
-      </c>
-    </row>
-    <row r="104" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I104" t="s">
-        <v>116</v>
-      </c>
-      <c r="J104" t="s">
-        <v>129</v>
-      </c>
-      <c r="K104">
-        <v>62</v>
-      </c>
-      <c r="L104">
-        <v>62723.7</v>
-      </c>
-    </row>
-    <row r="105" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I105" t="s">
-        <v>115</v>
-      </c>
-      <c r="J105" t="s">
-        <v>129</v>
-      </c>
-      <c r="K105">
-        <v>63</v>
-      </c>
-      <c r="L105">
-        <v>99130.81</v>
-      </c>
-    </row>
-    <row r="106" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I106" t="s">
-        <v>115</v>
-      </c>
-      <c r="J106" t="s">
-        <v>129</v>
-      </c>
-      <c r="K106">
-        <v>64</v>
-      </c>
-      <c r="L106">
-        <v>39527.39</v>
-      </c>
-    </row>
-    <row r="107" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I107" t="s">
-        <v>117</v>
-      </c>
-      <c r="J107" t="s">
-        <v>131</v>
-      </c>
-      <c r="K107">
-        <v>66</v>
-      </c>
-      <c r="L107">
-        <v>351207.99</v>
-      </c>
-    </row>
-    <row r="108" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I108" t="s">
-        <v>117</v>
-      </c>
-      <c r="J108" t="s">
-        <v>129</v>
-      </c>
-      <c r="K108">
-        <v>77</v>
-      </c>
-      <c r="L108">
-        <v>49622.34</v>
-      </c>
-    </row>
-    <row r="109" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I109" t="s">
-        <v>117</v>
-      </c>
-      <c r="J109" t="s">
-        <v>129</v>
-      </c>
-      <c r="K109">
-        <v>88</v>
-      </c>
-      <c r="L109">
-        <v>94240.61</v>
-      </c>
-    </row>
-    <row r="110" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I110" t="s">
-        <v>117</v>
-      </c>
-      <c r="J110" t="s">
-        <v>129</v>
-      </c>
-      <c r="K110">
-        <v>61</v>
-      </c>
-      <c r="L110">
-        <v>24505.93</v>
-      </c>
-    </row>
-    <row r="111" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I111" t="s">
-        <v>116</v>
-      </c>
-      <c r="J111" t="s">
-        <v>129</v>
-      </c>
-      <c r="K111">
-        <v>74</v>
-      </c>
-      <c r="L111">
-        <v>77648.399999999994</v>
-      </c>
-    </row>
-    <row r="112" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I112" t="s">
-        <v>117</v>
-      </c>
-      <c r="J112" t="s">
-        <v>131</v>
-      </c>
-      <c r="K112">
-        <v>87</v>
-      </c>
-      <c r="L112">
-        <v>324994.68</v>
-      </c>
-    </row>
-    <row r="113" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I113" t="s">
-        <v>118</v>
-      </c>
-      <c r="J113" t="s">
-        <v>130</v>
-      </c>
-      <c r="K113">
-        <v>91</v>
-      </c>
-      <c r="L113">
-        <v>293122.96999999997</v>
-      </c>
-    </row>
-    <row r="114" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I114" t="s">
-        <v>118</v>
-      </c>
-      <c r="J114" t="s">
-        <v>129</v>
-      </c>
-      <c r="K114">
-        <v>57</v>
-      </c>
-      <c r="L114">
-        <v>284096.06</v>
-      </c>
-    </row>
-    <row r="115" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I115" t="s">
-        <v>117</v>
-      </c>
-      <c r="J115" t="s">
-        <v>129</v>
-      </c>
-      <c r="K115">
-        <v>58</v>
-      </c>
-      <c r="L115">
-        <v>51464.27</v>
-      </c>
-    </row>
-    <row r="116" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I116" t="s">
-        <v>115</v>
-      </c>
-      <c r="J116" t="s">
-        <v>129</v>
-      </c>
-      <c r="K116">
-        <v>76</v>
-      </c>
-      <c r="L116">
-        <v>347017.92</v>
-      </c>
-    </row>
-    <row r="117" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I117" t="s">
-        <v>117</v>
-      </c>
-      <c r="J117" t="s">
-        <v>130</v>
-      </c>
-      <c r="K117">
-        <v>78</v>
-      </c>
-      <c r="L117">
-        <v>91509.81</v>
-      </c>
-    </row>
-    <row r="118" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I118" t="s">
-        <v>115</v>
-      </c>
-      <c r="J118" t="s">
-        <v>129</v>
-      </c>
-      <c r="K118">
-        <v>104</v>
-      </c>
-      <c r="L118">
-        <v>435609.73</v>
-      </c>
-    </row>
-    <row r="119" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I119" t="s">
-        <v>118</v>
-      </c>
-      <c r="J119" t="s">
-        <v>129</v>
-      </c>
-      <c r="K119">
-        <v>26</v>
-      </c>
-      <c r="L119">
-        <v>133398.16</v>
-      </c>
-    </row>
-    <row r="120" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I120" t="s">
-        <v>115</v>
-      </c>
-      <c r="J120" t="s">
-        <v>129</v>
-      </c>
-      <c r="K120">
-        <v>30</v>
-      </c>
-      <c r="L120">
-        <v>122762.95</v>
-      </c>
-    </row>
-    <row r="121" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I121" t="s">
-        <v>117</v>
-      </c>
-      <c r="J121" t="s">
-        <v>130</v>
-      </c>
-      <c r="K121">
-        <v>46</v>
-      </c>
-      <c r="L121">
-        <v>14054.16</v>
-      </c>
-    </row>
-    <row r="122" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I122" t="s">
-        <v>115</v>
-      </c>
-      <c r="J122" t="s">
-        <v>131</v>
-      </c>
-      <c r="K122">
-        <v>28</v>
-      </c>
-      <c r="L122">
-        <v>336490.75</v>
-      </c>
-    </row>
-    <row r="123" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I123" t="s">
-        <v>115</v>
-      </c>
-      <c r="J123" t="s">
-        <v>129</v>
-      </c>
-      <c r="K123">
-        <v>57</v>
-      </c>
-      <c r="L123">
-        <v>335034.23</v>
-      </c>
-    </row>
-    <row r="124" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I124" t="s">
-        <v>117</v>
-      </c>
-      <c r="J124" t="s">
-        <v>129</v>
-      </c>
-      <c r="K124">
-        <v>13</v>
-      </c>
-      <c r="L124">
-        <v>181011.78</v>
-      </c>
-    </row>
-    <row r="125" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I125" t="s">
-        <v>115</v>
-      </c>
-      <c r="J125" t="s">
-        <v>131</v>
-      </c>
-      <c r="K125">
-        <v>70</v>
-      </c>
-      <c r="L125">
-        <v>443139.61</v>
-      </c>
-    </row>
-    <row r="126" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I126" t="s">
-        <v>118</v>
-      </c>
-      <c r="J126" t="s">
-        <v>129</v>
-      </c>
-      <c r="K126">
-        <v>23</v>
-      </c>
-      <c r="L126">
-        <v>135156.60999999999</v>
-      </c>
-    </row>
-    <row r="127" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I127" t="s">
-        <v>116</v>
-      </c>
-      <c r="J127" t="s">
-        <v>130</v>
-      </c>
-      <c r="K127">
-        <v>44</v>
-      </c>
-      <c r="L127">
-        <v>20334.830000000002</v>
-      </c>
-    </row>
-    <row r="128" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I128" t="s">
-        <v>116</v>
-      </c>
-      <c r="J128" t="s">
-        <v>129</v>
-      </c>
-      <c r="K128">
-        <v>59</v>
-      </c>
-      <c r="L128">
-        <v>54719.4</v>
-      </c>
-    </row>
-    <row r="129" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I129" t="s">
-        <v>118</v>
-      </c>
-      <c r="J129" t="s">
-        <v>129</v>
-      </c>
-      <c r="K129">
-        <v>74</v>
-      </c>
-      <c r="L129">
-        <v>80798.990000000005</v>
-      </c>
-    </row>
-    <row r="130" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I130" t="s">
-        <v>115</v>
-      </c>
-      <c r="J130" t="s">
-        <v>129</v>
-      </c>
-      <c r="K130">
-        <v>32</v>
-      </c>
-      <c r="L130">
-        <v>596039.94999999995</v>
-      </c>
-    </row>
-    <row r="131" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I131" t="s">
-        <v>115</v>
-      </c>
-      <c r="J131" t="s">
-        <v>131</v>
-      </c>
-      <c r="K131">
-        <v>42</v>
-      </c>
-      <c r="L131">
-        <v>353620.6</v>
-      </c>
-    </row>
-    <row r="132" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I132" t="s">
-        <v>115</v>
-      </c>
-      <c r="J132" t="s">
-        <v>129</v>
-      </c>
-      <c r="K132">
-        <v>9</v>
-      </c>
-      <c r="L132">
-        <v>349020.87</v>
-      </c>
-    </row>
-    <row r="133" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I133" t="s">
-        <v>118</v>
-      </c>
-      <c r="J133" t="s">
-        <v>130</v>
-      </c>
-      <c r="K133">
-        <v>90</v>
-      </c>
-      <c r="L133">
-        <v>128475.06</v>
-      </c>
-    </row>
-    <row r="134" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I134" t="s">
-        <v>116</v>
-      </c>
-      <c r="J134" t="s">
-        <v>129</v>
-      </c>
-      <c r="K134">
-        <v>94</v>
-      </c>
-      <c r="L134">
-        <v>13264.13</v>
-      </c>
-    </row>
-    <row r="135" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I135" t="s">
-        <v>115</v>
-      </c>
-      <c r="J135" t="s">
-        <v>129</v>
-      </c>
-      <c r="K135">
-        <v>43</v>
-      </c>
-      <c r="L135">
-        <v>134676.97</v>
-      </c>
-    </row>
-    <row r="136" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I136" t="s">
-        <v>117</v>
-      </c>
-      <c r="J136" t="s">
-        <v>129</v>
-      </c>
-      <c r="K136">
-        <v>64</v>
-      </c>
-      <c r="L136">
-        <v>33331.480000000003</v>
-      </c>
-    </row>
-    <row r="137" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I137" t="s">
-        <v>116</v>
-      </c>
-      <c r="J137" t="s">
-        <v>131</v>
-      </c>
-      <c r="K137">
-        <v>87</v>
-      </c>
-      <c r="L137">
-        <v>31876.22</v>
-      </c>
-    </row>
-    <row r="138" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I138" t="s">
-        <v>117</v>
-      </c>
-      <c r="J138" t="s">
-        <v>129</v>
-      </c>
-      <c r="K138">
-        <v>99</v>
-      </c>
-      <c r="L138">
-        <v>273933.07</v>
-      </c>
-    </row>
-    <row r="139" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I139" t="s">
-        <v>117</v>
-      </c>
-      <c r="J139" t="s">
-        <v>129</v>
-      </c>
-      <c r="K139">
-        <v>3</v>
-      </c>
-      <c r="L139">
-        <v>242092.6</v>
-      </c>
-    </row>
-    <row r="140" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I140" t="s">
-        <v>118</v>
-      </c>
-      <c r="J140" t="s">
-        <v>129</v>
-      </c>
-      <c r="K140">
-        <v>9</v>
-      </c>
-      <c r="L140">
-        <v>118148.61</v>
-      </c>
-    </row>
-    <row r="141" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I141" t="s">
-        <v>116</v>
-      </c>
-      <c r="J141" t="s">
-        <v>129</v>
-      </c>
-      <c r="K141">
-        <v>13</v>
-      </c>
-      <c r="L141">
-        <v>109532.39</v>
-      </c>
-    </row>
-    <row r="142" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I142" t="s">
-        <v>116</v>
-      </c>
-      <c r="J142" t="s">
-        <v>130</v>
-      </c>
-      <c r="K142">
-        <v>1</v>
-      </c>
-      <c r="L142">
-        <v>240638.82</v>
-      </c>
-    </row>
-    <row r="143" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I143" t="s">
-        <v>116</v>
-      </c>
-      <c r="J143" t="s">
-        <v>131</v>
-      </c>
-      <c r="K143">
-        <v>28</v>
-      </c>
-      <c r="L143">
-        <v>75349.210000000006</v>
-      </c>
-    </row>
-    <row r="144" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I144" t="s">
-        <v>116</v>
-      </c>
-      <c r="J144" t="s">
-        <v>129</v>
-      </c>
-      <c r="K144">
-        <v>40</v>
-      </c>
-      <c r="L144">
-        <v>114141.61</v>
-      </c>
-    </row>
-    <row r="145" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I145" t="s">
-        <v>118</v>
-      </c>
-      <c r="J145" t="s">
-        <v>130</v>
-      </c>
-      <c r="K145">
-        <v>50</v>
-      </c>
-      <c r="L145">
-        <v>40664.61</v>
-      </c>
-    </row>
-    <row r="146" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I146" t="s">
-        <v>117</v>
-      </c>
-      <c r="J146" t="s">
-        <v>129</v>
-      </c>
-      <c r="K146">
-        <v>54</v>
-      </c>
-      <c r="L146">
-        <v>190258.01</v>
-      </c>
-    </row>
-    <row r="147" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I147" t="s">
-        <v>116</v>
-      </c>
-      <c r="J147" t="s">
-        <v>129</v>
-      </c>
-      <c r="K147">
-        <v>57</v>
-      </c>
-      <c r="L147">
-        <v>26249.25</v>
-      </c>
-    </row>
-    <row r="148" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I148" t="s">
-        <v>117</v>
-      </c>
-      <c r="J148" t="s">
-        <v>129</v>
-      </c>
-      <c r="K148">
-        <v>65</v>
-      </c>
-      <c r="L148">
-        <v>270820.15999999997</v>
-      </c>
-    </row>
-    <row r="149" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I149" t="s">
-        <v>117</v>
-      </c>
-      <c r="J149" t="s">
-        <v>130</v>
-      </c>
-      <c r="K149">
-        <v>90</v>
-      </c>
-      <c r="L149">
-        <v>100799.16</v>
-      </c>
-    </row>
-    <row r="150" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I150" t="s">
-        <v>118</v>
-      </c>
-      <c r="J150" t="s">
-        <v>131</v>
-      </c>
-      <c r="K150">
-        <v>97</v>
-      </c>
-      <c r="L150">
-        <v>438404.4</v>
-      </c>
-    </row>
-    <row r="151" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I151" t="s">
-        <v>117</v>
-      </c>
-      <c r="J151" t="s">
-        <v>130</v>
-      </c>
-      <c r="K151">
-        <v>101</v>
-      </c>
-      <c r="L151">
-        <v>246676.15</v>
-      </c>
-    </row>
-    <row r="152" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I152" t="s">
-        <v>118</v>
-      </c>
-      <c r="J152" t="s">
-        <v>130</v>
-      </c>
-      <c r="K152">
-        <v>103</v>
-      </c>
-      <c r="L152">
-        <v>99448.83</v>
-      </c>
-    </row>
-    <row r="153" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I153" t="s">
-        <v>115</v>
-      </c>
-      <c r="J153" t="s">
-        <v>129</v>
-      </c>
-      <c r="K153">
-        <v>15</v>
-      </c>
-      <c r="L153">
-        <v>215945.66</v>
-      </c>
-    </row>
-    <row r="154" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I154" t="s">
-        <v>116</v>
-      </c>
-      <c r="J154" t="s">
-        <v>129</v>
-      </c>
-      <c r="K154">
-        <v>20</v>
-      </c>
-      <c r="L154">
-        <v>23391.42</v>
-      </c>
-    </row>
-    <row r="155" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I155" t="s">
-        <v>116</v>
-      </c>
-      <c r="J155" t="s">
-        <v>129</v>
-      </c>
-      <c r="K155">
-        <v>23</v>
-      </c>
-      <c r="L155">
-        <v>86387.3</v>
-      </c>
-    </row>
-    <row r="156" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I156" t="s">
-        <v>115</v>
-      </c>
-      <c r="J156" t="s">
-        <v>129</v>
-      </c>
-      <c r="K156">
-        <v>39</v>
-      </c>
-      <c r="L156">
-        <v>263401.44</v>
-      </c>
-    </row>
-    <row r="157" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I157" t="s">
-        <v>116</v>
-      </c>
-      <c r="J157" t="s">
-        <v>129</v>
-      </c>
-      <c r="K157">
-        <v>43</v>
-      </c>
-      <c r="L157">
-        <v>21779.34</v>
-      </c>
-    </row>
-    <row r="158" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I158" t="s">
-        <v>115</v>
-      </c>
-      <c r="J158" t="s">
-        <v>131</v>
-      </c>
-      <c r="K158">
-        <v>69</v>
-      </c>
-      <c r="L158">
-        <v>254161.25</v>
-      </c>
-    </row>
-    <row r="159" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I159" t="s">
-        <v>116</v>
-      </c>
-      <c r="J159" t="s">
-        <v>129</v>
-      </c>
-      <c r="K159">
-        <v>92</v>
-      </c>
-      <c r="L159">
-        <v>52665.48</v>
-      </c>
-    </row>
-    <row r="160" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I160" t="s">
-        <v>116</v>
-      </c>
-      <c r="J160" t="s">
-        <v>129</v>
-      </c>
-      <c r="K160">
-        <v>61</v>
-      </c>
-      <c r="L160">
-        <v>46431.4</v>
-      </c>
-    </row>
-    <row r="161" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I161" t="s">
-        <v>117</v>
-      </c>
-      <c r="J161" t="s">
-        <v>131</v>
-      </c>
-      <c r="K161">
-        <v>69</v>
-      </c>
-      <c r="L161">
-        <v>228210.13</v>
-      </c>
-    </row>
-    <row r="162" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I162" t="s">
-        <v>115</v>
-      </c>
-      <c r="J162" t="s">
-        <v>129</v>
-      </c>
-      <c r="K162">
-        <v>13</v>
-      </c>
-      <c r="L162">
-        <v>338957.72</v>
-      </c>
-    </row>
-    <row r="163" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I163" t="s">
-        <v>116</v>
-      </c>
-      <c r="J163" t="s">
-        <v>131</v>
-      </c>
-      <c r="K163">
-        <v>38</v>
-      </c>
-      <c r="L163">
-        <v>28750.7</v>
-      </c>
-    </row>
-    <row r="164" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I164" t="s">
-        <v>117</v>
-      </c>
-      <c r="J164" t="s">
-        <v>129</v>
-      </c>
-      <c r="K164">
-        <v>2</v>
-      </c>
-      <c r="L164">
-        <v>322304.40000000002</v>
-      </c>
-    </row>
-    <row r="165" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I165" t="s">
-        <v>115</v>
-      </c>
-      <c r="J165" t="s">
-        <v>131</v>
-      </c>
-      <c r="K165">
-        <v>22</v>
-      </c>
-      <c r="L165">
-        <v>166192.18</v>
-      </c>
-    </row>
-    <row r="166" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I166" t="s">
-        <v>115</v>
-      </c>
-      <c r="J166" t="s">
-        <v>129</v>
-      </c>
-      <c r="K166">
-        <v>24</v>
-      </c>
-      <c r="L166">
-        <v>121231.59</v>
-      </c>
-    </row>
-    <row r="167" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I167" t="s">
-        <v>118</v>
-      </c>
-      <c r="J167" t="s">
-        <v>129</v>
-      </c>
-      <c r="K167">
-        <v>32</v>
-      </c>
-      <c r="L167">
-        <v>389855.7</v>
-      </c>
-    </row>
-    <row r="168" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I168" t="s">
-        <v>115</v>
-      </c>
-      <c r="J168" t="s">
-        <v>129</v>
-      </c>
-      <c r="K168">
-        <v>40</v>
-      </c>
-      <c r="L168">
-        <v>307683.51</v>
-      </c>
-    </row>
-    <row r="169" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I169" t="s">
-        <v>115</v>
-      </c>
-      <c r="J169" t="s">
-        <v>129</v>
-      </c>
-      <c r="K169">
-        <v>75</v>
-      </c>
-      <c r="L169">
-        <v>95801.44</v>
-      </c>
-    </row>
-    <row r="170" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I170" t="s">
-        <v>117</v>
-      </c>
-      <c r="J170" t="s">
-        <v>130</v>
-      </c>
-      <c r="K170">
-        <v>103</v>
-      </c>
-      <c r="L170">
-        <v>8233.16</v>
-      </c>
-    </row>
-    <row r="171" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I171" t="s">
-        <v>115</v>
-      </c>
-      <c r="J171" t="s">
-        <v>130</v>
-      </c>
-      <c r="K171">
-        <v>44</v>
-      </c>
-      <c r="L171">
-        <v>200946</v>
-      </c>
-    </row>
-    <row r="172" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I172" t="s">
-        <v>118</v>
-      </c>
-      <c r="J172" t="s">
-        <v>129</v>
-      </c>
-      <c r="K172">
-        <v>54</v>
-      </c>
-      <c r="L172">
-        <v>367198.64</v>
-      </c>
-    </row>
-    <row r="173" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I173" t="s">
-        <v>117</v>
-      </c>
-      <c r="J173" t="s">
-        <v>129</v>
-      </c>
-      <c r="K173">
-        <v>7</v>
-      </c>
-      <c r="L173">
-        <v>6697.81</v>
-      </c>
-    </row>
-    <row r="174" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I174" t="s">
-        <v>117</v>
-      </c>
-      <c r="J174" t="s">
-        <v>129</v>
-      </c>
-      <c r="K174">
-        <v>32</v>
-      </c>
-      <c r="L174">
-        <v>67746</v>
-      </c>
-    </row>
-    <row r="175" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I175" t="s">
-        <v>115</v>
-      </c>
-      <c r="J175" t="s">
-        <v>129</v>
-      </c>
-      <c r="K175">
-        <v>53</v>
-      </c>
-      <c r="L175">
-        <v>95398.94</v>
-      </c>
-    </row>
-    <row r="176" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I176" t="s">
-        <v>115</v>
-      </c>
-      <c r="J176" t="s">
-        <v>129</v>
-      </c>
-      <c r="K176">
-        <v>12</v>
-      </c>
-      <c r="L176">
-        <v>248427.09</v>
-      </c>
-    </row>
-    <row r="177" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I177" t="s">
-        <v>118</v>
-      </c>
-      <c r="J177" t="s">
-        <v>129</v>
-      </c>
-      <c r="K177">
-        <v>40</v>
-      </c>
-      <c r="L177">
-        <v>117875.16</v>
-      </c>
-    </row>
-    <row r="178" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I178" t="s">
-        <v>115</v>
-      </c>
-      <c r="J178" t="s">
-        <v>130</v>
-      </c>
-      <c r="K178">
-        <v>101</v>
-      </c>
-      <c r="L178">
-        <v>251250.87</v>
-      </c>
-    </row>
-    <row r="179" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I179" t="s">
-        <v>117</v>
-      </c>
-      <c r="J179" t="s">
-        <v>129</v>
-      </c>
-      <c r="K179">
-        <v>45</v>
-      </c>
-      <c r="L179">
-        <v>67417.679999999993</v>
-      </c>
-    </row>
-    <row r="180" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I180" t="s">
-        <v>118</v>
-      </c>
-      <c r="J180" t="s">
-        <v>130</v>
-      </c>
-      <c r="K180">
-        <v>1</v>
-      </c>
-      <c r="L180">
-        <v>241986.69</v>
-      </c>
-    </row>
-    <row r="181" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I181" t="s">
-        <v>115</v>
-      </c>
-      <c r="J181" t="s">
-        <v>129</v>
-      </c>
-      <c r="K181">
-        <v>74</v>
-      </c>
-      <c r="L181">
-        <v>230473.37</v>
-      </c>
-    </row>
-    <row r="182" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I182" t="s">
-        <v>118</v>
-      </c>
-      <c r="J182" t="s">
-        <v>129</v>
-      </c>
-      <c r="K182">
-        <v>75</v>
-      </c>
-      <c r="L182">
-        <v>510974.61</v>
-      </c>
-    </row>
-    <row r="183" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I183" t="s">
-        <v>117</v>
-      </c>
-      <c r="J183" t="s">
-        <v>129</v>
-      </c>
-      <c r="K183">
-        <v>84</v>
-      </c>
-      <c r="L183">
-        <v>13479.3</v>
-      </c>
-    </row>
-    <row r="184" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I184" t="s">
-        <v>115</v>
-      </c>
-      <c r="J184" t="s">
-        <v>130</v>
-      </c>
-      <c r="K184">
-        <v>90</v>
-      </c>
-      <c r="L184">
-        <v>519912.12</v>
-      </c>
-    </row>
-    <row r="185" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I185" t="s">
-        <v>116</v>
-      </c>
-      <c r="J185" t="s">
-        <v>130</v>
-      </c>
-      <c r="K185">
-        <v>91</v>
-      </c>
-      <c r="L185">
-        <v>66820.070000000007</v>
-      </c>
-    </row>
-    <row r="186" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I186" t="s">
-        <v>117</v>
-      </c>
-      <c r="J186" t="s">
-        <v>129</v>
-      </c>
-      <c r="K186">
-        <v>93</v>
-      </c>
-      <c r="L186">
-        <v>107747.09</v>
-      </c>
-    </row>
-    <row r="187" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I187" t="s">
-        <v>118</v>
-      </c>
-      <c r="J187" t="s">
-        <v>129</v>
-      </c>
-      <c r="K187">
-        <v>94</v>
-      </c>
-      <c r="L187">
-        <v>681618.88</v>
-      </c>
-    </row>
-    <row r="188" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I188" t="s">
-        <v>117</v>
-      </c>
-      <c r="J188" t="s">
-        <v>129</v>
-      </c>
-      <c r="K188">
-        <v>8</v>
-      </c>
-      <c r="L188">
-        <v>48905.760000000002</v>
-      </c>
-    </row>
-    <row r="189" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I189" t="s">
-        <v>117</v>
-      </c>
-      <c r="J189" t="s">
-        <v>129</v>
-      </c>
-      <c r="K189">
-        <v>23</v>
-      </c>
-      <c r="L189">
-        <v>197475.36</v>
-      </c>
-    </row>
-    <row r="190" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I190" t="s">
-        <v>117</v>
-      </c>
-      <c r="J190" t="s">
-        <v>129</v>
-      </c>
-      <c r="K190">
-        <v>30</v>
-      </c>
-      <c r="L190">
-        <v>12854.93</v>
-      </c>
-    </row>
-    <row r="191" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I191" t="s">
-        <v>115</v>
-      </c>
-      <c r="J191" t="s">
-        <v>129</v>
-      </c>
-      <c r="K191">
-        <v>45</v>
-      </c>
-      <c r="L191">
-        <v>30183.85</v>
-      </c>
-    </row>
-    <row r="192" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I192" t="s">
-        <v>115</v>
-      </c>
-      <c r="J192" t="s">
-        <v>130</v>
-      </c>
-      <c r="K192">
-        <v>68</v>
-      </c>
-      <c r="L192">
-        <v>540246.93000000005</v>
-      </c>
-    </row>
-    <row r="193" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I193" t="s">
-        <v>115</v>
-      </c>
-      <c r="J193" t="s">
-        <v>129</v>
-      </c>
-      <c r="K193">
-        <v>71</v>
-      </c>
-      <c r="L193">
-        <v>315566.02</v>
-      </c>
-    </row>
-    <row r="194" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I194" t="s">
-        <v>116</v>
-      </c>
-      <c r="J194" t="s">
-        <v>129</v>
-      </c>
-      <c r="K194">
-        <v>98</v>
-      </c>
-      <c r="L194">
-        <v>41598.959999999999</v>
-      </c>
-    </row>
-    <row r="195" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I195" t="s">
-        <v>118</v>
-      </c>
-      <c r="J195" t="s">
-        <v>129</v>
-      </c>
-      <c r="K195">
-        <v>25</v>
-      </c>
-      <c r="L195">
-        <v>88058.81</v>
-      </c>
-    </row>
-    <row r="196" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I196" t="s">
-        <v>115</v>
-      </c>
-      <c r="J196" t="s">
-        <v>129</v>
-      </c>
-      <c r="K196">
-        <v>33</v>
-      </c>
-      <c r="L196">
-        <v>41217</v>
-      </c>
-    </row>
-    <row r="197" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I197" t="s">
-        <v>117</v>
-      </c>
-      <c r="J197" t="s">
-        <v>130</v>
-      </c>
-      <c r="K197">
-        <v>85</v>
-      </c>
-      <c r="L197">
-        <v>4784.1499999999996</v>
-      </c>
-    </row>
-    <row r="198" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I198" t="s">
-        <v>118</v>
-      </c>
-      <c r="J198" t="s">
-        <v>129</v>
-      </c>
-      <c r="K198">
-        <v>88</v>
-      </c>
-      <c r="L198">
-        <v>213601.66</v>
-      </c>
-    </row>
-    <row r="199" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I199" t="s">
-        <v>117</v>
-      </c>
-      <c r="J199" t="s">
-        <v>129</v>
-      </c>
-      <c r="K199">
-        <v>75</v>
-      </c>
-      <c r="L199">
-        <v>46402.78</v>
-      </c>
-    </row>
-    <row r="200" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I200" t="s">
-        <v>117</v>
-      </c>
-      <c r="J200" t="s">
-        <v>129</v>
-      </c>
-      <c r="K200">
-        <v>89</v>
-      </c>
-      <c r="L200">
-        <v>177012.69</v>
-      </c>
-    </row>
-    <row r="201" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I201" t="s">
-        <v>117</v>
-      </c>
-      <c r="J201" t="s">
-        <v>130</v>
-      </c>
-      <c r="K201">
-        <v>105</v>
-      </c>
-      <c r="L201">
-        <v>51679.199999999997</v>
-      </c>
-    </row>
-    <row r="202" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I202" t="s">
-        <v>117</v>
-      </c>
-      <c r="J202" t="s">
-        <v>129</v>
-      </c>
-      <c r="K202">
-        <v>12</v>
-      </c>
-      <c r="L202">
-        <v>273063.84999999998</v>
-      </c>
-    </row>
-    <row r="203" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I203" t="s">
-        <v>118</v>
-      </c>
-      <c r="J203" t="s">
-        <v>129</v>
-      </c>
-      <c r="K203">
-        <v>12</v>
-      </c>
-      <c r="L203">
-        <v>84966.48</v>
-      </c>
-    </row>
-    <row r="204" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I204" t="s">
-        <v>118</v>
-      </c>
-      <c r="J204" t="s">
-        <v>129</v>
-      </c>
-      <c r="K204">
-        <v>30</v>
-      </c>
-      <c r="L204">
-        <v>258648.18</v>
-      </c>
-    </row>
-    <row r="205" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I205" t="s">
-        <v>118</v>
-      </c>
-      <c r="J205" t="s">
-        <v>129</v>
-      </c>
-      <c r="K205">
-        <v>19</v>
-      </c>
-      <c r="L205">
-        <v>85048.95</v>
-      </c>
-    </row>
-    <row r="206" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I206" t="s">
-        <v>117</v>
-      </c>
-      <c r="J206" t="s">
-        <v>129</v>
-      </c>
-      <c r="K206">
-        <v>26</v>
-      </c>
-      <c r="L206">
-        <v>93648.29</v>
-      </c>
-    </row>
-    <row r="207" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I207" t="s">
-        <v>116</v>
-      </c>
-      <c r="J207" t="s">
-        <v>129</v>
-      </c>
-      <c r="K207">
-        <v>79</v>
-      </c>
-      <c r="L207">
-        <v>83652.160000000003</v>
-      </c>
-    </row>
-    <row r="208" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I208" t="s">
-        <v>118</v>
-      </c>
-      <c r="J208" t="s">
-        <v>129</v>
-      </c>
-      <c r="K208">
-        <v>82</v>
-      </c>
-      <c r="L208">
-        <v>71891.5</v>
-      </c>
-    </row>
-    <row r="209" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I209" t="s">
-        <v>118</v>
-      </c>
-      <c r="J209" t="s">
-        <v>129</v>
-      </c>
-      <c r="K209">
-        <v>92</v>
-      </c>
-      <c r="L209">
-        <v>534726.94999999995</v>
-      </c>
-    </row>
-    <row r="210" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I210" t="s">
-        <v>116</v>
-      </c>
-      <c r="J210" t="s">
-        <v>129</v>
-      </c>
-      <c r="K210">
-        <v>37</v>
-      </c>
-      <c r="L210">
-        <v>28398</v>
-      </c>
-    </row>
-    <row r="211" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I211" t="s">
-        <v>115</v>
-      </c>
-      <c r="J211" t="s">
-        <v>130</v>
-      </c>
-      <c r="K211">
-        <v>10</v>
-      </c>
-      <c r="L211">
-        <v>190743.45</v>
-      </c>
-    </row>
-    <row r="212" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I212" t="s">
-        <v>115</v>
-      </c>
-      <c r="J212" t="s">
-        <v>129</v>
-      </c>
-      <c r="K212">
-        <v>93</v>
-      </c>
-      <c r="L212">
-        <v>84864.94</v>
-      </c>
-    </row>
-    <row r="213" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I213" t="s">
-        <v>116</v>
-      </c>
-      <c r="J213" t="s">
-        <v>129</v>
-      </c>
-      <c r="K213">
-        <v>45</v>
-      </c>
-      <c r="L213">
-        <v>50398.74</v>
-      </c>
-    </row>
-    <row r="214" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I214" t="s">
-        <v>116</v>
-      </c>
-      <c r="J214" t="s">
-        <v>129</v>
-      </c>
-      <c r="K214">
-        <v>93</v>
-      </c>
-      <c r="L214">
-        <v>43919.040000000001</v>
-      </c>
-    </row>
-    <row r="215" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I215" t="s">
-        <v>118</v>
-      </c>
-      <c r="J215" t="s">
-        <v>129</v>
-      </c>
-      <c r="K215">
-        <v>13</v>
-      </c>
-      <c r="L215">
-        <v>234462</v>
-      </c>
-    </row>
-    <row r="216" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I216" t="s">
-        <v>116</v>
-      </c>
-      <c r="J216" t="s">
-        <v>129</v>
-      </c>
-      <c r="K216">
-        <v>19</v>
-      </c>
-      <c r="L216">
-        <v>47555.68</v>
-      </c>
-    </row>
-    <row r="217" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I217" t="s">
-        <v>115</v>
-      </c>
-      <c r="J217" t="s">
-        <v>129</v>
-      </c>
-      <c r="K217">
-        <v>73</v>
-      </c>
-      <c r="L217">
-        <v>135091.26</v>
-      </c>
-    </row>
-    <row r="218" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I218" t="s">
-        <v>116</v>
-      </c>
-      <c r="J218" t="s">
-        <v>129</v>
-      </c>
-      <c r="K218">
-        <v>73</v>
-      </c>
-      <c r="L218">
-        <v>109738.2</v>
-      </c>
-    </row>
-    <row r="219" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I219" t="s">
-        <v>117</v>
-      </c>
-      <c r="J219" t="s">
-        <v>129</v>
-      </c>
-      <c r="K219">
-        <v>82</v>
-      </c>
-      <c r="L219">
-        <v>67831.41</v>
-      </c>
-    </row>
-    <row r="220" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I220" t="s">
-        <v>116</v>
-      </c>
-      <c r="J220" t="s">
-        <v>129</v>
-      </c>
-      <c r="K220">
-        <v>102</v>
-      </c>
-      <c r="L220">
-        <v>50658.51</v>
-      </c>
-    </row>
-    <row r="221" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I221" t="s">
-        <v>116</v>
-      </c>
-      <c r="J221" t="s">
-        <v>129</v>
-      </c>
-      <c r="K221">
-        <v>2</v>
-      </c>
-      <c r="L221">
-        <v>73925.81</v>
-      </c>
-    </row>
-    <row r="222" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I222" t="s">
-        <v>116</v>
-      </c>
-      <c r="J222" t="s">
-        <v>131</v>
-      </c>
-      <c r="K222">
-        <v>5</v>
-      </c>
-      <c r="L222">
-        <v>88585.2</v>
-      </c>
-    </row>
-    <row r="223" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I223" t="s">
-        <v>115</v>
-      </c>
-      <c r="J223" t="s">
-        <v>129</v>
-      </c>
-      <c r="K223">
-        <v>6</v>
-      </c>
-      <c r="L223">
-        <v>43415.33</v>
-      </c>
-    </row>
-    <row r="224" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I224" t="s">
-        <v>117</v>
-      </c>
-      <c r="J224" t="s">
-        <v>129</v>
-      </c>
-      <c r="K224">
-        <v>20</v>
-      </c>
-      <c r="L224">
-        <v>67303.95</v>
-      </c>
-    </row>
-    <row r="225" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I225" t="s">
-        <v>117</v>
-      </c>
-      <c r="J225" t="s">
-        <v>129</v>
-      </c>
-      <c r="K225">
-        <v>33</v>
-      </c>
-      <c r="L225">
-        <v>113717.39</v>
-      </c>
-    </row>
-    <row r="226" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I226" t="s">
-        <v>117</v>
-      </c>
-      <c r="J226" t="s">
-        <v>129</v>
-      </c>
-      <c r="K226">
-        <v>36</v>
-      </c>
-      <c r="L226">
-        <v>200601.78</v>
-      </c>
-    </row>
-    <row r="227" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I227" t="s">
-        <v>117</v>
-      </c>
-      <c r="J227" t="s">
-        <v>129</v>
-      </c>
-      <c r="K227">
-        <v>43</v>
-      </c>
-      <c r="L227">
-        <v>104013.27</v>
-      </c>
-    </row>
-    <row r="228" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I228" t="s">
-        <v>118</v>
-      </c>
-      <c r="J228" t="s">
-        <v>130</v>
-      </c>
-      <c r="K228">
-        <v>44</v>
-      </c>
-      <c r="L228">
-        <v>212502.54</v>
-      </c>
-    </row>
-    <row r="229" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I229" t="s">
-        <v>117</v>
-      </c>
-      <c r="J229" t="s">
-        <v>129</v>
-      </c>
-      <c r="K229">
-        <v>51</v>
-      </c>
-      <c r="L229">
-        <v>69083.02</v>
-      </c>
-    </row>
-    <row r="230" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I230" t="s">
-        <v>118</v>
-      </c>
-      <c r="J230" t="s">
-        <v>129</v>
-      </c>
-      <c r="K230">
-        <v>59</v>
-      </c>
-      <c r="L230">
-        <v>201988.89</v>
-      </c>
-    </row>
-    <row r="231" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I231" t="s">
-        <v>118</v>
-      </c>
-      <c r="J231" t="s">
-        <v>131</v>
-      </c>
-      <c r="K231">
-        <v>70</v>
-      </c>
-      <c r="L231">
-        <v>170760.56</v>
-      </c>
-    </row>
-    <row r="232" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I232" t="s">
-        <v>117</v>
-      </c>
-      <c r="J232" t="s">
-        <v>129</v>
-      </c>
-      <c r="K232">
-        <v>83</v>
-      </c>
-      <c r="L232">
-        <v>399575.21</v>
-      </c>
-    </row>
-    <row r="233" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I233" t="s">
-        <v>117</v>
-      </c>
-      <c r="J233" t="s">
-        <v>130</v>
-      </c>
-      <c r="K233">
-        <v>86</v>
-      </c>
-      <c r="L233">
-        <v>87714.78</v>
-      </c>
-    </row>
-    <row r="234" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I234" t="s">
-        <v>117</v>
-      </c>
-      <c r="J234" t="s">
-        <v>130</v>
-      </c>
-      <c r="K234">
-        <v>91</v>
-      </c>
-      <c r="L234">
-        <v>492621.72</v>
-      </c>
-    </row>
-    <row r="235" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I235" t="s">
-        <v>116</v>
-      </c>
-      <c r="J235" t="s">
-        <v>130</v>
-      </c>
-      <c r="K235">
-        <v>105</v>
-      </c>
-      <c r="L235">
-        <v>69471.070000000007</v>
-      </c>
-    </row>
-    <row r="236" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I236" t="s">
-        <v>117</v>
-      </c>
-      <c r="J236" t="s">
-        <v>131</v>
-      </c>
-      <c r="K236">
-        <v>22</v>
-      </c>
-      <c r="L236">
-        <v>102503.81</v>
-      </c>
-    </row>
-    <row r="237" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I237" t="s">
-        <v>115</v>
-      </c>
-      <c r="J237" t="s">
-        <v>129</v>
-      </c>
-      <c r="K237">
-        <v>41</v>
-      </c>
-      <c r="L237">
-        <v>164950.35999999999</v>
-      </c>
-    </row>
-    <row r="238" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I238" t="s">
-        <v>117</v>
-      </c>
-      <c r="J238" t="s">
-        <v>131</v>
-      </c>
-      <c r="K238">
-        <v>47</v>
-      </c>
-      <c r="L238">
-        <v>140114.64000000001</v>
-      </c>
-    </row>
-    <row r="239" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I239" t="s">
-        <v>115</v>
-      </c>
-      <c r="J239" t="s">
-        <v>129</v>
-      </c>
-      <c r="K239">
-        <v>58</v>
-      </c>
-      <c r="L239">
-        <v>311447.27</v>
-      </c>
-    </row>
-    <row r="240" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I240" t="s">
-        <v>115</v>
-      </c>
-      <c r="J240" t="s">
-        <v>129</v>
-      </c>
-      <c r="K240">
-        <v>59</v>
-      </c>
-      <c r="L240">
-        <v>634396.52</v>
-      </c>
-    </row>
-    <row r="241" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I241" t="s">
-        <v>115</v>
-      </c>
-      <c r="J241" t="s">
-        <v>129</v>
-      </c>
-      <c r="K241">
-        <v>72</v>
-      </c>
-      <c r="L241">
-        <v>130993.77</v>
-      </c>
-    </row>
-    <row r="242" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I242" t="s">
-        <v>118</v>
-      </c>
-      <c r="J242" t="s">
-        <v>129</v>
-      </c>
-      <c r="K242">
-        <v>76</v>
-      </c>
-      <c r="L242">
-        <v>272227.69</v>
-      </c>
-    </row>
-    <row r="243" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I243" t="s">
-        <v>116</v>
-      </c>
-      <c r="J243" t="s">
-        <v>130</v>
-      </c>
-      <c r="K243">
-        <v>86</v>
-      </c>
-      <c r="L243">
-        <v>33414.080000000002</v>
-      </c>
-    </row>
-    <row r="244" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I244" t="s">
-        <v>115</v>
-      </c>
-      <c r="J244" t="s">
-        <v>129</v>
-      </c>
-      <c r="K244">
-        <v>8</v>
-      </c>
-      <c r="L244">
-        <v>177555.15</v>
-      </c>
-    </row>
-    <row r="245" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I245" t="s">
-        <v>117</v>
-      </c>
-      <c r="J245" t="s">
-        <v>129</v>
-      </c>
-      <c r="K245">
-        <v>39</v>
-      </c>
-      <c r="L245">
-        <v>276999.11</v>
-      </c>
-    </row>
-    <row r="246" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I246" t="s">
-        <v>117</v>
-      </c>
-      <c r="J246" t="s">
-        <v>129</v>
-      </c>
-      <c r="K246">
-        <v>59</v>
-      </c>
-      <c r="L246">
-        <v>152039.91</v>
-      </c>
-    </row>
-    <row r="247" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I247" t="s">
-        <v>115</v>
-      </c>
-      <c r="J247" t="s">
-        <v>131</v>
-      </c>
-      <c r="K247">
-        <v>67</v>
-      </c>
-      <c r="L247">
-        <v>479732.67</v>
-      </c>
-    </row>
-    <row r="248" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I248" t="s">
-        <v>118</v>
-      </c>
-      <c r="J248" t="s">
-        <v>130</v>
-      </c>
-      <c r="K248">
-        <v>68</v>
-      </c>
-      <c r="L248">
-        <v>320337.15999999997</v>
-      </c>
-    </row>
-    <row r="249" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I249" t="s">
-        <v>115</v>
-      </c>
-      <c r="J249" t="s">
-        <v>129</v>
-      </c>
-      <c r="K249">
-        <v>77</v>
-      </c>
-      <c r="L249">
-        <v>451555.28</v>
-      </c>
-    </row>
-    <row r="250" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I250" t="s">
-        <v>115</v>
-      </c>
-      <c r="J250" t="s">
-        <v>130</v>
-      </c>
-      <c r="K250">
-        <v>1</v>
-      </c>
-      <c r="L250">
-        <v>283322.58</v>
-      </c>
-    </row>
-    <row r="251" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I251" t="s">
-        <v>118</v>
-      </c>
-      <c r="J251" t="s">
-        <v>129</v>
-      </c>
-      <c r="K251">
-        <v>14</v>
-      </c>
-      <c r="L251">
-        <v>723284.07</v>
-      </c>
-    </row>
-    <row r="252" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I252" t="s">
-        <v>116</v>
-      </c>
-      <c r="J252" t="s">
-        <v>129</v>
-      </c>
-      <c r="K252">
-        <v>33</v>
-      </c>
-      <c r="L252">
-        <v>159704.32000000001</v>
-      </c>
-    </row>
-    <row r="253" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I253" t="s">
-        <v>115</v>
-      </c>
-      <c r="J253" t="s">
-        <v>129</v>
-      </c>
-      <c r="K253">
-        <v>23</v>
-      </c>
-      <c r="L253">
-        <v>377450.8</v>
-      </c>
-    </row>
-    <row r="254" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I254" t="s">
-        <v>116</v>
-      </c>
-      <c r="J254" t="s">
-        <v>129</v>
-      </c>
-      <c r="K254">
-        <v>41</v>
-      </c>
-      <c r="L254">
-        <v>62910.49</v>
-      </c>
-    </row>
-    <row r="255" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I255" t="s">
-        <v>117</v>
-      </c>
-      <c r="J255" t="s">
-        <v>129</v>
-      </c>
-      <c r="K255">
-        <v>15</v>
-      </c>
-      <c r="L255">
-        <v>60714.65</v>
-      </c>
-    </row>
-    <row r="256" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I256" t="s">
-        <v>118</v>
-      </c>
-      <c r="J256" t="s">
-        <v>131</v>
-      </c>
-      <c r="K256">
-        <v>66</v>
-      </c>
-      <c r="L256">
-        <v>123964.28</v>
-      </c>
-    </row>
-    <row r="257" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I257" t="s">
-        <v>116</v>
-      </c>
-      <c r="J257" t="s">
-        <v>129</v>
-      </c>
-      <c r="K257">
-        <v>4</v>
-      </c>
-      <c r="L257">
-        <v>55048.65</v>
-      </c>
-    </row>
-    <row r="258" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I258" t="s">
-        <v>116</v>
-      </c>
-      <c r="J258" t="s">
-        <v>129</v>
-      </c>
-      <c r="K258">
-        <v>30</v>
-      </c>
-      <c r="L258">
-        <v>20330.64</v>
-      </c>
-    </row>
-    <row r="259" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I259" t="s">
-        <v>118</v>
-      </c>
-      <c r="J259" t="s">
-        <v>131</v>
-      </c>
-      <c r="K259">
-        <v>67</v>
-      </c>
-      <c r="L259">
-        <v>102998.73</v>
-      </c>
-    </row>
-    <row r="260" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I260" t="s">
-        <v>116</v>
-      </c>
-      <c r="J260" t="s">
-        <v>129</v>
-      </c>
-      <c r="K260">
-        <v>39</v>
-      </c>
-      <c r="L260">
-        <v>68116.09</v>
-      </c>
-    </row>
-    <row r="261" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I261" t="s">
-        <v>116</v>
-      </c>
-      <c r="J261" t="s">
-        <v>130</v>
-      </c>
-      <c r="K261">
-        <v>68</v>
-      </c>
-      <c r="L261">
-        <v>90211</v>
-      </c>
-    </row>
-    <row r="262" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I262" t="s">
-        <v>118</v>
-      </c>
-      <c r="J262" t="s">
-        <v>129</v>
-      </c>
-      <c r="K262">
-        <v>6</v>
-      </c>
-      <c r="L262">
-        <v>261616.64000000001</v>
-      </c>
-    </row>
-    <row r="263" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I263" t="s">
-        <v>117</v>
-      </c>
-      <c r="J263" t="s">
-        <v>129</v>
-      </c>
-      <c r="K263">
-        <v>81</v>
-      </c>
-      <c r="L263">
-        <v>401896.64</v>
-      </c>
-    </row>
-    <row r="264" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I264" t="s">
-        <v>118</v>
-      </c>
-      <c r="J264" t="s">
-        <v>130</v>
-      </c>
-      <c r="K264">
-        <v>105</v>
-      </c>
-      <c r="L264">
-        <v>133468.44</v>
-      </c>
-    </row>
-    <row r="265" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I265" t="s">
-        <v>115</v>
-      </c>
-      <c r="J265" t="s">
-        <v>129</v>
-      </c>
-      <c r="K265">
-        <v>2</v>
-      </c>
-      <c r="L265">
-        <v>103833.15</v>
-      </c>
-    </row>
-    <row r="266" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I266" t="s">
-        <v>116</v>
-      </c>
-      <c r="J266" t="s">
-        <v>129</v>
-      </c>
-      <c r="K266">
-        <v>15</v>
-      </c>
-      <c r="L266">
-        <v>65550.070000000007</v>
-      </c>
-    </row>
-    <row r="267" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I267" t="s">
-        <v>117</v>
-      </c>
-      <c r="J267" t="s">
-        <v>129</v>
-      </c>
-      <c r="K267">
-        <v>19</v>
-      </c>
-      <c r="L267">
-        <v>213136.95</v>
-      </c>
-    </row>
-    <row r="268" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I268" t="s">
-        <v>117</v>
-      </c>
-      <c r="J268" t="s">
-        <v>129</v>
-      </c>
-      <c r="K268">
-        <v>29</v>
-      </c>
-      <c r="L268">
-        <v>194290.68</v>
-      </c>
-    </row>
-    <row r="269" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I269" t="s">
-        <v>118</v>
-      </c>
-      <c r="J269" t="s">
-        <v>129</v>
-      </c>
-      <c r="K269">
-        <v>34</v>
-      </c>
-      <c r="L269">
-        <v>123231.18</v>
-      </c>
-    </row>
-    <row r="270" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I270" t="s">
-        <v>117</v>
-      </c>
-      <c r="J270" t="s">
-        <v>129</v>
-      </c>
-      <c r="K270">
-        <v>41</v>
-      </c>
-      <c r="L270">
-        <v>49724.38</v>
-      </c>
-    </row>
-    <row r="271" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I271" t="s">
-        <v>115</v>
-      </c>
-      <c r="J271" t="s">
-        <v>131</v>
-      </c>
-      <c r="K271">
-        <v>48</v>
-      </c>
-      <c r="L271">
-        <v>273591.14</v>
-      </c>
-    </row>
-    <row r="272" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I272" t="s">
-        <v>115</v>
-      </c>
-      <c r="J272" t="s">
-        <v>130</v>
-      </c>
-      <c r="K272">
-        <v>55</v>
-      </c>
-      <c r="L272">
-        <v>259421.63</v>
-      </c>
-    </row>
-    <row r="273" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I273" t="s">
-        <v>117</v>
-      </c>
-      <c r="J273" t="s">
-        <v>129</v>
-      </c>
-      <c r="K273">
-        <v>72</v>
-      </c>
-      <c r="L273">
-        <v>138561.79</v>
-      </c>
-    </row>
-    <row r="274" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I274" t="s">
-        <v>117</v>
-      </c>
-      <c r="J274" t="s">
-        <v>129</v>
-      </c>
-      <c r="K274">
-        <v>79</v>
-      </c>
-      <c r="L274">
-        <v>219998.64</v>
-      </c>
-    </row>
-    <row r="275" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I275" t="s">
-        <v>117</v>
-      </c>
-      <c r="J275" t="s">
-        <v>129</v>
-      </c>
-      <c r="K275">
-        <v>96</v>
-      </c>
-      <c r="L275">
-        <v>9111.66</v>
-      </c>
-    </row>
-    <row r="276" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I276" t="s">
-        <v>117</v>
-      </c>
-      <c r="J276" t="s">
-        <v>130</v>
-      </c>
-      <c r="K276">
-        <v>100</v>
-      </c>
-      <c r="L276">
-        <v>10491.6</v>
-      </c>
-    </row>
-    <row r="277" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I277" t="s">
-        <v>117</v>
-      </c>
-      <c r="J277" t="s">
-        <v>129</v>
-      </c>
-      <c r="K277">
-        <v>102</v>
-      </c>
-      <c r="L277">
-        <v>88768.14</v>
-      </c>
-    </row>
-    <row r="278" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I278" t="s">
-        <v>117</v>
-      </c>
-      <c r="J278" t="s">
-        <v>130</v>
-      </c>
-      <c r="K278">
-        <v>1</v>
-      </c>
-      <c r="L278">
-        <v>377768.78</v>
-      </c>
-    </row>
-    <row r="279" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I279" t="s">
-        <v>117</v>
-      </c>
-      <c r="J279" t="s">
-        <v>130</v>
-      </c>
-      <c r="K279">
-        <v>16</v>
-      </c>
-      <c r="L279">
-        <v>124447.51</v>
-      </c>
-    </row>
-    <row r="280" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I280" t="s">
-        <v>117</v>
-      </c>
-      <c r="J280" t="s">
-        <v>131</v>
-      </c>
-      <c r="K280">
-        <v>38</v>
-      </c>
-      <c r="L280">
-        <v>267945.96000000002</v>
-      </c>
-    </row>
-    <row r="281" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I281" t="s">
-        <v>116</v>
-      </c>
-      <c r="J281" t="s">
-        <v>130</v>
-      </c>
-      <c r="K281">
-        <v>46</v>
-      </c>
-      <c r="L281">
-        <v>30442.28</v>
-      </c>
-    </row>
-    <row r="282" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I282" t="s">
-        <v>116</v>
-      </c>
-      <c r="J282" t="s">
-        <v>129</v>
-      </c>
-      <c r="K282">
-        <v>9</v>
-      </c>
-      <c r="L282">
-        <v>36485.379999999997</v>
-      </c>
-    </row>
-    <row r="283" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I283" t="s">
-        <v>116</v>
-      </c>
-      <c r="J283" t="s">
-        <v>129</v>
-      </c>
-      <c r="K283">
-        <v>18</v>
-      </c>
-      <c r="L283">
-        <v>81832.62</v>
-      </c>
-    </row>
-    <row r="284" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I284" t="s">
-        <v>116</v>
-      </c>
-      <c r="J284" t="s">
-        <v>129</v>
-      </c>
-      <c r="K284">
-        <v>29</v>
-      </c>
-      <c r="L284">
-        <v>13439.68</v>
-      </c>
-    </row>
-    <row r="285" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I285" t="s">
-        <v>116</v>
-      </c>
-      <c r="J285" t="s">
-        <v>130</v>
-      </c>
-      <c r="K285">
-        <v>21</v>
-      </c>
-      <c r="L285">
-        <v>40678.800000000003</v>
-      </c>
-    </row>
-    <row r="286" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I286" t="s">
-        <v>117</v>
-      </c>
-      <c r="J286" t="s">
-        <v>130</v>
-      </c>
-      <c r="K286">
-        <v>55</v>
-      </c>
-      <c r="L286">
-        <v>21171.21</v>
-      </c>
-    </row>
-    <row r="287" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I287" t="s">
-        <v>115</v>
-      </c>
-      <c r="J287" t="s">
-        <v>129</v>
-      </c>
-      <c r="K287">
-        <v>81</v>
-      </c>
-      <c r="L287">
-        <v>305894</v>
-      </c>
-    </row>
-    <row r="288" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I288" t="s">
-        <v>117</v>
-      </c>
-      <c r="J288" t="s">
-        <v>131</v>
-      </c>
-      <c r="K288">
-        <v>42</v>
-      </c>
-      <c r="L288">
-        <v>161473.14000000001</v>
-      </c>
-    </row>
-    <row r="289" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I289" t="s">
-        <v>118</v>
-      </c>
-      <c r="J289" t="s">
-        <v>129</v>
-      </c>
-      <c r="K289">
-        <v>95</v>
-      </c>
-      <c r="L289">
-        <v>99012.54</v>
-      </c>
-    </row>
-    <row r="290" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I290" t="s">
-        <v>116</v>
-      </c>
-      <c r="J290" t="s">
-        <v>130</v>
-      </c>
-      <c r="K290">
-        <v>101</v>
-      </c>
-      <c r="L290">
-        <v>10151.280000000001</v>
-      </c>
-    </row>
-    <row r="291" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I291" t="s">
-        <v>116</v>
-      </c>
-      <c r="J291" t="s">
-        <v>129</v>
-      </c>
-      <c r="K291">
-        <v>14</v>
-      </c>
-      <c r="L291">
-        <v>38116.71</v>
-      </c>
-    </row>
-    <row r="292" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I292" t="s">
-        <v>118</v>
-      </c>
-      <c r="J292" t="s">
-        <v>129</v>
-      </c>
-      <c r="K292">
-        <v>53</v>
-      </c>
-      <c r="L292">
-        <v>168959.04</v>
-      </c>
-    </row>
-    <row r="293" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I293" t="s">
-        <v>117</v>
-      </c>
-      <c r="J293" t="s">
-        <v>129</v>
-      </c>
-      <c r="K293">
-        <v>4</v>
-      </c>
-      <c r="L293">
-        <v>367215.37</v>
-      </c>
-    </row>
-    <row r="294" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I294" t="s">
-        <v>115</v>
-      </c>
-      <c r="J294" t="s">
-        <v>129</v>
-      </c>
-      <c r="K294">
-        <v>18</v>
-      </c>
-      <c r="L294">
-        <v>675155.83</v>
-      </c>
-    </row>
-    <row r="295" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I295" t="s">
-        <v>115</v>
-      </c>
-      <c r="J295" t="s">
-        <v>129</v>
-      </c>
-      <c r="K295">
-        <v>26</v>
-      </c>
-      <c r="L295">
-        <v>215088.3</v>
-      </c>
-    </row>
-    <row r="296" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I296" t="s">
-        <v>115</v>
-      </c>
-      <c r="J296" t="s">
-        <v>130</v>
-      </c>
-      <c r="K296">
-        <v>46</v>
-      </c>
-      <c r="L296">
-        <v>370597.54</v>
-      </c>
-    </row>
-    <row r="297" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I297" t="s">
-        <v>118</v>
-      </c>
-      <c r="J297" t="s">
-        <v>131</v>
-      </c>
-      <c r="K297">
-        <v>47</v>
-      </c>
-      <c r="L297">
-        <v>145991.97</v>
-      </c>
-    </row>
-    <row r="298" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I298" t="s">
-        <v>117</v>
-      </c>
-      <c r="J298" t="s">
-        <v>129</v>
-      </c>
-      <c r="K298">
-        <v>52</v>
-      </c>
-      <c r="L298">
-        <v>5164.7700000000004</v>
-      </c>
-    </row>
-    <row r="299" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I299" t="s">
-        <v>117</v>
-      </c>
-      <c r="J299" t="s">
-        <v>129</v>
-      </c>
-      <c r="K299">
-        <v>53</v>
-      </c>
-      <c r="L299">
-        <v>16639.509999999998</v>
-      </c>
-    </row>
-    <row r="300" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I300" t="s">
-        <v>118</v>
-      </c>
-      <c r="J300" t="s">
-        <v>129</v>
-      </c>
-      <c r="K300">
-        <v>61</v>
-      </c>
-      <c r="L300">
-        <v>205541.14</v>
-      </c>
-    </row>
-    <row r="301" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I301" t="s">
-        <v>116</v>
-      </c>
-      <c r="J301" t="s">
-        <v>131</v>
-      </c>
-      <c r="K301">
-        <v>67</v>
-      </c>
-      <c r="L301">
-        <v>68453.59</v>
-      </c>
-    </row>
-    <row r="302" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I302" t="s">
-        <v>115</v>
-      </c>
-      <c r="J302" t="s">
-        <v>129</v>
-      </c>
-      <c r="K302">
-        <v>80</v>
-      </c>
-      <c r="L302">
-        <v>92607.48</v>
-      </c>
-    </row>
-    <row r="303" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I303" t="s">
-        <v>115</v>
-      </c>
-      <c r="J303" t="s">
-        <v>129</v>
-      </c>
-      <c r="K303">
-        <v>82</v>
-      </c>
-      <c r="L303">
-        <v>199278.03</v>
-      </c>
-    </row>
-    <row r="304" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I304" t="s">
-        <v>115</v>
-      </c>
-      <c r="J304" t="s">
-        <v>129</v>
-      </c>
-      <c r="K304">
-        <v>84</v>
-      </c>
-      <c r="L304">
-        <v>172200.78</v>
-      </c>
-    </row>
-    <row r="305" spans="9:12" x14ac:dyDescent="0.25">
-      <c r="I305" t="s">
-        <v>115</v>
-      </c>
-      <c r="J305" t="s">
-        <v>131</v>
-      </c>
-      <c r="K305">
-        <v>87</v>
-      </c>
-      <c r="L305">
-        <v>352861.11</v>
-      </c>
-    </row>
-    <row r="306" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I306" t="s">
-        <v>117</v>
-      </c>
-      <c r="J306" t="s">
-        <v>129</v>
-      </c>
-      <c r="K306">
-        <v>92</v>
-      </c>
-      <c r="L306">
-        <v>295197.53999999998</v>
-      </c>
-    </row>
-    <row r="307" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I307" t="s">
-        <v>117</v>
-      </c>
-      <c r="J307" t="s">
-        <v>129</v>
-      </c>
-      <c r="K307">
-        <v>40</v>
-      </c>
-      <c r="L307">
-        <v>136368.39000000001</v>
-      </c>
-    </row>
-    <row r="308" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I308" t="s">
-        <v>115</v>
-      </c>
-      <c r="J308" t="s">
-        <v>129</v>
-      </c>
-      <c r="K308">
-        <v>89</v>
-      </c>
-      <c r="L308">
-        <v>240254.87</v>
-      </c>
-    </row>
-    <row r="309" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I309" t="s">
-        <v>115</v>
-      </c>
-      <c r="J309" t="s">
-        <v>130</v>
-      </c>
-      <c r="K309">
-        <v>105</v>
-      </c>
-      <c r="L309">
-        <v>117383.33</v>
-      </c>
-    </row>
-    <row r="310" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I310" t="s">
-        <v>117</v>
-      </c>
-      <c r="J310" t="s">
-        <v>129</v>
-      </c>
-      <c r="K310">
-        <v>71</v>
-      </c>
-      <c r="L310">
-        <v>79199.25</v>
-      </c>
-    </row>
-    <row r="311" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I311" t="s">
-        <v>118</v>
-      </c>
-      <c r="J311" t="s">
-        <v>129</v>
-      </c>
-      <c r="K311">
-        <v>58</v>
-      </c>
-      <c r="L311">
-        <v>143148.10999999999</v>
-      </c>
-    </row>
-    <row r="312" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I312" t="s">
-        <v>117</v>
-      </c>
-      <c r="J312" t="s">
-        <v>129</v>
-      </c>
-      <c r="K312">
-        <v>73</v>
-      </c>
-      <c r="L312">
-        <v>170948.7</v>
-      </c>
-    </row>
-    <row r="313" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I313" t="s">
-        <v>118</v>
-      </c>
-      <c r="J313" t="s">
-        <v>129</v>
-      </c>
-      <c r="K313">
-        <v>15</v>
-      </c>
-      <c r="L313">
-        <v>150478.10999999999</v>
-      </c>
-    </row>
-    <row r="314" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I314" t="s">
-        <v>118</v>
-      </c>
-      <c r="J314" t="s">
-        <v>130</v>
-      </c>
-      <c r="K314">
-        <v>78</v>
-      </c>
-      <c r="L314">
-        <v>637154.63</v>
-      </c>
-    </row>
-    <row r="315" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I315" t="s">
-        <v>116</v>
-      </c>
-      <c r="J315" t="s">
-        <v>131</v>
-      </c>
-      <c r="K315">
-        <v>31</v>
-      </c>
-      <c r="L315">
-        <v>134358.37</v>
-      </c>
-    </row>
-    <row r="316" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I316" t="s">
-        <v>115</v>
-      </c>
-      <c r="J316" t="s">
-        <v>129</v>
-      </c>
-      <c r="K316">
-        <v>65</v>
-      </c>
-      <c r="L316">
-        <v>243447.75</v>
-      </c>
-    </row>
-    <row r="317" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I317" t="s">
-        <v>118</v>
-      </c>
-      <c r="J317" t="s">
-        <v>130</v>
-      </c>
-      <c r="K317">
-        <v>10</v>
-      </c>
-      <c r="L317">
-        <v>78840.87</v>
-      </c>
-    </row>
-    <row r="318" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I318" t="s">
-        <v>117</v>
-      </c>
-      <c r="J318" t="s">
-        <v>129</v>
-      </c>
-      <c r="K318">
-        <v>34</v>
-      </c>
-      <c r="L318">
-        <v>99416.320000000007</v>
-      </c>
-    </row>
-    <row r="319" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I319" t="s">
-        <v>117</v>
-      </c>
-      <c r="J319" t="s">
-        <v>131</v>
-      </c>
-      <c r="K319">
-        <v>97</v>
-      </c>
-      <c r="L319">
-        <v>6794.43</v>
-      </c>
-    </row>
-    <row r="320" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I320" t="s">
-        <v>118</v>
-      </c>
-      <c r="J320" t="s">
-        <v>131</v>
-      </c>
-      <c r="K320">
-        <v>87</v>
-      </c>
-      <c r="L320">
-        <v>67053.84</v>
-      </c>
-    </row>
-    <row r="321" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I321" t="s">
-        <v>118</v>
-      </c>
-      <c r="J321" t="s">
-        <v>129</v>
-      </c>
-      <c r="K321">
-        <v>2</v>
-      </c>
-      <c r="L321">
-        <v>90239.55</v>
-      </c>
-    </row>
-    <row r="322" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I322" t="s">
-        <v>115</v>
-      </c>
-      <c r="J322" t="s">
-        <v>129</v>
-      </c>
-      <c r="K322">
-        <v>61</v>
-      </c>
-      <c r="L322">
-        <v>75464.100000000006</v>
-      </c>
-    </row>
-    <row r="323" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I323" t="s">
-        <v>115</v>
-      </c>
-      <c r="J323" t="s">
-        <v>129</v>
-      </c>
-      <c r="K323">
-        <v>99</v>
-      </c>
-      <c r="L323">
-        <v>242326.79</v>
-      </c>
-    </row>
-    <row r="324" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I324" t="s">
-        <v>115</v>
-      </c>
-      <c r="J324" t="s">
-        <v>129</v>
-      </c>
-      <c r="K324">
-        <v>4</v>
-      </c>
-      <c r="L324">
-        <v>191471.04</v>
-      </c>
-    </row>
-    <row r="325" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I325" t="s">
-        <v>115</v>
-      </c>
-      <c r="J325" t="s">
-        <v>129</v>
-      </c>
-      <c r="K325">
-        <v>19</v>
-      </c>
-      <c r="L325">
-        <v>351547.05</v>
-      </c>
-    </row>
-    <row r="326" spans="9:12" hidden="1" x14ac:dyDescent="0.25">
-      <c r="I326" t="s">
-        <v>116</v>
-      </c>
-      <c r="J326" t="s">
-        <v>129</v>
-      </c>
-      <c r="K326">
-        <v>36</v>
-      </c>
-      <c r="L326">
-        <v>73122.66</v>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>149</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>
 
@@ -9230,7 +4761,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
@@ -9307,100 +4838,100 @@
     </row>
     <row r="7" spans="1:5" ht="287.25" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
-        <v>142</v>
+        <v>125</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>145</v>
+        <v>128</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>143</v>
+        <v>126</v>
       </c>
       <c r="D7" s="1" t="s">
-        <v>146</v>
+        <v>129</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>144</v>
+        <v>127</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>147</v>
+        <v>130</v>
       </c>
       <c r="E8" s="1" t="s">
-        <v>148</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>149</v>
+        <v>132</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>150</v>
+        <v>133</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="D10"/>
       <c r="E10" s="2" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="E11" s="11" t="s">
-        <v>154</v>
+        <v>136</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="E12" s="2" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
       <c r="E13" s="2" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
-        <v>158</v>
+        <v>141</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>159</v>
+        <v>142</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
-        <v>160</v>
+        <v>143</v>
       </c>
       <c r="E15" s="2" t="s">
-        <v>161</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
-        <v>162</v>
+        <v>145</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>163</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>164</v>
+        <v>147</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>165</v>
+        <v>148</v>
       </c>
     </row>
   </sheetData>
@@ -9428,7 +4959,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E22"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A32" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView showGridLines="0" topLeftCell="A11" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
@@ -9443,10 +4974,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="9" t="s">
+      <c r="A1" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="B1" s="9"/>
+      <c r="B1" s="11"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
@@ -9722,7 +5253,7 @@
   <dimension ref="A3:E15"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="68" defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
@@ -9774,27 +5305,27 @@
     </row>
     <row r="6" spans="1:5" ht="409.5" x14ac:dyDescent="0.25">
       <c r="A6" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C6" s="8" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="33" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="E7" s="8"/>
     </row>
@@ -9863,7 +5394,7 @@
       <c r="D3" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>85</v>
       </c>
     </row>
@@ -9877,7 +5408,7 @@
       <c r="D4" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="9" t="s">
         <v>86</v>
       </c>
     </row>
@@ -9894,7 +5425,7 @@
       <c r="D5" s="8" t="s">
         <v>92</v>
       </c>
-      <c r="E5" s="10"/>
+      <c r="E5" s="9"/>
     </row>
     <row r="6" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
@@ -9917,7 +5448,7 @@
       <c r="C7" s="8" t="s">
         <v>99</v>
       </c>
-      <c r="E7" s="10"/>
+      <c r="E7" s="9"/>
     </row>
     <row r="8" spans="1:5" ht="231" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
@@ -9929,7 +5460,7 @@
       <c r="D8" s="8" t="s">
         <v>103</v>
       </c>
-      <c r="E8" s="10"/>
+      <c r="E8" s="9"/>
     </row>
     <row r="9" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
@@ -9941,25 +5472,25 @@
       <c r="D9" s="8" t="s">
         <v>105</v>
       </c>
-      <c r="E9" s="10"/>
+      <c r="E9" s="9"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E10" s="10"/>
+      <c r="E10" s="9"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E11" s="10"/>
+      <c r="E11" s="9"/>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E12" s="10"/>
+      <c r="E12" s="9"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E13" s="10"/>
+      <c r="E13" s="9"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E14" s="10"/>
+      <c r="E14" s="9"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="E15" s="10"/>
+      <c r="E15" s="9"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -10050,13 +5581,13 @@
     </row>
     <row r="7" spans="1:3" ht="264" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C7" s="8" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
